--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11585C87-2231-4F4E-88B8-B5D5858327A7}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41233F1D-4831-4953-852E-F4353478E562}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
     <sheet name="with-site" sheetId="2" r:id="rId2"/>
+    <sheet name="from-Havrilla2020" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
     <author>tc={58C0F180-5C15-4D8D-BA2A-FC6AAC7A1FCC}</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{C94642D0-14F1-47D9-9197-03F961B07019}">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{C94642D0-14F1-47D9-9197-03F961B07019}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +52,7 @@
     Was not in original Master.xlsx seed mix list; instead POFE was listed twice. This was added based on the Laushman 2021 RestoreNet guide.</t>
       </text>
     </comment>
-    <comment ref="D33" authorId="1" shapeId="0" xr:uid="{58C0F180-5C15-4D8D-BA2A-FC6AAC7A1FCC}">
+    <comment ref="D32" authorId="1" shapeId="0" xr:uid="{58C0F180-5C15-4D8D-BA2A-FC6AAC7A1FCC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="243">
   <si>
     <t>Family</t>
   </si>
@@ -741,9 +742,6 @@
     <t>Scientific</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Common</t>
   </si>
   <si>
@@ -790,6 +788,12 @@
   </si>
   <si>
     <t>southwestern pricklypoppy</t>
+  </si>
+  <si>
+    <t>CodeOriginal</t>
+  </si>
+  <si>
+    <t>Spiderweb</t>
   </si>
 </sst>
 </file>
@@ -805,12 +809,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -825,8 +841,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,8 +952,8 @@
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -953,7 +971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10119360" y="464820"/>
-          <a:ext cx="2903220" cy="1668780"/>
+          <a:ext cx="3566160" cy="1668780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -993,7 +1011,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> don't understand is that PJ is a Utah site, which is ecologically kind of part of the CO Plateau, not near the Chihuahuan Desert.</a:t>
+            <a:t> don't understand is how PJ is a Chihuahuan Desert site, , which is ecologically kind of part of the CO Plateau, not near the Chihuahuan Desert.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1316,10 +1334,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D17" dT="2023-09-06T22:00:52.91" personId="{BFCF90D0-C113-436C-8513-14007208B83F}" id="{C94642D0-14F1-47D9-9197-03F961B07019}">
+  <threadedComment ref="D16" dT="2023-09-06T22:00:52.91" personId="{BFCF90D0-C113-436C-8513-14007208B83F}" id="{C94642D0-14F1-47D9-9197-03F961B07019}">
     <text>Was not in original Master.xlsx seed mix list; instead POFE was listed twice. This was added based on the Laushman 2021 RestoreNet guide.</text>
   </threadedComment>
-  <threadedComment ref="D33" dT="2023-09-06T22:05:15.44" personId="{BFCF90D0-C113-436C-8513-14007208B83F}" id="{58C0F180-5C15-4D8D-BA2A-FC6AAC7A1FCC}">
+  <threadedComment ref="D32" dT="2023-09-06T22:05:15.44" personId="{BFCF90D0-C113-436C-8513-14007208B83F}" id="{58C0F180-5C15-4D8D-BA2A-FC6AAC7A1FCC}">
     <text>Went with "cool" assignment based on Laushman 2021</text>
   </threadedComment>
 </ThreadedComments>
@@ -1331,7 +1349,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD19"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1355,24 +1373,24 @@
         <v>224</v>
       </c>
       <c r="D1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" t="s">
         <v>225</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>226</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>228</v>
-      </c>
-      <c r="H1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1398,7 +1416,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1424,7 +1442,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1450,7 +1468,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1476,7 +1494,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1502,7 +1520,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1528,7 +1546,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1554,7 +1572,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -1580,7 +1598,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1606,7 +1624,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1632,7 +1650,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1658,7 +1676,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1684,7 +1702,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -1710,7 +1728,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1736,7 +1754,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1762,7 +1780,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1788,7 +1806,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1814,7 +1832,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1840,7 +1858,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1866,7 +1884,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1892,7 +1910,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2692,7 +2710,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" t="s">
         <v>152</v>
@@ -2718,7 +2736,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -2744,7 +2762,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -2770,7 +2788,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2796,7 +2814,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2819,7 +2837,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2845,7 +2863,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2871,7 +2889,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2897,7 +2915,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2923,7 +2941,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s">
         <v>49</v>
@@ -2949,7 +2967,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B63" t="s">
         <v>49</v>
@@ -2975,7 +2993,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2998,7 +3016,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
         <v>148</v>
@@ -3024,7 +3042,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B66" t="s">
         <v>152</v>
@@ -3050,7 +3068,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
         <v>139</v>
@@ -3076,7 +3094,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B68" t="s">
         <v>85</v>
@@ -3102,7 +3120,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -3128,7 +3146,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -3154,7 +3172,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -3180,7 +3198,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -3206,7 +3224,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -3232,7 +3250,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -3258,7 +3276,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B75" t="s">
         <v>57</v>
@@ -3284,7 +3302,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -3310,7 +3328,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -3336,7 +3354,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B78" t="s">
         <v>57</v>
@@ -3362,7 +3380,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -3388,7 +3406,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B80" t="s">
         <v>112</v>
@@ -3414,7 +3432,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B81" t="s">
         <v>204</v>
@@ -3440,7 +3458,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B82" t="s">
         <v>57</v>
@@ -3466,7 +3484,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
@@ -3492,7 +3510,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -3518,7 +3536,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -3544,7 +3562,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
         <v>124</v>
@@ -3570,7 +3588,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3596,7 +3614,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -3622,7 +3640,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -3648,7 +3666,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -3674,7 +3692,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3700,7 +3718,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -3723,7 +3741,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -3749,7 +3767,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3775,7 +3793,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B95" t="s">
         <v>112</v>
@@ -3801,7 +3819,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
@@ -3827,7 +3845,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B97" t="s">
         <v>57</v>
@@ -3853,7 +3871,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -3888,11 +3906,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FC37BE-5B4E-4F84-9B06-1E5398641E62}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3907,36 +3925,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
         <v>234</v>
-      </c>
-      <c r="B1" t="s">
-        <v>235</v>
       </c>
       <c r="C1" t="s">
         <v>224</v>
       </c>
       <c r="D1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" t="s">
         <v>225</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>226</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>228</v>
-      </c>
-      <c r="H1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -3959,10 +3977,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -3985,10 +4003,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -4011,10 +4029,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -4037,10 +4055,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -4063,10 +4081,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -4089,10 +4107,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -4115,10 +4133,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -4141,10 +4159,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -4167,10 +4185,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -4193,10 +4211,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
@@ -4219,10 +4237,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -4234,7 +4252,7 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4245,534 +4263,531 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>15.8</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+        <v>229</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>19.399999999999999</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>15.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" t="s">
-        <v>239</v>
+        <v>229</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>22.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>229</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
         <v>123</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>22.5</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
+        <v>229</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>21.84</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
+        <v>229</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>19.899999999999999</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>23.15</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>18.63</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
+        <v>229</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>16.25</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
+        <v>229</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>14.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
+        <v>229</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>11.5</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
+        <v>229</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>19.899999999999999</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
+        <v>229</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>17.72</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>20.3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
+        <v>229</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H30">
-        <v>17.97</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
+        <v>229</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
       </c>
       <c r="G31">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>14.2</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
+        <v>229</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
         <v>75</v>
       </c>
       <c r="G32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>15.95</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
+        <v>229</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>15.8</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
+        <v>229</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
         <v>123</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>20.5</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>230</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
+        <v>229</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>21.6</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>19.399999999999999</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -4780,22 +4795,22 @@
         <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H37">
-        <v>15.5</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -4803,22 +4818,22 @@
         <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
         <v>123</v>
       </c>
       <c r="G38">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>18.3</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -4826,22 +4841,22 @@
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s">
         <v>123</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H39">
-        <v>21.1</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -4849,22 +4864,22 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
         <v>123</v>
       </c>
       <c r="G40">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>19.399999999999999</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -4872,22 +4887,22 @@
         <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
         <v>123</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H41">
-        <v>21.4</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -4895,22 +4910,22 @@
         <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>18.7</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4918,22 +4933,22 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43">
-        <v>17.100000000000001</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4941,22 +4956,22 @@
         <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
         <v>94</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H44">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4964,22 +4979,22 @@
         <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>94</v>
       </c>
       <c r="G45">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H45">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -4987,22 +5002,22 @@
         <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H46">
-        <v>15.5</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -5010,22 +5025,22 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>75</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H47">
-        <v>14.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -5033,22 +5048,22 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
         <v>75</v>
       </c>
       <c r="G48">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -5056,22 +5071,22 @@
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G49">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>11.7</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -5079,22 +5094,19 @@
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>13.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -5102,19 +5114,19 @@
         <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G51">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -5122,19 +5134,22 @@
         <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <v>21.5</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -5142,22 +5157,22 @@
         <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H53">
-        <v>21.5</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -5165,22 +5180,22 @@
         <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H54">
-        <v>17.399999999999999</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -5188,22 +5203,22 @@
         <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G55">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H55">
-        <v>12.1</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -5211,22 +5226,22 @@
         <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56">
-        <v>13.3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -5234,22 +5249,22 @@
         <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H57">
-        <v>17</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -5257,22 +5272,22 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G58">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>14.2</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -5280,22 +5295,22 @@
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="F59" t="s">
         <v>104</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H59">
-        <v>18.100000000000001</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -5303,22 +5318,22 @@
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
         <v>104</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>15.1</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -5326,22 +5341,22 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H61">
-        <v>16.7</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -5349,22 +5364,22 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G62">
         <v>14</v>
       </c>
       <c r="H62">
-        <v>11.4</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -5372,22 +5387,22 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G63">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>21.7</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -5395,22 +5410,22 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G64">
         <v>4</v>
       </c>
       <c r="H64">
-        <v>12.7</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -5418,88 +5433,88 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>21.6</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H66">
-        <v>16.899999999999999</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="F67" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H67">
-        <v>23.52</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="F68" t="s">
         <v>75</v>
       </c>
       <c r="G68">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>20.25</v>
@@ -5507,654 +5522,654 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>20.25</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F70" t="s">
         <v>123</v>
       </c>
       <c r="G70">
-        <v>3</v>
-      </c>
-      <c r="H70">
-        <v>23.38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
         <v>123</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <v>22.5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C72" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
         <v>123</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>22.5</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
       <c r="H73">
-        <v>23.33</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="H74">
-        <v>21.84</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="H75">
-        <v>23.38</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F76" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H76">
-        <v>19.86</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G77">
-        <v>4</v>
-      </c>
-      <c r="H77">
-        <v>23.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
         <v>75</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H78">
+        <v>21.94</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
         <v>75</v>
       </c>
       <c r="G79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>21.94</v>
+        <v>23.31</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F80" t="s">
         <v>75</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H80">
-        <v>23.31</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G81">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H81">
-        <v>17.97</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="F82" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H82">
-        <v>22.96</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D83" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F83" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>22.89</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F84" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H84">
-        <v>23.46</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="E85" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="F85" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G85">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H85">
-        <v>21.84</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E86" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F86" t="s">
         <v>123</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>24.88</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="E87" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F87" t="s">
         <v>123</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>24.2</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F88" t="s">
         <v>123</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H88">
-        <v>23.15</v>
+        <v>23.97</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C89" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E89" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F89" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H89">
-        <v>23.97</v>
+        <v>22.87</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D90" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E90" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="F90" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>22.87</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E91" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>23.38</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E92" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F92" t="s">
         <v>75</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>21.75</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D93" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E93" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="F93" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H93">
-        <v>20.86</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D94" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E94" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F94" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G94">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>23.5</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="E95" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F95" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
       <c r="H95">
-        <v>21.66</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D96" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E96" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="F96" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H96">
-        <v>23.83</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
         <v>75</v>
@@ -6163,348 +6178,325 @@
         <v>1.5</v>
       </c>
       <c r="H97">
-        <v>22.96</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="F98" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G98">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H98">
-        <v>19.399999999999999</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C99" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D99" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E99" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
         <v>123</v>
       </c>
       <c r="G99">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H99">
-        <v>21.1</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C100" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
         <v>123</v>
       </c>
       <c r="G100">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H100">
-        <v>19.399999999999999</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
         <v>123</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H101">
-        <v>21.84</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="G102">
         <v>9</v>
       </c>
       <c r="H102">
-        <v>23.15</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
         <v>182</v>
       </c>
       <c r="G103">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H103">
-        <v>18.63</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D104" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E104" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="F104" t="s">
         <v>182</v>
       </c>
       <c r="G104">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>16.25</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C105" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D105" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F105" t="s">
         <v>182</v>
       </c>
       <c r="G105">
-        <v>2</v>
-      </c>
-      <c r="H105">
-        <v>13.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="E106" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="H106">
+        <v>15.97</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C107" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="G107">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H107">
-        <v>15.97</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E108" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="F108" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="G108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H108">
-        <v>17.97</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D109" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E109" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="F109" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>18.100000000000001</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D110" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E110" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="F110" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H110">
-        <v>16.7</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C111" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="F111" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="G111">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H111">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>232</v>
-      </c>
-      <c r="C112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112" t="s">
-        <v>182</v>
-      </c>
-      <c r="G112">
-        <v>2</v>
-      </c>
-      <c r="H112">
         <v>19.399999999999999</v>
       </c>
     </row>
@@ -6513,4 +6505,50 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AACCC2-25F8-47C0-AE4C-0CA6CA3F7938}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41233F1D-4831-4953-852E-F4353478E562}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6A5E3B2-E22A-41A6-B0B0-2527E13916B8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
-    <sheet name="with-site" sheetId="2" r:id="rId2"/>
-    <sheet name="from-Havrilla2020" sheetId="3" r:id="rId3"/>
+    <sheet name="with-site" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,24 +39,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C94642D0-14F1-47D9-9197-03F961B07019}</author>
-    <author>tc={58C0F180-5C15-4D8D-BA2A-FC6AAC7A1FCC}</author>
+    <author>tc={15185EA4-1242-4913-8F31-8D241C7649DC}</author>
   </authors>
   <commentList>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{C94642D0-14F1-47D9-9197-03F961B07019}">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{15185EA4-1242-4913-8F31-8D241C7649DC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Was not in original Master.xlsx seed mix list; instead POFE was listed twice. This was added based on the Laushman 2021 RestoreNet guide.</t>
-      </text>
-    </comment>
-    <comment ref="D32" authorId="1" shapeId="0" xr:uid="{58C0F180-5C15-4D8D-BA2A-FC6AAC7A1FCC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Went with "cool" assignment based on Laushman 2021</t>
+    What is this lol</t>
       </text>
     </comment>
   </commentList>
@@ -65,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="279">
   <si>
     <t>Family</t>
   </si>
@@ -292,9 +282,6 @@
     <t>bluebunch wheatgrass</t>
   </si>
   <si>
-    <t>cool</t>
-  </si>
-  <si>
     <t>Hedysarum boreale</t>
   </si>
   <si>
@@ -349,9 +336,6 @@
     <t>flax</t>
   </si>
   <si>
-    <t>cool/med</t>
-  </si>
-  <si>
     <t>Heliomeris multiflora</t>
   </si>
   <si>
@@ -379,9 +363,6 @@
     <t>white prarie clover</t>
   </si>
   <si>
-    <t>med/warm</t>
-  </si>
-  <si>
     <t>Poa secunda</t>
   </si>
   <si>
@@ -436,9 +417,6 @@
     <t>indian ricegrass</t>
   </si>
   <si>
-    <t>warm</t>
-  </si>
-  <si>
     <t>Apocynaceae</t>
   </si>
   <si>
@@ -481,9 +459,6 @@
     <t>alkali sacaton</t>
   </si>
   <si>
-    <t>warm - substitute</t>
-  </si>
-  <si>
     <t>Boraginaceae</t>
   </si>
   <si>
@@ -613,9 +588,6 @@
     <t>cheesebush</t>
   </si>
   <si>
-    <t>med</t>
-  </si>
-  <si>
     <t>Sandberg bluegrass</t>
   </si>
   <si>
@@ -772,28 +744,154 @@
     <t>Site</t>
   </si>
   <si>
-    <t>UtahPJ</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>warm &amp; cool</t>
-  </si>
-  <si>
-    <t>Argemone pleiacantha</t>
-  </si>
-  <si>
-    <t>ARPL3</t>
-  </si>
-  <si>
-    <t>southwestern pricklypoppy</t>
-  </si>
-  <si>
     <t>CodeOriginal</t>
   </si>
   <si>
-    <t>Spiderweb</t>
+    <t>AguaFria, MOWE, PEFO, Spiderweb</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Warm - substitute</t>
+  </si>
+  <si>
+    <t>Cool-Med</t>
+  </si>
+  <si>
+    <t>Med-Warm</t>
+  </si>
+  <si>
+    <t>TLE</t>
+  </si>
+  <si>
+    <t>29_Palms, AVRCD</t>
+  </si>
+  <si>
+    <t>Colorado Plateau | Utah</t>
+  </si>
+  <si>
+    <t>BarTBar, FlyingM | CRC, Salt_Desert</t>
+  </si>
+  <si>
+    <t>BabbitPJ | UtahPJ</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Mix_region</t>
+  </si>
+  <si>
+    <t>Med-Warm_COP</t>
+  </si>
+  <si>
+    <t>Warm_COP</t>
+  </si>
+  <si>
+    <t>Cool-Med_COP</t>
+  </si>
+  <si>
+    <t>Cool_COP</t>
+  </si>
+  <si>
+    <t>Cool_Mojave</t>
+  </si>
+  <si>
+    <t>Warm_Mojave</t>
+  </si>
+  <si>
+    <t>Med_SoSE</t>
+  </si>
+  <si>
+    <t>Warm_SoSE</t>
+  </si>
+  <si>
+    <t>Patagonia, SRER</t>
+  </si>
+  <si>
+    <t>Preserve, SCC, Roosevelt, Pleasant</t>
+  </si>
+  <si>
+    <t>Cool_SoCen</t>
+  </si>
+  <si>
+    <t>Warm_SoCen</t>
+  </si>
+  <si>
+    <t>Indian ricegrass</t>
+  </si>
+  <si>
+    <t>James' galleta</t>
+  </si>
+  <si>
+    <t>purple threeawn</t>
+  </si>
+  <si>
+    <t>Snake River wheatgrass</t>
+  </si>
+  <si>
+    <t>sweetvetch</t>
+  </si>
+  <si>
+    <t>basin wildrye</t>
+  </si>
+  <si>
+    <t>gooseberryleaf globemallow</t>
+  </si>
+  <si>
+    <t>whitedaisy tidytips</t>
+  </si>
+  <si>
+    <t>burroweed</t>
+  </si>
+  <si>
+    <t>triangle-leaf bursage</t>
+  </si>
+  <si>
+    <t>sixweeks grama</t>
+  </si>
+  <si>
+    <t>bush muhly</t>
+  </si>
+  <si>
+    <t>chia</t>
+  </si>
+  <si>
+    <t>apricot globemallow</t>
+  </si>
+  <si>
+    <t>needle grama</t>
+  </si>
+  <si>
+    <t>fairyduster</t>
+  </si>
+  <si>
+    <t>desert Indianwheat</t>
+  </si>
+  <si>
+    <t>fourwing saltbush</t>
+  </si>
+  <si>
+    <t>Mesquite, Creosote</t>
+  </si>
+  <si>
+    <t>muttongrass</t>
+  </si>
+  <si>
+    <t>Med_Chi</t>
+  </si>
+  <si>
+    <t>Warm_Chi</t>
+  </si>
+  <si>
+    <t>blanket flower</t>
+  </si>
+  <si>
+    <t>flat-topped buckwheat</t>
+  </si>
+  <si>
+    <t>slender wheatgrass</t>
   </si>
 </sst>
 </file>
@@ -809,27 +907,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -837,14 +923,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,16 +960,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -890,8 +984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10469880" y="556260"/>
-          <a:ext cx="3634740" cy="830580"/>
+          <a:off x="10165080" y="624840"/>
+          <a:ext cx="2613660" cy="830580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,7 +1025,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>nged from Master.xlsx, just codes have been alphabetized.</a:t>
+            <a:t>nged from Master.xlsx, just have been alphabetized by scientific name (original was listed by NicheValue, which is a measure of heat tolerance).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -946,23 +1040,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC8CB09-C644-94C7-F736-3BFE1C9F8FE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F45779B-F237-B716-1BF4-441F67A400FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -970,8 +1064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10119360" y="464820"/>
-          <a:ext cx="3566160" cy="1668780"/>
+          <a:off x="12182475" y="561975"/>
+          <a:ext cx="3448050" cy="4857750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1006,12 +1100,86 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> am assuming Utah sites also used CO Plateau mixes,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>because they are more or less part of the Colorado Plateau region geographically.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Chihuahuan mix based on Farrell 2023 supplemental table (because the list from Master.xlsx is confusing).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>What I</a:t>
+            <a:t>CO Plateau, Utah, and Sonoran SE sites</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> don't understand is how PJ is a Chihuahuan Desert site, , which is ecologically kind of part of the CO Plateau, not near the Chihuahuan Desert.</a:t>
+            <a:t> had 7 species in each mix. Sonoran Central, Mojave, and Chihuahuan had 8 species in each mix. I left out the substitute species.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1020,7 +1188,43 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>This sheet differs from the other in that I have standardized the Mix column, and added separate rows for PJ. Mesquite was the same as the general Chihuahuan mix listing, so it did not get its own rows.</a:t>
+            <a:t>Only CO Plateau &amp; Utah sites had different seed mixes within the same region. Other regions had the same seed mix at all sites.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Because content of seed mix varies by region, I added a column with region attached to the mix name to identify unique mixes.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>CO Plateau site seed mixes were confirmed with Havrilla 2020, which listed mixes by site in supplemental.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Blank values for NicheValue indiates it is unknown.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Common names according to Farrell 2023 supplemental table and USDA Plants; capitalization has been standardized.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1334,22 +1538,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D16" dT="2023-09-06T22:00:52.91" personId="{BFCF90D0-C113-436C-8513-14007208B83F}" id="{C94642D0-14F1-47D9-9197-03F961B07019}">
-    <text>Was not in original Master.xlsx seed mix list; instead POFE was listed twice. This was added based on the Laushman 2021 RestoreNet guide.</text>
-  </threadedComment>
-  <threadedComment ref="D32" dT="2023-09-06T22:05:15.44" personId="{BFCF90D0-C113-436C-8513-14007208B83F}" id="{58C0F180-5C15-4D8D-BA2A-FC6AAC7A1FCC}">
-    <text>Went with "cool" assignment based on Laushman 2021</text>
+  <threadedComment ref="B18" dT="2023-09-07T17:52:48.15" personId="{BFCF90D0-C113-436C-8513-14007208B83F}" id="{15185EA4-1242-4913-8F31-8D241C7649DC}">
+    <text>What is this lol</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ED48DE-F67E-409C-BADB-8346B0730F99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ED48DE-F67E-409C-BADB-8346B0730F99}">
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:F7"/>
+      <selection pane="bottomLeft" activeCell="B6" activeCellId="7" sqref="B5:H5 B11:H11 B13:H13 B20:H20 B21:H21 B4:H4 B3:H3 B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1364,33 +1565,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1416,7 +1617,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1442,7 +1643,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1468,7 +1669,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1494,7 +1695,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1520,7 +1721,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1546,7 +1747,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1572,7 +1773,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -1598,7 +1799,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1624,7 +1825,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1650,7 +1851,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1676,7 +1877,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1702,7 +1903,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -1728,7 +1929,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1754,7 +1955,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1780,7 +1981,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1806,7 +2007,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1832,7 +2033,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1858,7 +2059,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1884,7 +2085,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1910,7 +2111,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1948,10 +2149,10 @@
         <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1968,16 +2169,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G24">
         <v>12</v>
@@ -1994,16 +2195,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2017,19 +2218,19 @@
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G26">
         <v>12</v>
@@ -2055,7 +2256,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2081,7 +2282,7 @@
         <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G28">
         <v>9</v>
@@ -2098,16 +2299,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2133,7 +2334,7 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -2150,16 +2351,16 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
         <v>101</v>
       </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>103</v>
-      </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="G31">
         <v>12</v>
@@ -2185,7 +2386,7 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -2208,10 +2409,10 @@
         <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -2228,16 +2429,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
         <v>79</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>80</v>
       </c>
-      <c r="E34" t="s">
-        <v>81</v>
-      </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G34">
         <v>15</v>
@@ -2254,16 +2455,16 @@
         <v>57</v>
       </c>
       <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>77</v>
       </c>
-      <c r="E35" t="s">
-        <v>78</v>
-      </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G35">
         <v>25</v>
@@ -2280,16 +2481,16 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
         <v>95</v>
       </c>
-      <c r="D36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" t="s">
-        <v>97</v>
-      </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -2306,19 +2507,22 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
         <v>90</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>91</v>
       </c>
-      <c r="E37" t="s">
-        <v>92</v>
-      </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G37">
         <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2329,19 +2533,22 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" t="s">
         <v>116</v>
-      </c>
-      <c r="D38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" t="s">
-        <v>119</v>
       </c>
       <c r="G38">
         <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2352,16 +2559,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G39">
         <v>9</v>
@@ -2387,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -2404,16 +2611,16 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>83</v>
       </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G41">
         <v>11</v>
@@ -2436,10 +2643,10 @@
         <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -2465,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -2482,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
         <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="G44">
         <v>16</v>
@@ -2505,19 +2712,19 @@
         <v>71</v>
       </c>
       <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
         <v>112</v>
       </c>
-      <c r="C45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" t="s">
-        <v>115</v>
-      </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2543,7 +2750,7 @@
         <v>66</v>
       </c>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="G46">
         <v>12</v>
@@ -2560,16 +2767,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -2595,7 +2802,7 @@
         <v>74</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -2612,16 +2819,16 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G49">
         <v>14</v>
@@ -2635,19 +2842,19 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
         <v>85</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>86</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>87</v>
       </c>
-      <c r="E50" t="s">
-        <v>88</v>
-      </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G50">
         <v>4</v>
@@ -2670,10 +2877,10 @@
         <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -2696,10 +2903,10 @@
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2710,22 +2917,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G53">
         <v>6</v>
@@ -2736,22 +2943,22 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F54" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G54">
         <v>10</v>
@@ -2762,22 +2969,22 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2788,22 +2995,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E56" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -2814,30 +3021,33 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
+      <c r="H57" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2852,7 +3062,7 @@
         <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -2863,22 +3073,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -2889,7 +3099,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2904,7 +3114,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2915,22 +3125,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -2941,7 +3151,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B62" t="s">
         <v>49</v>
@@ -2953,10 +3163,10 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F62" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -2967,22 +3177,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B63" t="s">
         <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F63" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -2993,45 +3203,48 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F64" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G64">
         <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F65" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G65">
         <v>0.5</v>
@@ -3042,22 +3255,22 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F66" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3068,22 +3281,22 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F67" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G67">
         <v>2.5</v>
@@ -3094,22 +3307,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -3120,22 +3333,22 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -3146,22 +3359,22 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E70" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F70" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G70">
         <v>3</v>
@@ -3172,7 +3385,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -3184,10 +3397,10 @@
         <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G71">
         <v>1.5</v>
@@ -3198,22 +3411,22 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F72" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -3224,22 +3437,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D73" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -3250,7 +3463,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -3262,10 +3475,10 @@
         <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F74" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -3276,22 +3489,22 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B75" t="s">
         <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G75">
         <v>5</v>
@@ -3302,22 +3515,22 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F76" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G76">
         <v>4</v>
@@ -3328,22 +3541,22 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E77" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -3354,22 +3567,22 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
         <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F78" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -3380,22 +3593,22 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D79" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F79" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3406,22 +3619,22 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E80" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G80">
         <v>1.5</v>
@@ -3432,22 +3645,22 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F81" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -3458,22 +3671,22 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
         <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D82" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E82" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F82" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -3484,22 +3697,22 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E83" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F83" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G83">
         <v>1.5</v>
@@ -3510,7 +3723,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -3522,10 +3735,10 @@
         <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F84" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G84">
         <v>1.5</v>
@@ -3536,22 +3749,22 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F85" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G85">
         <v>6</v>
@@ -3562,22 +3775,22 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E86" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F86" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G86">
         <v>10</v>
@@ -3588,7 +3801,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3603,7 +3816,7 @@
         <v>42</v>
       </c>
       <c r="F87" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -3614,7 +3827,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -3626,10 +3839,10 @@
         <v>47</v>
       </c>
       <c r="E88" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F88" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G88">
         <v>9</v>
@@ -3640,7 +3853,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -3655,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="G89">
         <v>9</v>
@@ -3666,7 +3879,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -3681,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="G90">
         <v>12</v>
@@ -3692,22 +3905,22 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" t="s">
         <v>95</v>
       </c>
-      <c r="D91" t="s">
-        <v>96</v>
-      </c>
-      <c r="E91" t="s">
-        <v>97</v>
-      </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -3718,45 +3931,48 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" t="s">
         <v>231</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" t="s">
-        <v>118</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92">
         <v>3</v>
       </c>
+      <c r="H92" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D93" t="s">
         <v>65</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G93">
         <v>12</v>
@@ -3767,7 +3983,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3779,10 +3995,10 @@
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="G94">
         <v>5</v>
@@ -3793,22 +4009,22 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" t="s">
         <v>112</v>
       </c>
-      <c r="C95" t="s">
-        <v>113</v>
-      </c>
-      <c r="D95" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" t="s">
-        <v>115</v>
-      </c>
       <c r="F95" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -3819,22 +4035,22 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" t="s">
+        <v>177</v>
+      </c>
+      <c r="F96" t="s">
         <v>231</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>105</v>
-      </c>
-      <c r="D96" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" t="s">
-        <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -3845,22 +4061,22 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B97" t="s">
         <v>57</v>
       </c>
       <c r="C97" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D97" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E97" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F97" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G97">
         <v>14</v>
@@ -3871,7 +4087,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -3886,7 +4102,7 @@
         <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -3901,1013 +4117,1350 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FC37BE-5B4E-4F84-9B06-1E5398641E62}">
-  <dimension ref="A1:H111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AACCC2-25F8-47C0-AE4C-0CA6CA3F7938}">
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" t="s">
+        <v>274</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" t="s">
+        <v>275</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" t="s">
+        <v>275</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" t="s">
+        <v>275</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
+        <v>275</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" t="s">
+        <v>275</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" t="s">
         <v>234</v>
       </c>
-      <c r="C1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3">
+      <c r="H18" t="s">
+        <v>242</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" t="s">
+        <v>242</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H23" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>18.63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="J23">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" t="s">
+        <v>242</v>
+      </c>
+      <c r="I24">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5">
+      <c r="J24">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" t="s">
+        <v>243</v>
+      </c>
+      <c r="I26">
         <v>6</v>
       </c>
-      <c r="H5">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>17.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>17.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>15.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>21.84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>23.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>237</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>18.63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>237</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>237</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
-        <v>17.72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F27" t="s">
         <v>123</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" t="s">
+        <v>243</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="1">
+        <v>14</v>
+      </c>
+      <c r="J31" s="1">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" t="s">
+        <v>244</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" t="s">
+        <v>244</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36" t="s">
+        <v>244</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
+        <v>233</v>
+      </c>
+      <c r="H38" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" t="s">
+        <v>242</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>234</v>
+      </c>
+      <c r="H40" t="s">
+        <v>242</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" t="s">
+        <v>242</v>
+      </c>
+      <c r="I41">
         <v>5</v>
       </c>
-      <c r="H27">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="J41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>237</v>
       </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>17.97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30">
-        <v>16</v>
-      </c>
-      <c r="H30">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31">
-        <v>12</v>
-      </c>
-      <c r="H31">
-        <v>15.95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>229</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>237</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37">
-        <v>12</v>
-      </c>
-      <c r="H37">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-      <c r="H38">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39">
-        <v>12</v>
-      </c>
-      <c r="H39">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41">
-        <v>9</v>
-      </c>
-      <c r="H41">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>71</v>
+      <c r="B42" t="s">
+        <v>238</v>
       </c>
       <c r="C42" t="s">
         <v>109</v>
@@ -4919,44 +5472,62 @@
         <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42">
+        <v>112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I42">
         <v>3</v>
       </c>
-      <c r="H42">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>237</v>
+      </c>
+      <c r="B43" t="s">
+        <v>238</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="G43" t="s">
+        <v>234</v>
+      </c>
+      <c r="H43" t="s">
+        <v>242</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>237</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
@@ -4965,1590 +5536,2411 @@
         <v>103</v>
       </c>
       <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="s">
+        <v>234</v>
+      </c>
+      <c r="H44" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" t="s">
+        <v>245</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" t="s">
+        <v>245</v>
+      </c>
+      <c r="I47">
+        <v>15</v>
+      </c>
+      <c r="J47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="J48">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" t="s">
+        <v>245</v>
+      </c>
+      <c r="I49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" t="s">
+        <v>259</v>
+      </c>
+      <c r="G50" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" t="s">
+        <v>245</v>
+      </c>
+      <c r="I50">
+        <v>11</v>
+      </c>
+      <c r="J50">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" t="s">
+        <v>245</v>
+      </c>
+      <c r="I51">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>237</v>
+      </c>
+      <c r="B52" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" t="s">
+        <v>260</v>
+      </c>
+      <c r="G52" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" t="s">
+        <v>245</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" t="s">
+        <v>244</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>233</v>
+      </c>
+      <c r="H54" t="s">
+        <v>244</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" t="s">
+        <v>233</v>
+      </c>
+      <c r="H55" t="s">
+        <v>244</v>
+      </c>
+      <c r="I55">
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>233</v>
+      </c>
+      <c r="H56" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" t="s">
         <v>94</v>
       </c>
-      <c r="G44">
-        <v>12</v>
-      </c>
-      <c r="H44">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="F57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" t="s">
+        <v>233</v>
+      </c>
+      <c r="H57" t="s">
+        <v>244</v>
+      </c>
+      <c r="I57">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45">
+      <c r="J57">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" t="s">
+        <v>233</v>
+      </c>
+      <c r="H58" t="s">
+        <v>244</v>
+      </c>
+      <c r="I58">
         <v>6</v>
       </c>
-      <c r="H45">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>75</v>
-      </c>
-      <c r="G46">
-        <v>10</v>
-      </c>
-      <c r="H46">
+      <c r="J58">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I59" s="1">
+        <v>16</v>
+      </c>
+      <c r="J59" s="1">
         <v>14.2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47">
-        <v>15</v>
-      </c>
-      <c r="H47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48">
-        <v>25</v>
-      </c>
-      <c r="H48">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52">
-        <v>9</v>
-      </c>
-      <c r="H52">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53">
-        <v>6</v>
-      </c>
-      <c r="H53">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54">
-        <v>11</v>
-      </c>
-      <c r="H54">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55">
-        <v>6</v>
-      </c>
-      <c r="H55">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G56">
-        <v>5</v>
-      </c>
-      <c r="H56">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57">
-        <v>16</v>
-      </c>
-      <c r="H57">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="H58">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" t="s">
-        <v>104</v>
-      </c>
-      <c r="G59">
-        <v>12</v>
-      </c>
-      <c r="H59">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>104</v>
-      </c>
-      <c r="G60">
-        <v>4</v>
-      </c>
-      <c r="H60">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" t="s">
+        <v>245</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
+      <c r="B61" t="s">
+        <v>235</v>
+      </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61">
-        <v>14</v>
-      </c>
-      <c r="H61">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="G61" t="s">
+        <v>138</v>
+      </c>
+      <c r="H61" t="s">
+        <v>245</v>
+      </c>
+      <c r="I61">
+        <v>15</v>
+      </c>
+      <c r="J61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>71</v>
       </c>
+      <c r="B62" t="s">
+        <v>235</v>
+      </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62">
-        <v>14</v>
-      </c>
-      <c r="H62">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="G62" t="s">
+        <v>138</v>
+      </c>
+      <c r="H62" t="s">
+        <v>245</v>
+      </c>
+      <c r="I62">
+        <v>25</v>
+      </c>
+      <c r="J62">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>71</v>
       </c>
+      <c r="B63" t="s">
+        <v>235</v>
+      </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63">
-        <v>4</v>
-      </c>
-      <c r="H63">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="G63" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" t="s">
+        <v>245</v>
+      </c>
+      <c r="I63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>71</v>
       </c>
+      <c r="B64" t="s">
+        <v>235</v>
+      </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="F64" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" t="s">
         <v>138</v>
       </c>
-      <c r="G64">
-        <v>4</v>
-      </c>
-      <c r="H64">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>245</v>
+      </c>
+      <c r="I64">
+        <v>11</v>
+      </c>
+      <c r="J64">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
+      <c r="B65" t="s">
+        <v>235</v>
+      </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>104</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="G65" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" t="s">
+        <v>245</v>
+      </c>
+      <c r="I65">
+        <v>14</v>
+      </c>
+      <c r="J65">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>230</v>
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>235</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G66">
+        <v>260</v>
+      </c>
+      <c r="G66" t="s">
+        <v>138</v>
+      </c>
+      <c r="H66" t="s">
+        <v>245</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" t="s">
+        <v>254</v>
+      </c>
+      <c r="G67" t="s">
+        <v>155</v>
+      </c>
+      <c r="H67" t="s">
+        <v>243</v>
+      </c>
+      <c r="I67">
+        <v>12</v>
+      </c>
+      <c r="J67">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" t="s">
+        <v>256</v>
+      </c>
+      <c r="G68" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" t="s">
+        <v>243</v>
+      </c>
+      <c r="I68">
         <v>6</v>
       </c>
-      <c r="H66">
-        <v>23.52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>230</v>
-      </c>
-      <c r="C67" t="s">
-        <v>156</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="J68">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" t="s">
         <v>121</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E69" t="s">
         <v>122</v>
-      </c>
-      <c r="F67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67">
-        <v>10</v>
-      </c>
-      <c r="H67">
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>230</v>
-      </c>
-      <c r="C68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>230</v>
-      </c>
-      <c r="C69" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69" t="s">
-        <v>172</v>
       </c>
       <c r="F69" t="s">
         <v>123</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="s">
+        <v>155</v>
+      </c>
+      <c r="H69" t="s">
+        <v>243</v>
+      </c>
+      <c r="I69">
+        <v>12</v>
+      </c>
+      <c r="J69">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" t="s">
+        <v>243</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" t="s">
+        <v>182</v>
+      </c>
+      <c r="G71" t="s">
+        <v>155</v>
+      </c>
+      <c r="H71" t="s">
+        <v>243</v>
+      </c>
+      <c r="I71">
+        <v>9</v>
+      </c>
+      <c r="J71">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" t="s">
+        <v>243</v>
+      </c>
+      <c r="I72">
+        <v>9</v>
+      </c>
+      <c r="J72">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I73" s="1">
+        <v>14</v>
+      </c>
+      <c r="J73" s="1">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" t="s">
+        <v>254</v>
+      </c>
+      <c r="G74" t="s">
+        <v>138</v>
+      </c>
+      <c r="H74" t="s">
+        <v>246</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" t="s">
+        <v>138</v>
+      </c>
+      <c r="H75" t="s">
+        <v>246</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s">
+        <v>138</v>
+      </c>
+      <c r="H76" t="s">
+        <v>246</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" t="s">
+        <v>277</v>
+      </c>
+      <c r="G77" t="s">
+        <v>138</v>
+      </c>
+      <c r="H77" t="s">
+        <v>246</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>19.86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" t="s">
+        <v>261</v>
+      </c>
+      <c r="G78" t="s">
+        <v>138</v>
+      </c>
+      <c r="H78" t="s">
+        <v>246</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" t="s">
+        <v>145</v>
+      </c>
+      <c r="F79" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" t="s">
+        <v>246</v>
+      </c>
+      <c r="I79">
+        <v>0.5</v>
+      </c>
+      <c r="J79">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" t="s">
+        <v>149</v>
+      </c>
+      <c r="F80" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" t="s">
+        <v>246</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>23.31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" t="s">
+        <v>246</v>
+      </c>
+      <c r="I81">
+        <v>2.5</v>
+      </c>
+      <c r="J81">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" t="s">
+        <v>155</v>
+      </c>
+      <c r="H82" t="s">
+        <v>247</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" t="s">
+        <v>166</v>
+      </c>
+      <c r="F83" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" t="s">
+        <v>155</v>
+      </c>
+      <c r="H83" t="s">
+        <v>247</v>
+      </c>
+      <c r="I83">
         <v>3</v>
       </c>
-      <c r="H69">
+      <c r="J83">
         <v>23.38</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>230</v>
-      </c>
-      <c r="C70" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" t="s">
+        <v>176</v>
+      </c>
+      <c r="G84" t="s">
+        <v>155</v>
+      </c>
+      <c r="H84" t="s">
+        <v>247</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>271</v>
+      </c>
+      <c r="G85" t="s">
+        <v>155</v>
+      </c>
+      <c r="H85" t="s">
+        <v>247</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" t="s">
+        <v>163</v>
+      </c>
+      <c r="F86" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86" t="s">
+        <v>155</v>
+      </c>
+      <c r="H86" t="s">
+        <v>247</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>23.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>168</v>
+      </c>
+      <c r="E87" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87" t="s">
+        <v>170</v>
+      </c>
+      <c r="G87" t="s">
+        <v>155</v>
+      </c>
+      <c r="H87" t="s">
+        <v>247</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" t="s">
+        <v>161</v>
+      </c>
+      <c r="G88" t="s">
+        <v>155</v>
+      </c>
+      <c r="H88" t="s">
+        <v>247</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I89" s="1">
+        <v>4</v>
+      </c>
+      <c r="J89" s="1">
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>226</v>
+      </c>
+      <c r="B90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" t="s">
+        <v>263</v>
+      </c>
+      <c r="G90" t="s">
+        <v>138</v>
+      </c>
+      <c r="H90" t="s">
+        <v>252</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+      <c r="J90">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s">
+        <v>138</v>
+      </c>
+      <c r="H91" t="s">
+        <v>252</v>
+      </c>
+      <c r="I91">
+        <v>1.5</v>
+      </c>
+      <c r="J91">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" t="s">
+        <v>251</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" t="s">
+        <v>264</v>
+      </c>
+      <c r="G92" t="s">
+        <v>138</v>
+      </c>
+      <c r="H92" t="s">
+        <v>252</v>
+      </c>
+      <c r="I92">
+        <v>4</v>
+      </c>
+      <c r="J92">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="s">
+        <v>193</v>
+      </c>
+      <c r="F93" t="s">
+        <v>194</v>
+      </c>
+      <c r="G93" t="s">
+        <v>138</v>
+      </c>
+      <c r="H93" t="s">
+        <v>252</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" t="s">
+        <v>265</v>
+      </c>
+      <c r="G94" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" t="s">
+        <v>252</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>226</v>
+      </c>
+      <c r="B95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95" t="s">
+        <v>266</v>
+      </c>
+      <c r="G95" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" t="s">
+        <v>252</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" t="s">
+        <v>156</v>
+      </c>
+      <c r="E96" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" t="s">
+        <v>267</v>
+      </c>
+      <c r="G96" t="s">
+        <v>138</v>
+      </c>
+      <c r="H96" t="s">
+        <v>252</v>
+      </c>
+      <c r="I96">
+        <v>1.5</v>
+      </c>
+      <c r="J96">
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>138</v>
+      </c>
+      <c r="H97" t="s">
+        <v>252</v>
+      </c>
+      <c r="I97">
+        <v>1.5</v>
+      </c>
+      <c r="J97">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" t="s">
+        <v>256</v>
+      </c>
+      <c r="G98" t="s">
+        <v>155</v>
+      </c>
+      <c r="H98" t="s">
+        <v>253</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" t="s">
+        <v>251</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" t="s">
+        <v>268</v>
+      </c>
+      <c r="G99" t="s">
+        <v>155</v>
+      </c>
+      <c r="H99" t="s">
+        <v>253</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <v>24.88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>215</v>
+      </c>
+      <c r="E100" t="s">
+        <v>216</v>
+      </c>
+      <c r="F100" t="s">
+        <v>108</v>
+      </c>
+      <c r="G100" t="s">
+        <v>155</v>
+      </c>
+      <c r="H100" t="s">
+        <v>253</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" t="s">
+        <v>182</v>
+      </c>
+      <c r="G101" t="s">
+        <v>155</v>
+      </c>
+      <c r="H101" t="s">
+        <v>253</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" t="s">
+        <v>205</v>
+      </c>
+      <c r="E102" t="s">
+        <v>206</v>
+      </c>
+      <c r="F102" t="s">
+        <v>269</v>
+      </c>
+      <c r="G102" t="s">
+        <v>155</v>
+      </c>
+      <c r="H102" t="s">
+        <v>253</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" t="s">
+        <v>251</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>168</v>
+      </c>
+      <c r="E103" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" t="s">
+        <v>170</v>
+      </c>
+      <c r="G103" t="s">
+        <v>155</v>
+      </c>
+      <c r="H103" t="s">
+        <v>253</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" t="s">
+        <v>251</v>
+      </c>
+      <c r="C104" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" t="s">
+        <v>209</v>
+      </c>
+      <c r="F104" t="s">
+        <v>270</v>
+      </c>
+      <c r="G104" t="s">
+        <v>155</v>
+      </c>
+      <c r="H104" t="s">
+        <v>253</v>
+      </c>
+      <c r="I104">
+        <v>1.5</v>
+      </c>
+      <c r="J104">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I105" s="1">
+        <v>2</v>
+      </c>
+      <c r="J105" s="1">
+        <v>23.83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" t="s">
+        <v>250</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>231</v>
+      </c>
+      <c r="H106" t="s">
+        <v>248</v>
+      </c>
+      <c r="I106">
+        <v>9</v>
+      </c>
+      <c r="J106">
+        <v>18.63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>231</v>
+      </c>
+      <c r="H107" t="s">
+        <v>248</v>
+      </c>
+      <c r="I107">
+        <v>12</v>
+      </c>
+      <c r="J107">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" t="s">
+        <v>250</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" t="s">
+        <v>95</v>
+      </c>
+      <c r="G108" t="s">
+        <v>231</v>
+      </c>
+      <c r="H108" t="s">
+        <v>248</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" t="s">
+        <v>114</v>
+      </c>
+      <c r="F109" t="s">
+        <v>115</v>
+      </c>
+      <c r="G109" t="s">
+        <v>231</v>
+      </c>
+      <c r="H109" t="s">
+        <v>248</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>178</v>
+      </c>
+      <c r="G110" t="s">
+        <v>231</v>
+      </c>
+      <c r="H110" t="s">
+        <v>248</v>
+      </c>
+      <c r="I110">
+        <v>5</v>
+      </c>
+      <c r="J110">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>250</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" t="s">
+        <v>103</v>
+      </c>
+      <c r="F111" t="s">
+        <v>177</v>
+      </c>
+      <c r="G111" t="s">
+        <v>231</v>
+      </c>
+      <c r="H111" t="s">
+        <v>248</v>
+      </c>
+      <c r="I111">
+        <v>4</v>
+      </c>
+      <c r="J111">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>250</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>231</v>
+      </c>
+      <c r="H112" t="s">
+        <v>248</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" t="s">
+        <v>125</v>
+      </c>
+      <c r="F113" t="s">
+        <v>256</v>
+      </c>
+      <c r="G113" t="s">
+        <v>155</v>
+      </c>
+      <c r="H113" t="s">
+        <v>249</v>
+      </c>
+      <c r="I113">
+        <v>6</v>
+      </c>
+      <c r="J113">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114" t="s">
+        <v>181</v>
+      </c>
+      <c r="G114" t="s">
+        <v>155</v>
+      </c>
+      <c r="H114" t="s">
+        <v>249</v>
+      </c>
+      <c r="I114">
+        <v>10</v>
+      </c>
+      <c r="J114">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" t="s">
+        <v>41</v>
+      </c>
+      <c r="F115" t="s">
+        <v>42</v>
+      </c>
+      <c r="G115" t="s">
+        <v>155</v>
+      </c>
+      <c r="H115" t="s">
+        <v>249</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116" t="s">
+        <v>182</v>
+      </c>
+      <c r="G116" t="s">
+        <v>155</v>
+      </c>
+      <c r="H116" t="s">
+        <v>249</v>
+      </c>
+      <c r="I116">
+        <v>9</v>
+      </c>
+      <c r="J116">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
         <v>179</v>
       </c>
-      <c r="D70" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" t="s">
-        <v>181</v>
-      </c>
-      <c r="F70" t="s">
-        <v>123</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>230</v>
-      </c>
-      <c r="C71" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" t="s">
-        <v>45</v>
-      </c>
-      <c r="F71" t="s">
-        <v>123</v>
-      </c>
-      <c r="G71">
-        <v>4</v>
-      </c>
-      <c r="H71">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" t="s">
-        <v>169</v>
-      </c>
-      <c r="F72" t="s">
-        <v>123</v>
-      </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72">
-        <v>23.33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>230</v>
-      </c>
-      <c r="C73" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" t="s">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s">
-        <v>75</v>
-      </c>
-      <c r="G73">
-        <v>2</v>
-      </c>
-      <c r="H73">
-        <v>21.84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>230</v>
-      </c>
-      <c r="C74" t="s">
-        <v>173</v>
-      </c>
-      <c r="D74" t="s">
-        <v>174</v>
-      </c>
-      <c r="E74" t="s">
-        <v>175</v>
-      </c>
-      <c r="F74" t="s">
-        <v>123</v>
-      </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
-      <c r="H74">
-        <v>23.38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>230</v>
-      </c>
-      <c r="C75" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" t="s">
-        <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="H75">
-        <v>19.86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>230</v>
-      </c>
-      <c r="C76" t="s">
-        <v>164</v>
-      </c>
-      <c r="D76" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" t="s">
-        <v>166</v>
-      </c>
-      <c r="F76" t="s">
-        <v>123</v>
-      </c>
-      <c r="G76">
-        <v>4</v>
-      </c>
-      <c r="H76">
-        <v>23.18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>230</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" t="s">
-        <v>158</v>
-      </c>
-      <c r="E77" t="s">
-        <v>159</v>
-      </c>
-      <c r="F77" t="s">
-        <v>75</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>230</v>
-      </c>
-      <c r="C78" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" t="s">
-        <v>150</v>
-      </c>
-      <c r="E78" t="s">
-        <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>75</v>
-      </c>
-      <c r="G78">
-        <v>0.5</v>
-      </c>
-      <c r="H78">
-        <v>21.94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>230</v>
-      </c>
-      <c r="C79" t="s">
-        <v>153</v>
-      </c>
-      <c r="D79" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="E117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F117" t="s">
+        <v>255</v>
+      </c>
+      <c r="G117" t="s">
         <v>155</v>
       </c>
-      <c r="F79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>23.31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>230</v>
-      </c>
-      <c r="C80" t="s">
-        <v>140</v>
-      </c>
-      <c r="D80" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" t="s">
-        <v>142</v>
-      </c>
-      <c r="F80" t="s">
-        <v>75</v>
-      </c>
-      <c r="G80">
-        <v>2.5</v>
-      </c>
-      <c r="H80">
-        <v>17.97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>230</v>
-      </c>
-      <c r="C81" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" t="s">
-        <v>162</v>
-      </c>
-      <c r="E81" t="s">
-        <v>163</v>
-      </c>
-      <c r="F81" t="s">
-        <v>123</v>
-      </c>
-      <c r="G81">
-        <v>4</v>
-      </c>
-      <c r="H81">
-        <v>22.96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>232</v>
-      </c>
-      <c r="C82" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" t="s">
-        <v>193</v>
-      </c>
-      <c r="E82" t="s">
-        <v>194</v>
-      </c>
-      <c r="F82" t="s">
-        <v>75</v>
-      </c>
-      <c r="G82">
-        <v>5</v>
-      </c>
-      <c r="H82">
-        <v>22.89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>232</v>
-      </c>
-      <c r="C83" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" t="s">
-        <v>208</v>
-      </c>
-      <c r="F83" t="s">
-        <v>123</v>
-      </c>
-      <c r="G83">
+      <c r="H117" t="s">
+        <v>249</v>
+      </c>
+      <c r="I117">
+        <v>12</v>
+      </c>
+      <c r="J117">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118" t="s">
+        <v>250</v>
+      </c>
+      <c r="C118" t="s">
+        <v>109</v>
+      </c>
+      <c r="D118" t="s">
+        <v>110</v>
+      </c>
+      <c r="E118" t="s">
+        <v>111</v>
+      </c>
+      <c r="F118" t="s">
+        <v>112</v>
+      </c>
+      <c r="G118" t="s">
+        <v>155</v>
+      </c>
+      <c r="H118" t="s">
+        <v>249</v>
+      </c>
+      <c r="I118">
         <v>3</v>
       </c>
-      <c r="H83">
-        <v>23.46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>232</v>
-      </c>
-      <c r="C84" t="s">
-        <v>40</v>
-      </c>
-      <c r="D84" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" t="s">
-        <v>190</v>
-      </c>
-      <c r="F84" t="s">
-        <v>75</v>
-      </c>
-      <c r="G84">
-        <v>1.5</v>
-      </c>
-      <c r="H84">
-        <v>21.84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>232</v>
-      </c>
-      <c r="C85" t="s">
-        <v>218</v>
-      </c>
-      <c r="D85" t="s">
-        <v>219</v>
-      </c>
-      <c r="E85" t="s">
-        <v>220</v>
-      </c>
-      <c r="F85" t="s">
-        <v>123</v>
-      </c>
-      <c r="G85">
-        <v>3</v>
-      </c>
-      <c r="H85">
-        <v>24.88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" t="s">
-        <v>221</v>
-      </c>
-      <c r="D86" t="s">
-        <v>222</v>
-      </c>
-      <c r="E86" t="s">
-        <v>223</v>
-      </c>
-      <c r="F86" t="s">
-        <v>123</v>
-      </c>
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" t="s">
-        <v>47</v>
-      </c>
-      <c r="E87" t="s">
-        <v>209</v>
-      </c>
-      <c r="F87" t="s">
-        <v>123</v>
-      </c>
-      <c r="G87">
-        <v>3</v>
-      </c>
-      <c r="H87">
-        <v>23.15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>232</v>
-      </c>
-      <c r="C88" t="s">
-        <v>211</v>
-      </c>
-      <c r="D88" t="s">
-        <v>212</v>
-      </c>
-      <c r="E88" t="s">
-        <v>213</v>
-      </c>
-      <c r="F88" t="s">
-        <v>123</v>
-      </c>
-      <c r="G88">
-        <v>5</v>
-      </c>
-      <c r="H88">
-        <v>23.97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>232</v>
-      </c>
-      <c r="C89" t="s">
-        <v>195</v>
-      </c>
-      <c r="D89" t="s">
-        <v>196</v>
-      </c>
-      <c r="E89" t="s">
-        <v>197</v>
-      </c>
-      <c r="F89" t="s">
-        <v>75</v>
-      </c>
-      <c r="G89">
-        <v>4</v>
-      </c>
-      <c r="H89">
-        <v>22.87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>232</v>
-      </c>
-      <c r="C90" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" t="s">
-        <v>174</v>
-      </c>
-      <c r="E90" t="s">
-        <v>210</v>
-      </c>
-      <c r="F90" t="s">
-        <v>123</v>
-      </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90">
-        <v>23.38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>232</v>
-      </c>
-      <c r="C91" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91" t="s">
-        <v>199</v>
-      </c>
-      <c r="E91" t="s">
-        <v>200</v>
-      </c>
-      <c r="F91" t="s">
-        <v>75</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
-      </c>
-      <c r="H91">
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>232</v>
-      </c>
-      <c r="C92" t="s">
-        <v>201</v>
-      </c>
-      <c r="D92" t="s">
-        <v>202</v>
-      </c>
-      <c r="E92" t="s">
-        <v>203</v>
-      </c>
-      <c r="F92" t="s">
-        <v>75</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>20.86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" t="s">
-        <v>214</v>
-      </c>
-      <c r="D93" t="s">
-        <v>215</v>
-      </c>
-      <c r="E93" t="s">
-        <v>216</v>
-      </c>
-      <c r="F93" t="s">
-        <v>123</v>
-      </c>
-      <c r="G93">
-        <v>1.5</v>
-      </c>
-      <c r="H93">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>232</v>
-      </c>
-      <c r="C94" t="s">
-        <v>205</v>
-      </c>
-      <c r="D94" t="s">
-        <v>206</v>
-      </c>
-      <c r="E94" t="s">
-        <v>207</v>
-      </c>
-      <c r="F94" t="s">
-        <v>75</v>
-      </c>
-      <c r="G94">
-        <v>2</v>
-      </c>
-      <c r="H94">
-        <v>21.66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" t="s">
-        <v>135</v>
-      </c>
-      <c r="E95" t="s">
-        <v>217</v>
-      </c>
-      <c r="F95" t="s">
-        <v>123</v>
-      </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
-      <c r="H95">
-        <v>23.83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" t="s">
-        <v>161</v>
-      </c>
-      <c r="D96" t="s">
-        <v>162</v>
-      </c>
-      <c r="E96" t="s">
-        <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96">
-        <v>1.5</v>
-      </c>
-      <c r="H96">
-        <v>22.96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>232</v>
-      </c>
-      <c r="C97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" t="s">
-        <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>75</v>
-      </c>
-      <c r="G97">
-        <v>1.5</v>
-      </c>
-      <c r="H97">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>231</v>
-      </c>
-      <c r="C98" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" t="s">
-        <v>129</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="J118">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F98" t="s">
-        <v>123</v>
-      </c>
-      <c r="G98">
-        <v>6</v>
-      </c>
-      <c r="H98">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99" t="s">
-        <v>125</v>
-      </c>
-      <c r="D99" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" t="s">
-        <v>187</v>
-      </c>
-      <c r="F99" t="s">
-        <v>123</v>
-      </c>
-      <c r="G99">
-        <v>10</v>
-      </c>
-      <c r="H99">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>231</v>
-      </c>
-      <c r="C100" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" t="s">
-        <v>42</v>
-      </c>
-      <c r="F100" t="s">
-        <v>123</v>
-      </c>
-      <c r="G100">
-        <v>2</v>
-      </c>
-      <c r="H100">
-        <v>21.84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>231</v>
-      </c>
-      <c r="C101" t="s">
-        <v>46</v>
-      </c>
-      <c r="D101" t="s">
-        <v>47</v>
-      </c>
-      <c r="E101" t="s">
-        <v>188</v>
-      </c>
-      <c r="F101" t="s">
-        <v>123</v>
-      </c>
-      <c r="G101">
-        <v>9</v>
-      </c>
-      <c r="H101">
-        <v>23.15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>231</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="E119" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I119" s="1">
         <v>14</v>
       </c>
-      <c r="D102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" t="s">
-        <v>182</v>
-      </c>
-      <c r="G102">
-        <v>9</v>
-      </c>
-      <c r="H102">
-        <v>18.63</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>231</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" t="s">
-        <v>182</v>
-      </c>
-      <c r="G103">
-        <v>12</v>
-      </c>
-      <c r="H103">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>231</v>
-      </c>
-      <c r="C104" t="s">
-        <v>95</v>
-      </c>
-      <c r="D104" t="s">
-        <v>96</v>
-      </c>
-      <c r="E104" t="s">
-        <v>97</v>
-      </c>
-      <c r="F104" t="s">
-        <v>182</v>
-      </c>
-      <c r="G104">
-        <v>2</v>
-      </c>
-      <c r="H104">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" t="s">
-        <v>117</v>
-      </c>
-      <c r="E105" t="s">
-        <v>118</v>
-      </c>
-      <c r="F105" t="s">
-        <v>182</v>
-      </c>
-      <c r="G105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>231</v>
-      </c>
-      <c r="C106" t="s">
-        <v>185</v>
-      </c>
-      <c r="D106" t="s">
-        <v>65</v>
-      </c>
-      <c r="E106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F106" t="s">
-        <v>123</v>
-      </c>
-      <c r="G106">
-        <v>12</v>
-      </c>
-      <c r="H106">
-        <v>15.97</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>231</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" t="s">
-        <v>184</v>
-      </c>
-      <c r="F107" t="s">
-        <v>182</v>
-      </c>
-      <c r="G107">
-        <v>5</v>
-      </c>
-      <c r="H107">
-        <v>17.97</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>231</v>
-      </c>
-      <c r="C108" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" t="s">
-        <v>114</v>
-      </c>
-      <c r="E108" t="s">
-        <v>115</v>
-      </c>
-      <c r="F108" t="s">
-        <v>123</v>
-      </c>
-      <c r="G108">
-        <v>3</v>
-      </c>
-      <c r="H108">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>231</v>
-      </c>
-      <c r="C109" t="s">
-        <v>105</v>
-      </c>
-      <c r="D109" t="s">
-        <v>106</v>
-      </c>
-      <c r="E109" t="s">
-        <v>183</v>
-      </c>
-      <c r="F109" t="s">
-        <v>182</v>
-      </c>
-      <c r="G109">
-        <v>4</v>
-      </c>
-      <c r="H109">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" t="s">
-        <v>134</v>
-      </c>
-      <c r="D110" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" t="s">
-        <v>136</v>
-      </c>
-      <c r="F110" t="s">
-        <v>123</v>
-      </c>
-      <c r="G110">
-        <v>14</v>
-      </c>
-      <c r="H110">
+      <c r="J119" s="1">
         <v>21.7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>231</v>
-      </c>
-      <c r="C111" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" t="s">
-        <v>182</v>
-      </c>
-      <c r="G111">
-        <v>2</v>
-      </c>
-      <c r="H111">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:J31">
+    <sortCondition ref="D25:D31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AACCC2-25F8-47C0-AE4C-0CA6CA3F7938}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DDAE3D5-59E5-430E-B814-615D62799E38}"/>
+  <xr:revisionPtr revIDLastSave="535" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30564E69-E7FE-4729-9099-1412083C239E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
@@ -775,9 +775,6 @@
     <t>BarTBar, FlyingM | CRC, Salt_Desert</t>
   </si>
   <si>
-    <t>BabbitPJ | UtahPJ</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -919,9 +916,6 @@
     <t>FlyingM</t>
   </si>
   <si>
-    <t>BabbitPJ</t>
-  </si>
-  <si>
     <t>29_Palms</t>
   </si>
   <si>
@@ -956,6 +950,12 @@
   </si>
   <si>
     <t>CRC</t>
+  </si>
+  <si>
+    <t>BabbittPJ | UtahPJ</t>
+  </si>
+  <si>
+    <t>BabbittPJ</t>
   </si>
 </sst>
 </file>
@@ -1709,8 +1709,8 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2682,7 +2682,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2708,7 +2708,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3202,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4112,7 +4112,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -4286,8 +4286,8 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4326,7 +4326,7 @@
         <v>220</v>
       </c>
       <c r="H1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I1" t="s">
         <v>221</v>
@@ -4340,7 +4340,7 @@
         <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -4358,7 +4358,7 @@
         <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -4384,13 +4384,13 @@
         <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
         <v>231</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -4404,7 +4404,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -4416,13 +4416,13 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
         <v>231</v>
       </c>
       <c r="H4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -4436,7 +4436,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -4454,7 +4454,7 @@
         <v>231</v>
       </c>
       <c r="H5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -4468,7 +4468,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -4486,7 +4486,7 @@
         <v>231</v>
       </c>
       <c r="H6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -4500,7 +4500,7 @@
         <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -4518,7 +4518,7 @@
         <v>231</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -4532,7 +4532,7 @@
         <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -4544,13 +4544,13 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G8" t="s">
         <v>231</v>
       </c>
       <c r="H8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -4564,7 +4564,7 @@
         <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -4582,7 +4582,7 @@
         <v>231</v>
       </c>
       <c r="H9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -4596,7 +4596,7 @@
         <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -4608,13 +4608,13 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G10" t="s">
         <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -4628,7 +4628,7 @@
         <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -4646,7 +4646,7 @@
         <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -4660,7 +4660,7 @@
         <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -4678,7 +4678,7 @@
         <v>155</v>
       </c>
       <c r="H12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -4692,7 +4692,7 @@
         <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>155</v>
       </c>
       <c r="H13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -4724,7 +4724,7 @@
         <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -4736,13 +4736,13 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" t="s">
         <v>155</v>
       </c>
       <c r="H14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -4756,7 +4756,7 @@
         <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>155</v>
       </c>
       <c r="H15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -4788,7 +4788,7 @@
         <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -4806,7 +4806,7 @@
         <v>155</v>
       </c>
       <c r="H16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4820,7 +4820,7 @@
         <v>223</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -4838,7 +4838,7 @@
         <v>155</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I17" s="1">
         <v>4</v>
@@ -4870,7 +4870,7 @@
         <v>234</v>
       </c>
       <c r="H18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -4902,7 +4902,7 @@
         <v>234</v>
       </c>
       <c r="H19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -4934,7 +4934,7 @@
         <v>234</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I20">
         <v>5</v>
@@ -4966,7 +4966,7 @@
         <v>234</v>
       </c>
       <c r="H21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -4992,13 +4992,13 @@
         <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G22" t="s">
         <v>234</v>
       </c>
       <c r="H22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I22">
         <v>12</v>
@@ -5030,7 +5030,7 @@
         <v>234</v>
       </c>
       <c r="H23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -5062,7 +5062,7 @@
         <v>234</v>
       </c>
       <c r="H24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -5088,13 +5088,13 @@
         <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G25" t="s">
         <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -5120,13 +5120,13 @@
         <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
         <v>155</v>
       </c>
       <c r="H26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -5158,7 +5158,7 @@
         <v>155</v>
       </c>
       <c r="H27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I27">
         <v>12</v>
@@ -5190,7 +5190,7 @@
         <v>155</v>
       </c>
       <c r="H28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -5222,7 +5222,7 @@
         <v>155</v>
       </c>
       <c r="H29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -5254,7 +5254,7 @@
         <v>155</v>
       </c>
       <c r="H30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I30">
         <v>9</v>
@@ -5286,7 +5286,7 @@
         <v>155</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I31" s="1">
         <v>14</v>
@@ -5318,7 +5318,7 @@
         <v>233</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5350,7 +5350,7 @@
         <v>233</v>
       </c>
       <c r="H33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -5382,7 +5382,7 @@
         <v>233</v>
       </c>
       <c r="H34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I34">
         <v>12</v>
@@ -5414,7 +5414,7 @@
         <v>233</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I35">
         <v>6</v>
@@ -5446,7 +5446,7 @@
         <v>233</v>
       </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -5478,7 +5478,7 @@
         <v>233</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I37">
         <v>6</v>
@@ -5510,7 +5510,7 @@
         <v>233</v>
       </c>
       <c r="H38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I38">
         <v>16</v>
@@ -5542,7 +5542,7 @@
         <v>234</v>
       </c>
       <c r="H39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -5574,7 +5574,7 @@
         <v>234</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I40">
         <v>6</v>
@@ -5606,7 +5606,7 @@
         <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I41">
         <v>5</v>
@@ -5638,7 +5638,7 @@
         <v>234</v>
       </c>
       <c r="H42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -5664,13 +5664,13 @@
         <v>65</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G43" t="s">
         <v>234</v>
       </c>
       <c r="H43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I43">
         <v>12</v>
@@ -5702,7 +5702,7 @@
         <v>234</v>
       </c>
       <c r="H44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -5734,7 +5734,7 @@
         <v>234</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I45" s="1">
         <v>2</v>
@@ -5748,7 +5748,7 @@
         <v>237</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -5766,7 +5766,7 @@
         <v>138</v>
       </c>
       <c r="H46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I46">
         <v>10</v>
@@ -5780,7 +5780,7 @@
         <v>237</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -5792,13 +5792,13 @@
         <v>79</v>
       </c>
       <c r="F47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G47" t="s">
         <v>138</v>
       </c>
       <c r="H47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I47">
         <v>15</v>
@@ -5812,7 +5812,7 @@
         <v>237</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
@@ -5824,13 +5824,13 @@
         <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G48" t="s">
         <v>138</v>
       </c>
       <c r="H48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I48">
         <v>25</v>
@@ -5844,7 +5844,7 @@
         <v>237</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -5862,7 +5862,7 @@
         <v>138</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I49">
         <v>14</v>
@@ -5873,7 +5873,7 @@
         <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -5885,13 +5885,13 @@
         <v>82</v>
       </c>
       <c r="F50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G50" t="s">
         <v>138</v>
       </c>
       <c r="H50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I50">
         <v>11</v>
@@ -5905,7 +5905,7 @@
         <v>237</v>
       </c>
       <c r="B51" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -5923,7 +5923,7 @@
         <v>138</v>
       </c>
       <c r="H51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I51">
         <v>14</v>
@@ -5937,7 +5937,7 @@
         <v>237</v>
       </c>
       <c r="B52" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C52" t="s">
         <v>84</v>
@@ -5949,13 +5949,13 @@
         <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G52" t="s">
         <v>138</v>
       </c>
       <c r="H52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -5969,7 +5969,7 @@
         <v>237</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -5987,7 +5987,7 @@
         <v>233</v>
       </c>
       <c r="H53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -6001,7 +6001,7 @@
         <v>237</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -6019,7 +6019,7 @@
         <v>233</v>
       </c>
       <c r="H54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -6033,7 +6033,7 @@
         <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -6051,7 +6051,7 @@
         <v>233</v>
       </c>
       <c r="H55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I55">
         <v>12</v>
@@ -6065,7 +6065,7 @@
         <v>237</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -6083,7 +6083,7 @@
         <v>233</v>
       </c>
       <c r="H56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I56">
         <v>6</v>
@@ -6097,7 +6097,7 @@
         <v>237</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -6115,7 +6115,7 @@
         <v>233</v>
       </c>
       <c r="H57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -6129,7 +6129,7 @@
         <v>237</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C58" t="s">
         <v>67</v>
@@ -6147,7 +6147,7 @@
         <v>233</v>
       </c>
       <c r="H58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I58">
         <v>6</v>
@@ -6161,7 +6161,7 @@
         <v>237</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
@@ -6179,7 +6179,7 @@
         <v>233</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I59" s="1">
         <v>16</v>
@@ -6211,7 +6211,7 @@
         <v>138</v>
       </c>
       <c r="H60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I60">
         <v>10</v>
@@ -6237,13 +6237,13 @@
         <v>79</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G61" t="s">
         <v>138</v>
       </c>
       <c r="H61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I61">
         <v>15</v>
@@ -6269,13 +6269,13 @@
         <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G62" t="s">
         <v>138</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I62">
         <v>25</v>
@@ -6307,7 +6307,7 @@
         <v>138</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I63">
         <v>14</v>
@@ -6330,13 +6330,13 @@
         <v>82</v>
       </c>
       <c r="F64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
         <v>138</v>
       </c>
       <c r="H64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I64">
         <v>11</v>
@@ -6368,7 +6368,7 @@
         <v>138</v>
       </c>
       <c r="H65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I65">
         <v>14</v>
@@ -6394,13 +6394,13 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G66" t="s">
         <v>138</v>
       </c>
       <c r="H66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I66">
         <v>4</v>
@@ -6426,13 +6426,13 @@
         <v>118</v>
       </c>
       <c r="F67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G67" t="s">
         <v>155</v>
       </c>
       <c r="H67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I67">
         <v>12</v>
@@ -6458,13 +6458,13 @@
         <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G68" t="s">
         <v>155</v>
       </c>
       <c r="H68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I68">
         <v>6</v>
@@ -6496,7 +6496,7 @@
         <v>155</v>
       </c>
       <c r="H69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I69">
         <v>12</v>
@@ -6528,7 +6528,7 @@
         <v>155</v>
       </c>
       <c r="H70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6560,7 +6560,7 @@
         <v>155</v>
       </c>
       <c r="H71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I71">
         <v>9</v>
@@ -6592,7 +6592,7 @@
         <v>155</v>
       </c>
       <c r="H72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I72">
         <v>9</v>
@@ -6624,7 +6624,7 @@
         <v>155</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I73" s="1">
         <v>14</v>
@@ -6650,13 +6650,13 @@
         <v>118</v>
       </c>
       <c r="F74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G74" t="s">
         <v>138</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I74">
         <v>10</v>
@@ -6688,7 +6688,7 @@
         <v>138</v>
       </c>
       <c r="H75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -6720,7 +6720,7 @@
         <v>138</v>
       </c>
       <c r="H76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -6746,13 +6746,13 @@
         <v>51</v>
       </c>
       <c r="F77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G77" t="s">
         <v>138</v>
       </c>
       <c r="H77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -6778,13 +6778,13 @@
         <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G78" t="s">
         <v>138</v>
       </c>
       <c r="H78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         <v>138</v>
       </c>
       <c r="H79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I79">
         <v>0.5</v>
@@ -6845,7 +6845,7 @@
         <v>138</v>
       </c>
       <c r="H80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -6877,7 +6877,7 @@
         <v>138</v>
       </c>
       <c r="H81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I81">
         <v>2.5</v>
@@ -6909,7 +6909,7 @@
         <v>155</v>
       </c>
       <c r="H82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I82">
         <v>6</v>
@@ -6935,13 +6935,13 @@
         <v>166</v>
       </c>
       <c r="F83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G83" t="s">
         <v>155</v>
       </c>
       <c r="H83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I83">
         <v>3</v>
@@ -6973,7 +6973,7 @@
         <v>155</v>
       </c>
       <c r="H84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I84">
         <v>2</v>
@@ -6996,13 +6996,13 @@
         <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G85" t="s">
         <v>155</v>
       </c>
       <c r="H85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I85">
         <v>4</v>
@@ -7034,7 +7034,7 @@
         <v>155</v>
       </c>
       <c r="H86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I86">
         <v>2</v>
@@ -7066,7 +7066,7 @@
         <v>155</v>
       </c>
       <c r="H87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I87">
         <v>2</v>
@@ -7098,7 +7098,7 @@
         <v>155</v>
       </c>
       <c r="H88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I88">
         <v>4</v>
@@ -7130,7 +7130,7 @@
         <v>155</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I89" s="1">
         <v>4</v>
@@ -7144,7 +7144,7 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -7156,13 +7156,13 @@
         <v>187</v>
       </c>
       <c r="F90" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G90" t="s">
         <v>138</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I90">
         <v>5</v>
@@ -7176,7 +7176,7 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -7194,7 +7194,7 @@
         <v>138</v>
       </c>
       <c r="H91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I91">
         <v>1.5</v>
@@ -7208,7 +7208,7 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -7220,13 +7220,13 @@
         <v>190</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G92" t="s">
         <v>138</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I92">
         <v>4</v>
@@ -7240,7 +7240,7 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
         <v>57</v>
@@ -7258,7 +7258,7 @@
         <v>138</v>
       </c>
       <c r="H93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I93">
         <v>3</v>
@@ -7272,7 +7272,7 @@
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -7284,13 +7284,13 @@
         <v>196</v>
       </c>
       <c r="F94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G94" t="s">
         <v>138</v>
       </c>
       <c r="H94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -7304,7 +7304,7 @@
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s">
         <v>198</v>
@@ -7316,13 +7316,13 @@
         <v>200</v>
       </c>
       <c r="F95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G95" t="s">
         <v>138</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -7336,7 +7336,7 @@
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C96" t="s">
         <v>84</v>
@@ -7348,13 +7348,13 @@
         <v>157</v>
       </c>
       <c r="F96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G96" t="s">
         <v>138</v>
       </c>
       <c r="H96" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I96">
         <v>1.5</v>
@@ -7368,7 +7368,7 @@
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -7386,7 +7386,7 @@
         <v>138</v>
       </c>
       <c r="H97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I97">
         <v>1.5</v>
@@ -7400,7 +7400,7 @@
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -7412,13 +7412,13 @@
         <v>125</v>
       </c>
       <c r="F98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G98" t="s">
         <v>155</v>
       </c>
       <c r="H98" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -7432,7 +7432,7 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -7444,13 +7444,13 @@
         <v>213</v>
       </c>
       <c r="F99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G99" t="s">
         <v>155</v>
       </c>
       <c r="H99" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I99">
         <v>3</v>
@@ -7464,7 +7464,7 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -7482,7 +7482,7 @@
         <v>155</v>
       </c>
       <c r="H100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -7496,7 +7496,7 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -7514,7 +7514,7 @@
         <v>155</v>
       </c>
       <c r="H101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I101">
         <v>3</v>
@@ -7528,7 +7528,7 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
         <v>57</v>
@@ -7540,13 +7540,13 @@
         <v>206</v>
       </c>
       <c r="F102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G102" t="s">
         <v>155</v>
       </c>
       <c r="H102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I102">
         <v>5</v>
@@ -7560,7 +7560,7 @@
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -7578,7 +7578,7 @@
         <v>155</v>
       </c>
       <c r="H103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I103">
         <v>2</v>
@@ -7592,7 +7592,7 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
         <v>109</v>
@@ -7604,13 +7604,13 @@
         <v>209</v>
       </c>
       <c r="F104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G104" t="s">
         <v>155</v>
       </c>
       <c r="H104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I104">
         <v>1.5</v>
@@ -7624,7 +7624,7 @@
         <v>226</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>57</v>
@@ -7642,7 +7642,7 @@
         <v>155</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I105" s="1">
         <v>2</v>
@@ -7656,7 +7656,7 @@
         <v>225</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>231</v>
       </c>
       <c r="H106" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I106">
         <v>9</v>
@@ -7688,7 +7688,7 @@
         <v>225</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -7706,7 +7706,7 @@
         <v>231</v>
       </c>
       <c r="H107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I107">
         <v>12</v>
@@ -7720,7 +7720,7 @@
         <v>225</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
@@ -7738,7 +7738,7 @@
         <v>231</v>
       </c>
       <c r="H108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -7752,7 +7752,7 @@
         <v>225</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -7770,7 +7770,7 @@
         <v>231</v>
       </c>
       <c r="H109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -7781,7 +7781,7 @@
         <v>225</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -7799,7 +7799,7 @@
         <v>231</v>
       </c>
       <c r="H110" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I110">
         <v>5</v>
@@ -7813,7 +7813,7 @@
         <v>225</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>231</v>
       </c>
       <c r="H111" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I111">
         <v>4</v>
@@ -7845,7 +7845,7 @@
         <v>225</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -7863,7 +7863,7 @@
         <v>231</v>
       </c>
       <c r="H112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I112">
         <v>2</v>
@@ -7877,7 +7877,7 @@
         <v>225</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -7889,13 +7889,13 @@
         <v>125</v>
       </c>
       <c r="F113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G113" t="s">
         <v>155</v>
       </c>
       <c r="H113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I113">
         <v>6</v>
@@ -7909,7 +7909,7 @@
         <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C114" t="s">
         <v>120</v>
@@ -7927,7 +7927,7 @@
         <v>155</v>
       </c>
       <c r="H114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I114">
         <v>10</v>
@@ -7941,7 +7941,7 @@
         <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
@@ -7959,7 +7959,7 @@
         <v>155</v>
       </c>
       <c r="H115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -7973,7 +7973,7 @@
         <v>225</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -7991,7 +7991,7 @@
         <v>155</v>
       </c>
       <c r="H116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I116">
         <v>9</v>
@@ -8005,7 +8005,7 @@
         <v>225</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -8017,13 +8017,13 @@
         <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G117" t="s">
         <v>155</v>
       </c>
       <c r="H117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I117">
         <v>12</v>
@@ -8037,7 +8037,7 @@
         <v>225</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s">
         <v>109</v>
@@ -8055,7 +8055,7 @@
         <v>155</v>
       </c>
       <c r="H118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I118">
         <v>3</v>
@@ -8069,7 +8069,7 @@
         <v>225</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>57</v>
@@ -8087,7 +8087,7 @@
         <v>155</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I119" s="1">
         <v>14</v>
@@ -8111,7 +8111,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8150,7 +8150,7 @@
         <v>220</v>
       </c>
       <c r="H1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I1" t="s">
         <v>221</v>
@@ -8164,7 +8164,7 @@
         <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -8182,7 +8182,7 @@
         <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -8196,7 +8196,7 @@
         <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -8208,13 +8208,13 @@
         <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
         <v>231</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -8228,7 +8228,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -8240,13 +8240,13 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
         <v>231</v>
       </c>
       <c r="H4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -8260,7 +8260,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -8278,7 +8278,7 @@
         <v>231</v>
       </c>
       <c r="H5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -8292,7 +8292,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -8310,7 +8310,7 @@
         <v>231</v>
       </c>
       <c r="H6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -8324,7 +8324,7 @@
         <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -8342,7 +8342,7 @@
         <v>231</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -8356,7 +8356,7 @@
         <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -8368,13 +8368,13 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G8" t="s">
         <v>231</v>
       </c>
       <c r="H8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -8388,7 +8388,7 @@
         <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -8406,7 +8406,7 @@
         <v>231</v>
       </c>
       <c r="H9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -8420,7 +8420,7 @@
         <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -8432,13 +8432,13 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G10" t="s">
         <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -8452,7 +8452,7 @@
         <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -8470,7 +8470,7 @@
         <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -8484,7 +8484,7 @@
         <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -8502,7 +8502,7 @@
         <v>155</v>
       </c>
       <c r="H12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -8516,7 +8516,7 @@
         <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -8534,7 +8534,7 @@
         <v>155</v>
       </c>
       <c r="H13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -8548,7 +8548,7 @@
         <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -8560,13 +8560,13 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" t="s">
         <v>155</v>
       </c>
       <c r="H14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -8580,7 +8580,7 @@
         <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -8598,7 +8598,7 @@
         <v>155</v>
       </c>
       <c r="H15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -8612,7 +8612,7 @@
         <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -8630,7 +8630,7 @@
         <v>155</v>
       </c>
       <c r="H16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>223</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>155</v>
       </c>
       <c r="H17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -8676,7 +8676,7 @@
         <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -8694,7 +8694,7 @@
         <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -8708,7 +8708,7 @@
         <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
@@ -8720,13 +8720,13 @@
         <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G19" t="s">
         <v>231</v>
       </c>
       <c r="H19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -8740,7 +8740,7 @@
         <v>223</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
@@ -8752,13 +8752,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G20" t="s">
         <v>231</v>
       </c>
       <c r="H20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -8772,7 +8772,7 @@
         <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -8790,7 +8790,7 @@
         <v>231</v>
       </c>
       <c r="H21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -8804,7 +8804,7 @@
         <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -8822,7 +8822,7 @@
         <v>231</v>
       </c>
       <c r="H22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -8836,7 +8836,7 @@
         <v>223</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -8854,7 +8854,7 @@
         <v>231</v>
       </c>
       <c r="H23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I23">
         <v>12</v>
@@ -8868,7 +8868,7 @@
         <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -8880,13 +8880,13 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G24" t="s">
         <v>231</v>
       </c>
       <c r="H24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -8900,7 +8900,7 @@
         <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -8918,7 +8918,7 @@
         <v>231</v>
       </c>
       <c r="H25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -8932,7 +8932,7 @@
         <v>223</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -8944,13 +8944,13 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
         <v>155</v>
       </c>
       <c r="H26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -8964,7 +8964,7 @@
         <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -8982,7 +8982,7 @@
         <v>155</v>
       </c>
       <c r="H27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -8996,7 +8996,7 @@
         <v>223</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -9014,7 +9014,7 @@
         <v>155</v>
       </c>
       <c r="H28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -9028,7 +9028,7 @@
         <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -9046,7 +9046,7 @@
         <v>155</v>
       </c>
       <c r="H29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -9060,7 +9060,7 @@
         <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -9072,13 +9072,13 @@
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
         <v>155</v>
       </c>
       <c r="H30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -9092,7 +9092,7 @@
         <v>223</v>
       </c>
       <c r="B31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -9110,7 +9110,7 @@
         <v>155</v>
       </c>
       <c r="H31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I31">
         <v>5</v>
@@ -9124,7 +9124,7 @@
         <v>223</v>
       </c>
       <c r="B32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -9142,7 +9142,7 @@
         <v>155</v>
       </c>
       <c r="H32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -9156,7 +9156,7 @@
         <v>223</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -9174,7 +9174,7 @@
         <v>155</v>
       </c>
       <c r="H33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -9188,7 +9188,7 @@
         <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -9206,7 +9206,7 @@
         <v>234</v>
       </c>
       <c r="H34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -9220,7 +9220,7 @@
         <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -9238,7 +9238,7 @@
         <v>234</v>
       </c>
       <c r="H35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I35">
         <v>6</v>
@@ -9252,7 +9252,7 @@
         <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -9270,7 +9270,7 @@
         <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I36">
         <v>5</v>
@@ -9284,7 +9284,7 @@
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37" t="s">
         <v>109</v>
@@ -9302,7 +9302,7 @@
         <v>234</v>
       </c>
       <c r="H37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -9316,7 +9316,7 @@
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -9328,13 +9328,13 @@
         <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G38" t="s">
         <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I38">
         <v>12</v>
@@ -9348,7 +9348,7 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -9366,7 +9366,7 @@
         <v>234</v>
       </c>
       <c r="H39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -9380,7 +9380,7 @@
         <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -9398,7 +9398,7 @@
         <v>234</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -9412,7 +9412,7 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -9424,13 +9424,13 @@
         <v>118</v>
       </c>
       <c r="F41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G41" t="s">
         <v>155</v>
       </c>
       <c r="H41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I41">
         <v>12</v>
@@ -9444,7 +9444,7 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -9456,13 +9456,13 @@
         <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G42" t="s">
         <v>155</v>
       </c>
       <c r="H42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I42">
         <v>6</v>
@@ -9476,7 +9476,7 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C43" t="s">
         <v>120</v>
@@ -9494,7 +9494,7 @@
         <v>155</v>
       </c>
       <c r="H43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I43">
         <v>12</v>
@@ -9508,7 +9508,7 @@
         <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -9526,7 +9526,7 @@
         <v>155</v>
       </c>
       <c r="H44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -9540,7 +9540,7 @@
         <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -9558,7 +9558,7 @@
         <v>155</v>
       </c>
       <c r="H45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I45">
         <v>9</v>
@@ -9572,7 +9572,7 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -9590,7 +9590,7 @@
         <v>155</v>
       </c>
       <c r="H46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I46">
         <v>9</v>
@@ -9604,7 +9604,7 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
@@ -9622,7 +9622,7 @@
         <v>155</v>
       </c>
       <c r="H47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I47">
         <v>14</v>
@@ -9636,7 +9636,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -9654,7 +9654,7 @@
         <v>234</v>
       </c>
       <c r="H48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -9668,7 +9668,7 @@
         <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -9686,7 +9686,7 @@
         <v>234</v>
       </c>
       <c r="H49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I49">
         <v>6</v>
@@ -9700,7 +9700,7 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -9718,7 +9718,7 @@
         <v>234</v>
       </c>
       <c r="H50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I50">
         <v>5</v>
@@ -9732,7 +9732,7 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C51" t="s">
         <v>109</v>
@@ -9750,7 +9750,7 @@
         <v>234</v>
       </c>
       <c r="H51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -9764,7 +9764,7 @@
         <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -9776,13 +9776,13 @@
         <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G52" t="s">
         <v>234</v>
       </c>
       <c r="H52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I52">
         <v>12</v>
@@ -9796,7 +9796,7 @@
         <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -9814,7 +9814,7 @@
         <v>234</v>
       </c>
       <c r="H53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I53">
         <v>4</v>
@@ -9828,7 +9828,7 @@
         <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -9846,7 +9846,7 @@
         <v>234</v>
       </c>
       <c r="H54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -9860,7 +9860,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -9872,13 +9872,13 @@
         <v>118</v>
       </c>
       <c r="F55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G55" t="s">
         <v>155</v>
       </c>
       <c r="H55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I55">
         <v>12</v>
@@ -9892,7 +9892,7 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -9904,13 +9904,13 @@
         <v>125</v>
       </c>
       <c r="F56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G56" t="s">
         <v>155</v>
       </c>
       <c r="H56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I56">
         <v>6</v>
@@ -9924,7 +9924,7 @@
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C57" t="s">
         <v>120</v>
@@ -9942,7 +9942,7 @@
         <v>155</v>
       </c>
       <c r="H57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I57">
         <v>12</v>
@@ -9956,7 +9956,7 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -9974,7 +9974,7 @@
         <v>155</v>
       </c>
       <c r="H58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -9988,7 +9988,7 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -10006,7 +10006,7 @@
         <v>155</v>
       </c>
       <c r="H59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I59">
         <v>9</v>
@@ -10020,7 +10020,7 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>155</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I60">
         <v>9</v>
@@ -10052,7 +10052,7 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
         <v>57</v>
@@ -10070,7 +10070,7 @@
         <v>155</v>
       </c>
       <c r="H61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I61">
         <v>14</v>
@@ -10084,7 +10084,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -10102,7 +10102,7 @@
         <v>234</v>
       </c>
       <c r="H62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -10116,7 +10116,7 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -10134,7 +10134,7 @@
         <v>234</v>
       </c>
       <c r="H63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I63">
         <v>6</v>
@@ -10148,7 +10148,7 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -10166,7 +10166,7 @@
         <v>234</v>
       </c>
       <c r="H64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I64">
         <v>5</v>
@@ -10180,7 +10180,7 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C65" t="s">
         <v>109</v>
@@ -10198,7 +10198,7 @@
         <v>234</v>
       </c>
       <c r="H65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -10212,7 +10212,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -10224,13 +10224,13 @@
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G66" t="s">
         <v>234</v>
       </c>
       <c r="H66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I66">
         <v>12</v>
@@ -10244,7 +10244,7 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -10262,7 +10262,7 @@
         <v>234</v>
       </c>
       <c r="H67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I67">
         <v>4</v>
@@ -10276,7 +10276,7 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -10294,7 +10294,7 @@
         <v>234</v>
       </c>
       <c r="H68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I68">
         <v>2</v>
@@ -10308,7 +10308,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -10320,13 +10320,13 @@
         <v>118</v>
       </c>
       <c r="F69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G69" t="s">
         <v>155</v>
       </c>
       <c r="H69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I69">
         <v>12</v>
@@ -10340,7 +10340,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -10352,13 +10352,13 @@
         <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G70" t="s">
         <v>155</v>
       </c>
       <c r="H70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I70">
         <v>6</v>
@@ -10372,7 +10372,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C71" t="s">
         <v>120</v>
@@ -10390,7 +10390,7 @@
         <v>155</v>
       </c>
       <c r="H71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I71">
         <v>12</v>
@@ -10404,7 +10404,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -10422,7 +10422,7 @@
         <v>155</v>
       </c>
       <c r="H72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -10436,7 +10436,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -10454,7 +10454,7 @@
         <v>155</v>
       </c>
       <c r="H73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I73">
         <v>9</v>
@@ -10468,7 +10468,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -10486,7 +10486,7 @@
         <v>155</v>
       </c>
       <c r="H74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I74">
         <v>9</v>
@@ -10500,7 +10500,7 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C75" t="s">
         <v>57</v>
@@ -10518,7 +10518,7 @@
         <v>155</v>
       </c>
       <c r="H75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I75">
         <v>14</v>
@@ -10532,7 +10532,7 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -10550,7 +10550,7 @@
         <v>234</v>
       </c>
       <c r="H76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -10564,7 +10564,7 @@
         <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -10582,7 +10582,7 @@
         <v>234</v>
       </c>
       <c r="H77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I77">
         <v>6</v>
@@ -10596,7 +10596,7 @@
         <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -10614,7 +10614,7 @@
         <v>234</v>
       </c>
       <c r="H78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I78">
         <v>5</v>
@@ -10628,7 +10628,7 @@
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C79" t="s">
         <v>109</v>
@@ -10646,7 +10646,7 @@
         <v>234</v>
       </c>
       <c r="H79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I79">
         <v>3</v>
@@ -10660,7 +10660,7 @@
         <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -10672,13 +10672,13 @@
         <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G80" t="s">
         <v>234</v>
       </c>
       <c r="H80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I80">
         <v>12</v>
@@ -10692,7 +10692,7 @@
         <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -10710,7 +10710,7 @@
         <v>234</v>
       </c>
       <c r="H81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I81">
         <v>4</v>
@@ -10724,7 +10724,7 @@
         <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -10742,7 +10742,7 @@
         <v>234</v>
       </c>
       <c r="H82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -10756,7 +10756,7 @@
         <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -10768,13 +10768,13 @@
         <v>118</v>
       </c>
       <c r="F83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G83" t="s">
         <v>155</v>
       </c>
       <c r="H83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I83">
         <v>12</v>
@@ -10788,7 +10788,7 @@
         <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -10800,13 +10800,13 @@
         <v>125</v>
       </c>
       <c r="F84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G84" t="s">
         <v>155</v>
       </c>
       <c r="H84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I84">
         <v>6</v>
@@ -10820,7 +10820,7 @@
         <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C85" t="s">
         <v>120</v>
@@ -10838,7 +10838,7 @@
         <v>155</v>
       </c>
       <c r="H85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I85">
         <v>12</v>
@@ -10852,7 +10852,7 @@
         <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -10870,7 +10870,7 @@
         <v>155</v>
       </c>
       <c r="H86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86">
         <v>2</v>
@@ -10884,7 +10884,7 @@
         <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -10902,7 +10902,7 @@
         <v>155</v>
       </c>
       <c r="H87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I87">
         <v>9</v>
@@ -10916,7 +10916,7 @@
         <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -10934,7 +10934,7 @@
         <v>155</v>
       </c>
       <c r="H88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I88">
         <v>9</v>
@@ -10948,7 +10948,7 @@
         <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
         <v>57</v>
@@ -10966,7 +10966,7 @@
         <v>155</v>
       </c>
       <c r="H89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I89">
         <v>14</v>
@@ -10980,7 +10980,7 @@
         <v>71</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -10998,7 +10998,7 @@
         <v>233</v>
       </c>
       <c r="H90" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -11012,7 +11012,7 @@
         <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -11030,7 +11030,7 @@
         <v>233</v>
       </c>
       <c r="H91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I91">
         <v>3</v>
@@ -11044,7 +11044,7 @@
         <v>71</v>
       </c>
       <c r="B92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C92" t="s">
         <v>57</v>
@@ -11062,7 +11062,7 @@
         <v>233</v>
       </c>
       <c r="H92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I92">
         <v>12</v>
@@ -11076,7 +11076,7 @@
         <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -11094,7 +11094,7 @@
         <v>233</v>
       </c>
       <c r="H93" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I93">
         <v>6</v>
@@ -11108,7 +11108,7 @@
         <v>71</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -11126,7 +11126,7 @@
         <v>233</v>
       </c>
       <c r="H94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -11140,7 +11140,7 @@
         <v>71</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C95" t="s">
         <v>67</v>
@@ -11158,7 +11158,7 @@
         <v>233</v>
       </c>
       <c r="H95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I95">
         <v>6</v>
@@ -11172,7 +11172,7 @@
         <v>71</v>
       </c>
       <c r="B96" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -11190,7 +11190,7 @@
         <v>233</v>
       </c>
       <c r="H96" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I96">
         <v>16</v>
@@ -11204,7 +11204,7 @@
         <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -11222,7 +11222,7 @@
         <v>234</v>
       </c>
       <c r="H97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I97">
         <v>3</v>
@@ -11236,7 +11236,7 @@
         <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -11254,7 +11254,7 @@
         <v>234</v>
       </c>
       <c r="H98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I98">
         <v>6</v>
@@ -11268,7 +11268,7 @@
         <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -11286,7 +11286,7 @@
         <v>234</v>
       </c>
       <c r="H99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I99">
         <v>5</v>
@@ -11300,7 +11300,7 @@
         <v>71</v>
       </c>
       <c r="B100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C100" t="s">
         <v>109</v>
@@ -11318,7 +11318,7 @@
         <v>234</v>
       </c>
       <c r="H100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I100">
         <v>3</v>
@@ -11332,7 +11332,7 @@
         <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -11344,13 +11344,13 @@
         <v>65</v>
       </c>
       <c r="F101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G101" t="s">
         <v>234</v>
       </c>
       <c r="H101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I101">
         <v>12</v>
@@ -11364,7 +11364,7 @@
         <v>71</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -11382,7 +11382,7 @@
         <v>234</v>
       </c>
       <c r="H102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I102">
         <v>4</v>
@@ -11396,7 +11396,7 @@
         <v>71</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -11414,7 +11414,7 @@
         <v>234</v>
       </c>
       <c r="H103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I103">
         <v>2</v>
@@ -11428,7 +11428,7 @@
         <v>71</v>
       </c>
       <c r="B104" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
@@ -11446,7 +11446,7 @@
         <v>233</v>
       </c>
       <c r="H104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -11460,7 +11460,7 @@
         <v>71</v>
       </c>
       <c r="B105" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -11478,7 +11478,7 @@
         <v>233</v>
       </c>
       <c r="H105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -11492,7 +11492,7 @@
         <v>71</v>
       </c>
       <c r="B106" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C106" t="s">
         <v>57</v>
@@ -11510,7 +11510,7 @@
         <v>233</v>
       </c>
       <c r="H106" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I106">
         <v>12</v>
@@ -11524,7 +11524,7 @@
         <v>71</v>
       </c>
       <c r="B107" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -11542,7 +11542,7 @@
         <v>233</v>
       </c>
       <c r="H107" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I107">
         <v>6</v>
@@ -11556,7 +11556,7 @@
         <v>71</v>
       </c>
       <c r="B108" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
@@ -11574,7 +11574,7 @@
         <v>233</v>
       </c>
       <c r="H108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -11588,7 +11588,7 @@
         <v>71</v>
       </c>
       <c r="B109" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C109" t="s">
         <v>67</v>
@@ -11606,7 +11606,7 @@
         <v>233</v>
       </c>
       <c r="H109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I109">
         <v>6</v>
@@ -11620,7 +11620,7 @@
         <v>71</v>
       </c>
       <c r="B110" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -11638,7 +11638,7 @@
         <v>233</v>
       </c>
       <c r="H110" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I110">
         <v>16</v>
@@ -11652,7 +11652,7 @@
         <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -11670,7 +11670,7 @@
         <v>234</v>
       </c>
       <c r="H111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -11684,7 +11684,7 @@
         <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
@@ -11702,7 +11702,7 @@
         <v>234</v>
       </c>
       <c r="H112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I112">
         <v>6</v>
@@ -11716,7 +11716,7 @@
         <v>71</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
@@ -11734,7 +11734,7 @@
         <v>234</v>
       </c>
       <c r="H113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I113">
         <v>5</v>
@@ -11748,7 +11748,7 @@
         <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C114" t="s">
         <v>109</v>
@@ -11766,7 +11766,7 @@
         <v>234</v>
       </c>
       <c r="H114" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -11780,7 +11780,7 @@
         <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -11792,13 +11792,13 @@
         <v>65</v>
       </c>
       <c r="F115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G115" t="s">
         <v>234</v>
       </c>
       <c r="H115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I115">
         <v>12</v>
@@ -11812,7 +11812,7 @@
         <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -11830,7 +11830,7 @@
         <v>234</v>
       </c>
       <c r="H116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I116">
         <v>4</v>
@@ -11844,7 +11844,7 @@
         <v>71</v>
       </c>
       <c r="B117" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>234</v>
       </c>
       <c r="H117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -11876,7 +11876,7 @@
         <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -11894,7 +11894,7 @@
         <v>138</v>
       </c>
       <c r="H118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I118">
         <v>10</v>
@@ -11908,7 +11908,7 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -11920,13 +11920,13 @@
         <v>79</v>
       </c>
       <c r="F119" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G119" t="s">
         <v>138</v>
       </c>
       <c r="H119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I119">
         <v>15</v>
@@ -11940,7 +11940,7 @@
         <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C120" t="s">
         <v>57</v>
@@ -11952,13 +11952,13 @@
         <v>76</v>
       </c>
       <c r="F120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G120" t="s">
         <v>138</v>
       </c>
       <c r="H120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I120">
         <v>25</v>
@@ -11972,7 +11972,7 @@
         <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -11990,7 +11990,7 @@
         <v>138</v>
       </c>
       <c r="H121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I121">
         <v>14</v>
@@ -12001,7 +12001,7 @@
         <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -12013,13 +12013,13 @@
         <v>82</v>
       </c>
       <c r="F122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G122" t="s">
         <v>138</v>
       </c>
       <c r="H122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I122">
         <v>11</v>
@@ -12033,7 +12033,7 @@
         <v>71</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -12051,7 +12051,7 @@
         <v>138</v>
       </c>
       <c r="H123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I123">
         <v>14</v>
@@ -12065,7 +12065,7 @@
         <v>71</v>
       </c>
       <c r="B124" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C124" t="s">
         <v>84</v>
@@ -12077,13 +12077,13 @@
         <v>86</v>
       </c>
       <c r="F124" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G124" t="s">
         <v>138</v>
       </c>
       <c r="H124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I124">
         <v>4</v>
@@ -12097,7 +12097,7 @@
         <v>71</v>
       </c>
       <c r="B125" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
@@ -12115,7 +12115,7 @@
         <v>233</v>
       </c>
       <c r="H125" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -12129,7 +12129,7 @@
         <v>71</v>
       </c>
       <c r="B126" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -12147,7 +12147,7 @@
         <v>233</v>
       </c>
       <c r="H126" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I126">
         <v>3</v>
@@ -12161,7 +12161,7 @@
         <v>71</v>
       </c>
       <c r="B127" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C127" t="s">
         <v>57</v>
@@ -12179,7 +12179,7 @@
         <v>233</v>
       </c>
       <c r="H127" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I127">
         <v>12</v>
@@ -12193,7 +12193,7 @@
         <v>71</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
@@ -12211,7 +12211,7 @@
         <v>233</v>
       </c>
       <c r="H128" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I128">
         <v>6</v>
@@ -12225,7 +12225,7 @@
         <v>71</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
@@ -12243,7 +12243,7 @@
         <v>233</v>
       </c>
       <c r="H129" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -12257,7 +12257,7 @@
         <v>71</v>
       </c>
       <c r="B130" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C130" t="s">
         <v>67</v>
@@ -12275,7 +12275,7 @@
         <v>233</v>
       </c>
       <c r="H130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I130">
         <v>6</v>
@@ -12289,7 +12289,7 @@
         <v>71</v>
       </c>
       <c r="B131" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
@@ -12307,7 +12307,7 @@
         <v>233</v>
       </c>
       <c r="H131" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I131">
         <v>16</v>
@@ -12339,7 +12339,7 @@
         <v>138</v>
       </c>
       <c r="H132" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I132">
         <v>10</v>
@@ -12365,13 +12365,13 @@
         <v>79</v>
       </c>
       <c r="F133" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
       </c>
       <c r="H133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I133">
         <v>15</v>
@@ -12397,13 +12397,13 @@
         <v>76</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G134" t="s">
         <v>138</v>
       </c>
       <c r="H134" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I134">
         <v>25</v>
@@ -12435,7 +12435,7 @@
         <v>138</v>
       </c>
       <c r="H135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I135">
         <v>14</v>
@@ -12458,13 +12458,13 @@
         <v>82</v>
       </c>
       <c r="F136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G136" t="s">
         <v>138</v>
       </c>
       <c r="H136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I136">
         <v>11</v>
@@ -12496,7 +12496,7 @@
         <v>138</v>
       </c>
       <c r="H137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I137">
         <v>14</v>
@@ -12522,13 +12522,13 @@
         <v>86</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G138" t="s">
         <v>138</v>
       </c>
       <c r="H138" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I138">
         <v>4</v>
@@ -12554,13 +12554,13 @@
         <v>118</v>
       </c>
       <c r="F139" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G139" t="s">
         <v>155</v>
       </c>
       <c r="H139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I139">
         <v>12</v>
@@ -12586,13 +12586,13 @@
         <v>125</v>
       </c>
       <c r="F140" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G140" t="s">
         <v>155</v>
       </c>
       <c r="H140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I140">
         <v>6</v>
@@ -12624,7 +12624,7 @@
         <v>155</v>
       </c>
       <c r="H141" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I141">
         <v>12</v>
@@ -12656,7 +12656,7 @@
         <v>155</v>
       </c>
       <c r="H142" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -12688,7 +12688,7 @@
         <v>155</v>
       </c>
       <c r="H143" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I143">
         <v>9</v>
@@ -12720,7 +12720,7 @@
         <v>155</v>
       </c>
       <c r="H144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I144">
         <v>9</v>
@@ -12752,7 +12752,7 @@
         <v>155</v>
       </c>
       <c r="H145" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I145">
         <v>14</v>
@@ -12766,7 +12766,7 @@
         <v>224</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
@@ -12778,13 +12778,13 @@
         <v>118</v>
       </c>
       <c r="F146" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G146" t="s">
         <v>138</v>
       </c>
       <c r="H146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I146">
         <v>10</v>
@@ -12798,7 +12798,7 @@
         <v>224</v>
       </c>
       <c r="B147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
@@ -12816,7 +12816,7 @@
         <v>138</v>
       </c>
       <c r="H147" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -12830,7 +12830,7 @@
         <v>224</v>
       </c>
       <c r="B148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C148" t="s">
         <v>10</v>
@@ -12848,7 +12848,7 @@
         <v>138</v>
       </c>
       <c r="H148" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I148">
         <v>2</v>
@@ -12862,7 +12862,7 @@
         <v>224</v>
       </c>
       <c r="B149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C149" t="s">
         <v>49</v>
@@ -12874,13 +12874,13 @@
         <v>51</v>
       </c>
       <c r="F149" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G149" t="s">
         <v>138</v>
       </c>
       <c r="H149" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -12894,7 +12894,7 @@
         <v>224</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C150" t="s">
         <v>10</v>
@@ -12906,13 +12906,13 @@
         <v>153</v>
       </c>
       <c r="F150" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G150" t="s">
         <v>138</v>
       </c>
       <c r="H150" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -12923,7 +12923,7 @@
         <v>224</v>
       </c>
       <c r="B151" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C151" t="s">
         <v>143</v>
@@ -12941,7 +12941,7 @@
         <v>138</v>
       </c>
       <c r="H151" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I151">
         <v>0.5</v>
@@ -12955,7 +12955,7 @@
         <v>224</v>
       </c>
       <c r="B152" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C152" t="s">
         <v>147</v>
@@ -12973,7 +12973,7 @@
         <v>138</v>
       </c>
       <c r="H152" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -12987,7 +12987,7 @@
         <v>224</v>
       </c>
       <c r="B153" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C153" t="s">
         <v>134</v>
@@ -13005,7 +13005,7 @@
         <v>138</v>
       </c>
       <c r="H153" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I153">
         <v>2.5</v>
@@ -13019,7 +13019,7 @@
         <v>224</v>
       </c>
       <c r="B154" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C154" t="s">
         <v>147</v>
@@ -13037,7 +13037,7 @@
         <v>155</v>
       </c>
       <c r="H154" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I154">
         <v>6</v>
@@ -13051,7 +13051,7 @@
         <v>224</v>
       </c>
       <c r="B155" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C155" t="s">
         <v>10</v>
@@ -13063,13 +13063,13 @@
         <v>166</v>
       </c>
       <c r="F155" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G155" t="s">
         <v>155</v>
       </c>
       <c r="H155" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I155">
         <v>3</v>
@@ -13083,7 +13083,7 @@
         <v>224</v>
       </c>
       <c r="B156" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C156" t="s">
         <v>10</v>
@@ -13101,7 +13101,7 @@
         <v>155</v>
       </c>
       <c r="H156" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -13112,7 +13112,7 @@
         <v>224</v>
       </c>
       <c r="B157" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
@@ -13124,13 +13124,13 @@
         <v>44</v>
       </c>
       <c r="F157" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G157" t="s">
         <v>155</v>
       </c>
       <c r="H157" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I157">
         <v>4</v>
@@ -13144,7 +13144,7 @@
         <v>224</v>
       </c>
       <c r="B158" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
@@ -13162,7 +13162,7 @@
         <v>155</v>
       </c>
       <c r="H158" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -13176,7 +13176,7 @@
         <v>224</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C159" t="s">
         <v>10</v>
@@ -13194,7 +13194,7 @@
         <v>155</v>
       </c>
       <c r="H159" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -13208,7 +13208,7 @@
         <v>224</v>
       </c>
       <c r="B160" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C160" t="s">
         <v>49</v>
@@ -13226,7 +13226,7 @@
         <v>155</v>
       </c>
       <c r="H160" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I160">
         <v>4</v>
@@ -13240,7 +13240,7 @@
         <v>224</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C161" t="s">
         <v>84</v>
@@ -13258,7 +13258,7 @@
         <v>155</v>
       </c>
       <c r="H161" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I161">
         <v>4</v>
@@ -13272,7 +13272,7 @@
         <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
@@ -13284,13 +13284,13 @@
         <v>118</v>
       </c>
       <c r="F162" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G162" t="s">
         <v>138</v>
       </c>
       <c r="H162" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I162">
         <v>10</v>
@@ -13304,7 +13304,7 @@
         <v>224</v>
       </c>
       <c r="B163" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
@@ -13322,7 +13322,7 @@
         <v>138</v>
       </c>
       <c r="H163" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -13336,7 +13336,7 @@
         <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C164" t="s">
         <v>10</v>
@@ -13354,7 +13354,7 @@
         <v>138</v>
       </c>
       <c r="H164" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I164">
         <v>2</v>
@@ -13368,7 +13368,7 @@
         <v>224</v>
       </c>
       <c r="B165" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C165" t="s">
         <v>49</v>
@@ -13380,13 +13380,13 @@
         <v>51</v>
       </c>
       <c r="F165" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G165" t="s">
         <v>138</v>
       </c>
       <c r="H165" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I165">
         <v>2</v>
@@ -13400,7 +13400,7 @@
         <v>224</v>
       </c>
       <c r="B166" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C166" t="s">
         <v>10</v>
@@ -13412,13 +13412,13 @@
         <v>153</v>
       </c>
       <c r="F166" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G166" t="s">
         <v>138</v>
       </c>
       <c r="H166" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -13429,7 +13429,7 @@
         <v>224</v>
       </c>
       <c r="B167" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C167" t="s">
         <v>143</v>
@@ -13447,7 +13447,7 @@
         <v>138</v>
       </c>
       <c r="H167" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I167">
         <v>0.5</v>
@@ -13461,7 +13461,7 @@
         <v>224</v>
       </c>
       <c r="B168" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C168" t="s">
         <v>147</v>
@@ -13479,7 +13479,7 @@
         <v>138</v>
       </c>
       <c r="H168" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -13493,7 +13493,7 @@
         <v>224</v>
       </c>
       <c r="B169" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C169" t="s">
         <v>134</v>
@@ -13511,7 +13511,7 @@
         <v>138</v>
       </c>
       <c r="H169" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I169">
         <v>2.5</v>
@@ -13525,7 +13525,7 @@
         <v>224</v>
       </c>
       <c r="B170" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C170" t="s">
         <v>147</v>
@@ -13543,7 +13543,7 @@
         <v>155</v>
       </c>
       <c r="H170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I170">
         <v>6</v>
@@ -13557,7 +13557,7 @@
         <v>224</v>
       </c>
       <c r="B171" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C171" t="s">
         <v>10</v>
@@ -13569,13 +13569,13 @@
         <v>166</v>
       </c>
       <c r="F171" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G171" t="s">
         <v>155</v>
       </c>
       <c r="H171" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I171">
         <v>3</v>
@@ -13589,7 +13589,7 @@
         <v>224</v>
       </c>
       <c r="B172" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C172" t="s">
         <v>10</v>
@@ -13607,7 +13607,7 @@
         <v>155</v>
       </c>
       <c r="H172" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -13618,7 +13618,7 @@
         <v>224</v>
       </c>
       <c r="B173" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
@@ -13630,13 +13630,13 @@
         <v>44</v>
       </c>
       <c r="F173" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G173" t="s">
         <v>155</v>
       </c>
       <c r="H173" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I173">
         <v>4</v>
@@ -13650,7 +13650,7 @@
         <v>224</v>
       </c>
       <c r="B174" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -13668,7 +13668,7 @@
         <v>155</v>
       </c>
       <c r="H174" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I174">
         <v>2</v>
@@ -13682,7 +13682,7 @@
         <v>224</v>
       </c>
       <c r="B175" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C175" t="s">
         <v>10</v>
@@ -13700,7 +13700,7 @@
         <v>155</v>
       </c>
       <c r="H175" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -13714,7 +13714,7 @@
         <v>224</v>
       </c>
       <c r="B176" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C176" t="s">
         <v>49</v>
@@ -13732,7 +13732,7 @@
         <v>155</v>
       </c>
       <c r="H176" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I176">
         <v>4</v>
@@ -13746,7 +13746,7 @@
         <v>224</v>
       </c>
       <c r="B177" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C177" t="s">
         <v>84</v>
@@ -13764,7 +13764,7 @@
         <v>155</v>
       </c>
       <c r="H177" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I177">
         <v>4</v>
@@ -13778,7 +13778,7 @@
         <v>226</v>
       </c>
       <c r="B178" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C178" t="s">
         <v>10</v>
@@ -13790,13 +13790,13 @@
         <v>187</v>
       </c>
       <c r="F178" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G178" t="s">
         <v>138</v>
       </c>
       <c r="H178" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I178">
         <v>5</v>
@@ -13810,7 +13810,7 @@
         <v>226</v>
       </c>
       <c r="B179" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C179" t="s">
         <v>10</v>
@@ -13828,7 +13828,7 @@
         <v>138</v>
       </c>
       <c r="H179" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I179">
         <v>1.5</v>
@@ -13842,7 +13842,7 @@
         <v>226</v>
       </c>
       <c r="B180" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
@@ -13854,13 +13854,13 @@
         <v>190</v>
       </c>
       <c r="F180" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G180" t="s">
         <v>138</v>
       </c>
       <c r="H180" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I180">
         <v>4</v>
@@ -13874,7 +13874,7 @@
         <v>226</v>
       </c>
       <c r="B181" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C181" t="s">
         <v>57</v>
@@ -13892,7 +13892,7 @@
         <v>138</v>
       </c>
       <c r="H181" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I181">
         <v>3</v>
@@ -13906,7 +13906,7 @@
         <v>226</v>
       </c>
       <c r="B182" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -13918,13 +13918,13 @@
         <v>196</v>
       </c>
       <c r="F182" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G182" t="s">
         <v>138</v>
       </c>
       <c r="H182" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -13938,7 +13938,7 @@
         <v>226</v>
       </c>
       <c r="B183" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C183" t="s">
         <v>198</v>
@@ -13950,13 +13950,13 @@
         <v>200</v>
       </c>
       <c r="F183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G183" t="s">
         <v>138</v>
       </c>
       <c r="H183" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -13970,7 +13970,7 @@
         <v>226</v>
       </c>
       <c r="B184" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C184" t="s">
         <v>84</v>
@@ -13982,13 +13982,13 @@
         <v>157</v>
       </c>
       <c r="F184" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G184" t="s">
         <v>138</v>
       </c>
       <c r="H184" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I184">
         <v>1.5</v>
@@ -14002,7 +14002,7 @@
         <v>226</v>
       </c>
       <c r="B185" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
@@ -14020,7 +14020,7 @@
         <v>138</v>
       </c>
       <c r="H185" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I185">
         <v>1.5</v>
@@ -14034,7 +14034,7 @@
         <v>226</v>
       </c>
       <c r="B186" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
@@ -14046,13 +14046,13 @@
         <v>125</v>
       </c>
       <c r="F186" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G186" t="s">
         <v>155</v>
       </c>
       <c r="H186" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I186">
         <v>3</v>
@@ -14066,7 +14066,7 @@
         <v>226</v>
       </c>
       <c r="B187" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
@@ -14078,13 +14078,13 @@
         <v>213</v>
       </c>
       <c r="F187" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G187" t="s">
         <v>155</v>
       </c>
       <c r="H187" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I187">
         <v>3</v>
@@ -14098,7 +14098,7 @@
         <v>226</v>
       </c>
       <c r="B188" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
@@ -14116,7 +14116,7 @@
         <v>155</v>
       </c>
       <c r="H188" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -14130,7 +14130,7 @@
         <v>226</v>
       </c>
       <c r="B189" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
@@ -14148,7 +14148,7 @@
         <v>155</v>
       </c>
       <c r="H189" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I189">
         <v>3</v>
@@ -14162,7 +14162,7 @@
         <v>226</v>
       </c>
       <c r="B190" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C190" t="s">
         <v>57</v>
@@ -14174,13 +14174,13 @@
         <v>206</v>
       </c>
       <c r="F190" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G190" t="s">
         <v>155</v>
       </c>
       <c r="H190" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I190">
         <v>5</v>
@@ -14194,7 +14194,7 @@
         <v>226</v>
       </c>
       <c r="B191" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C191" t="s">
         <v>10</v>
@@ -14212,7 +14212,7 @@
         <v>155</v>
       </c>
       <c r="H191" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I191">
         <v>2</v>
@@ -14226,7 +14226,7 @@
         <v>226</v>
       </c>
       <c r="B192" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C192" t="s">
         <v>109</v>
@@ -14238,13 +14238,13 @@
         <v>209</v>
       </c>
       <c r="F192" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G192" t="s">
         <v>155</v>
       </c>
       <c r="H192" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I192">
         <v>1.5</v>
@@ -14258,7 +14258,7 @@
         <v>226</v>
       </c>
       <c r="B193" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C193" t="s">
         <v>57</v>
@@ -14276,7 +14276,7 @@
         <v>155</v>
       </c>
       <c r="H193" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -14290,7 +14290,7 @@
         <v>226</v>
       </c>
       <c r="B194" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C194" t="s">
         <v>10</v>
@@ -14302,13 +14302,13 @@
         <v>187</v>
       </c>
       <c r="F194" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G194" t="s">
         <v>138</v>
       </c>
       <c r="H194" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I194">
         <v>5</v>
@@ -14322,7 +14322,7 @@
         <v>226</v>
       </c>
       <c r="B195" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C195" t="s">
         <v>10</v>
@@ -14340,7 +14340,7 @@
         <v>138</v>
       </c>
       <c r="H195" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I195">
         <v>1.5</v>
@@ -14354,7 +14354,7 @@
         <v>226</v>
       </c>
       <c r="B196" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
@@ -14366,13 +14366,13 @@
         <v>190</v>
       </c>
       <c r="F196" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G196" t="s">
         <v>138</v>
       </c>
       <c r="H196" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I196">
         <v>4</v>
@@ -14386,7 +14386,7 @@
         <v>226</v>
       </c>
       <c r="B197" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C197" t="s">
         <v>57</v>
@@ -14404,7 +14404,7 @@
         <v>138</v>
       </c>
       <c r="H197" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I197">
         <v>3</v>
@@ -14418,7 +14418,7 @@
         <v>226</v>
       </c>
       <c r="B198" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
@@ -14430,13 +14430,13 @@
         <v>196</v>
       </c>
       <c r="F198" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G198" t="s">
         <v>138</v>
       </c>
       <c r="H198" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -14450,7 +14450,7 @@
         <v>226</v>
       </c>
       <c r="B199" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C199" t="s">
         <v>198</v>
@@ -14462,13 +14462,13 @@
         <v>200</v>
       </c>
       <c r="F199" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G199" t="s">
         <v>138</v>
       </c>
       <c r="H199" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I199">
         <v>2</v>
@@ -14482,7 +14482,7 @@
         <v>226</v>
       </c>
       <c r="B200" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C200" t="s">
         <v>84</v>
@@ -14494,13 +14494,13 @@
         <v>157</v>
       </c>
       <c r="F200" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G200" t="s">
         <v>138</v>
       </c>
       <c r="H200" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I200">
         <v>1.5</v>
@@ -14514,7 +14514,7 @@
         <v>226</v>
       </c>
       <c r="B201" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
@@ -14532,7 +14532,7 @@
         <v>138</v>
       </c>
       <c r="H201" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I201">
         <v>1.5</v>
@@ -14546,7 +14546,7 @@
         <v>226</v>
       </c>
       <c r="B202" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
@@ -14558,13 +14558,13 @@
         <v>125</v>
       </c>
       <c r="F202" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G202" t="s">
         <v>155</v>
       </c>
       <c r="H202" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I202">
         <v>3</v>
@@ -14578,7 +14578,7 @@
         <v>226</v>
       </c>
       <c r="B203" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
@@ -14590,13 +14590,13 @@
         <v>213</v>
       </c>
       <c r="F203" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G203" t="s">
         <v>155</v>
       </c>
       <c r="H203" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I203">
         <v>3</v>
@@ -14610,7 +14610,7 @@
         <v>226</v>
       </c>
       <c r="B204" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
@@ -14628,7 +14628,7 @@
         <v>155</v>
       </c>
       <c r="H204" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -14642,7 +14642,7 @@
         <v>226</v>
       </c>
       <c r="B205" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
@@ -14660,7 +14660,7 @@
         <v>155</v>
       </c>
       <c r="H205" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I205">
         <v>3</v>
@@ -14674,7 +14674,7 @@
         <v>226</v>
       </c>
       <c r="B206" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C206" t="s">
         <v>57</v>
@@ -14686,13 +14686,13 @@
         <v>206</v>
       </c>
       <c r="F206" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G206" t="s">
         <v>155</v>
       </c>
       <c r="H206" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I206">
         <v>5</v>
@@ -14706,7 +14706,7 @@
         <v>226</v>
       </c>
       <c r="B207" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C207" t="s">
         <v>10</v>
@@ -14724,7 +14724,7 @@
         <v>155</v>
       </c>
       <c r="H207" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -14738,7 +14738,7 @@
         <v>226</v>
       </c>
       <c r="B208" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C208" t="s">
         <v>109</v>
@@ -14750,13 +14750,13 @@
         <v>209</v>
       </c>
       <c r="F208" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G208" t="s">
         <v>155</v>
       </c>
       <c r="H208" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I208">
         <v>1.5</v>
@@ -14770,7 +14770,7 @@
         <v>226</v>
       </c>
       <c r="B209" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C209" t="s">
         <v>57</v>
@@ -14788,7 +14788,7 @@
         <v>155</v>
       </c>
       <c r="H209" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I209">
         <v>2</v>
@@ -14802,7 +14802,7 @@
         <v>226</v>
       </c>
       <c r="B210" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C210" t="s">
         <v>10</v>
@@ -14814,13 +14814,13 @@
         <v>187</v>
       </c>
       <c r="F210" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G210" t="s">
         <v>138</v>
       </c>
       <c r="H210" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I210">
         <v>5</v>
@@ -14834,7 +14834,7 @@
         <v>226</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C211" t="s">
         <v>10</v>
@@ -14852,7 +14852,7 @@
         <v>138</v>
       </c>
       <c r="H211" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I211">
         <v>1.5</v>
@@ -14866,7 +14866,7 @@
         <v>226</v>
       </c>
       <c r="B212" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
@@ -14878,13 +14878,13 @@
         <v>190</v>
       </c>
       <c r="F212" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G212" t="s">
         <v>138</v>
       </c>
       <c r="H212" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I212">
         <v>4</v>
@@ -14898,7 +14898,7 @@
         <v>226</v>
       </c>
       <c r="B213" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C213" t="s">
         <v>57</v>
@@ -14916,7 +14916,7 @@
         <v>138</v>
       </c>
       <c r="H213" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I213">
         <v>3</v>
@@ -14930,7 +14930,7 @@
         <v>226</v>
       </c>
       <c r="B214" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
@@ -14942,13 +14942,13 @@
         <v>196</v>
       </c>
       <c r="F214" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G214" t="s">
         <v>138</v>
       </c>
       <c r="H214" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -14962,7 +14962,7 @@
         <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C215" t="s">
         <v>198</v>
@@ -14974,13 +14974,13 @@
         <v>200</v>
       </c>
       <c r="F215" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G215" t="s">
         <v>138</v>
       </c>
       <c r="H215" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I215">
         <v>2</v>
@@ -14994,7 +14994,7 @@
         <v>226</v>
       </c>
       <c r="B216" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C216" t="s">
         <v>84</v>
@@ -15006,13 +15006,13 @@
         <v>157</v>
       </c>
       <c r="F216" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G216" t="s">
         <v>138</v>
       </c>
       <c r="H216" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I216">
         <v>1.5</v>
@@ -15026,7 +15026,7 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
@@ -15044,7 +15044,7 @@
         <v>138</v>
       </c>
       <c r="H217" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I217">
         <v>1.5</v>
@@ -15058,7 +15058,7 @@
         <v>226</v>
       </c>
       <c r="B218" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
@@ -15070,13 +15070,13 @@
         <v>125</v>
       </c>
       <c r="F218" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G218" t="s">
         <v>155</v>
       </c>
       <c r="H218" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I218">
         <v>3</v>
@@ -15090,7 +15090,7 @@
         <v>226</v>
       </c>
       <c r="B219" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C219" t="s">
         <v>1</v>
@@ -15102,13 +15102,13 @@
         <v>213</v>
       </c>
       <c r="F219" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G219" t="s">
         <v>155</v>
       </c>
       <c r="H219" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I219">
         <v>3</v>
@@ -15122,7 +15122,7 @@
         <v>226</v>
       </c>
       <c r="B220" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
@@ -15140,7 +15140,7 @@
         <v>155</v>
       </c>
       <c r="H220" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -15154,7 +15154,7 @@
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
@@ -15172,7 +15172,7 @@
         <v>155</v>
       </c>
       <c r="H221" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I221">
         <v>3</v>
@@ -15186,7 +15186,7 @@
         <v>226</v>
       </c>
       <c r="B222" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C222" t="s">
         <v>57</v>
@@ -15198,13 +15198,13 @@
         <v>206</v>
       </c>
       <c r="F222" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G222" t="s">
         <v>155</v>
       </c>
       <c r="H222" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I222">
         <v>5</v>
@@ -15218,7 +15218,7 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C223" t="s">
         <v>10</v>
@@ -15236,7 +15236,7 @@
         <v>155</v>
       </c>
       <c r="H223" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I223">
         <v>2</v>
@@ -15250,7 +15250,7 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C224" t="s">
         <v>109</v>
@@ -15262,13 +15262,13 @@
         <v>209</v>
       </c>
       <c r="F224" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G224" t="s">
         <v>155</v>
       </c>
       <c r="H224" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I224">
         <v>1.5</v>
@@ -15282,7 +15282,7 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C225" t="s">
         <v>57</v>
@@ -15300,7 +15300,7 @@
         <v>155</v>
       </c>
       <c r="H225" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I225">
         <v>2</v>
@@ -15314,7 +15314,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C226" t="s">
         <v>10</v>
@@ -15326,13 +15326,13 @@
         <v>187</v>
       </c>
       <c r="F226" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G226" t="s">
         <v>138</v>
       </c>
       <c r="H226" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I226">
         <v>5</v>
@@ -15346,7 +15346,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C227" t="s">
         <v>10</v>
@@ -15364,7 +15364,7 @@
         <v>138</v>
       </c>
       <c r="H227" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I227">
         <v>1.5</v>
@@ -15378,7 +15378,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
@@ -15390,13 +15390,13 @@
         <v>190</v>
       </c>
       <c r="F228" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G228" t="s">
         <v>138</v>
       </c>
       <c r="H228" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I228">
         <v>4</v>
@@ -15410,7 +15410,7 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C229" t="s">
         <v>57</v>
@@ -15428,7 +15428,7 @@
         <v>138</v>
       </c>
       <c r="H229" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I229">
         <v>3</v>
@@ -15442,7 +15442,7 @@
         <v>226</v>
       </c>
       <c r="B230" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
@@ -15454,13 +15454,13 @@
         <v>196</v>
       </c>
       <c r="F230" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G230" t="s">
         <v>138</v>
       </c>
       <c r="H230" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -15474,7 +15474,7 @@
         <v>226</v>
       </c>
       <c r="B231" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C231" t="s">
         <v>198</v>
@@ -15486,13 +15486,13 @@
         <v>200</v>
       </c>
       <c r="F231" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G231" t="s">
         <v>138</v>
       </c>
       <c r="H231" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I231">
         <v>2</v>
@@ -15506,7 +15506,7 @@
         <v>226</v>
       </c>
       <c r="B232" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C232" t="s">
         <v>84</v>
@@ -15518,13 +15518,13 @@
         <v>157</v>
       </c>
       <c r="F232" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G232" t="s">
         <v>138</v>
       </c>
       <c r="H232" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I232">
         <v>1.5</v>
@@ -15538,7 +15538,7 @@
         <v>226</v>
       </c>
       <c r="B233" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
@@ -15556,7 +15556,7 @@
         <v>138</v>
       </c>
       <c r="H233" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I233">
         <v>1.5</v>
@@ -15570,7 +15570,7 @@
         <v>226</v>
       </c>
       <c r="B234" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
@@ -15582,13 +15582,13 @@
         <v>125</v>
       </c>
       <c r="F234" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G234" t="s">
         <v>155</v>
       </c>
       <c r="H234" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I234">
         <v>3</v>
@@ -15602,7 +15602,7 @@
         <v>226</v>
       </c>
       <c r="B235" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
@@ -15614,13 +15614,13 @@
         <v>213</v>
       </c>
       <c r="F235" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G235" t="s">
         <v>155</v>
       </c>
       <c r="H235" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I235">
         <v>3</v>
@@ -15634,7 +15634,7 @@
         <v>226</v>
       </c>
       <c r="B236" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
@@ -15652,7 +15652,7 @@
         <v>155</v>
       </c>
       <c r="H236" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I236">
         <v>2</v>
@@ -15666,7 +15666,7 @@
         <v>226</v>
       </c>
       <c r="B237" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
@@ -15684,7 +15684,7 @@
         <v>155</v>
       </c>
       <c r="H237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I237">
         <v>3</v>
@@ -15698,7 +15698,7 @@
         <v>226</v>
       </c>
       <c r="B238" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C238" t="s">
         <v>57</v>
@@ -15710,13 +15710,13 @@
         <v>206</v>
       </c>
       <c r="F238" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G238" t="s">
         <v>155</v>
       </c>
       <c r="H238" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I238">
         <v>5</v>
@@ -15730,7 +15730,7 @@
         <v>226</v>
       </c>
       <c r="B239" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C239" t="s">
         <v>10</v>
@@ -15748,7 +15748,7 @@
         <v>155</v>
       </c>
       <c r="H239" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I239">
         <v>2</v>
@@ -15762,7 +15762,7 @@
         <v>226</v>
       </c>
       <c r="B240" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C240" t="s">
         <v>109</v>
@@ -15774,13 +15774,13 @@
         <v>209</v>
       </c>
       <c r="F240" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G240" t="s">
         <v>155</v>
       </c>
       <c r="H240" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I240">
         <v>1.5</v>
@@ -15794,7 +15794,7 @@
         <v>226</v>
       </c>
       <c r="B241" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C241" t="s">
         <v>57</v>
@@ -15812,7 +15812,7 @@
         <v>155</v>
       </c>
       <c r="H241" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I241">
         <v>2</v>
@@ -15826,7 +15826,7 @@
         <v>225</v>
       </c>
       <c r="B242" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
@@ -15844,7 +15844,7 @@
         <v>231</v>
       </c>
       <c r="H242" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I242">
         <v>9</v>
@@ -15858,7 +15858,7 @@
         <v>225</v>
       </c>
       <c r="B243" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
@@ -15876,7 +15876,7 @@
         <v>231</v>
       </c>
       <c r="H243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I243">
         <v>12</v>
@@ -15890,7 +15890,7 @@
         <v>225</v>
       </c>
       <c r="B244" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C244" t="s">
         <v>10</v>
@@ -15908,7 +15908,7 @@
         <v>231</v>
       </c>
       <c r="H244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -15922,7 +15922,7 @@
         <v>225</v>
       </c>
       <c r="B245" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
@@ -15940,7 +15940,7 @@
         <v>231</v>
       </c>
       <c r="H245" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I245">
         <v>3</v>
@@ -15951,7 +15951,7 @@
         <v>225</v>
       </c>
       <c r="B246" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C246" t="s">
         <v>10</v>
@@ -15969,7 +15969,7 @@
         <v>231</v>
       </c>
       <c r="H246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I246">
         <v>5</v>
@@ -15983,7 +15983,7 @@
         <v>225</v>
       </c>
       <c r="B247" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C247" t="s">
         <v>1</v>
@@ -16001,7 +16001,7 @@
         <v>231</v>
       </c>
       <c r="H247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I247">
         <v>4</v>
@@ -16015,7 +16015,7 @@
         <v>225</v>
       </c>
       <c r="B248" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C248" t="s">
         <v>1</v>
@@ -16033,7 +16033,7 @@
         <v>231</v>
       </c>
       <c r="H248" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -16047,7 +16047,7 @@
         <v>225</v>
       </c>
       <c r="B249" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C249" t="s">
         <v>1</v>
@@ -16059,13 +16059,13 @@
         <v>125</v>
       </c>
       <c r="F249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G249" t="s">
         <v>155</v>
       </c>
       <c r="H249" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I249">
         <v>6</v>
@@ -16079,7 +16079,7 @@
         <v>225</v>
       </c>
       <c r="B250" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C250" t="s">
         <v>120</v>
@@ -16097,7 +16097,7 @@
         <v>155</v>
       </c>
       <c r="H250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I250">
         <v>10</v>
@@ -16111,7 +16111,7 @@
         <v>225</v>
       </c>
       <c r="B251" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C251" t="s">
         <v>10</v>
@@ -16129,7 +16129,7 @@
         <v>155</v>
       </c>
       <c r="H251" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I251">
         <v>2</v>
@@ -16143,7 +16143,7 @@
         <v>225</v>
       </c>
       <c r="B252" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
@@ -16161,7 +16161,7 @@
         <v>155</v>
       </c>
       <c r="H252" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I252">
         <v>9</v>
@@ -16175,7 +16175,7 @@
         <v>225</v>
       </c>
       <c r="B253" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C253" t="s">
         <v>1</v>
@@ -16187,13 +16187,13 @@
         <v>65</v>
       </c>
       <c r="F253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G253" t="s">
         <v>155</v>
       </c>
       <c r="H253" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I253">
         <v>12</v>
@@ -16207,7 +16207,7 @@
         <v>225</v>
       </c>
       <c r="B254" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C254" t="s">
         <v>109</v>
@@ -16225,7 +16225,7 @@
         <v>155</v>
       </c>
       <c r="H254" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I254">
         <v>3</v>
@@ -16239,7 +16239,7 @@
         <v>225</v>
       </c>
       <c r="B255" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C255" t="s">
         <v>57</v>
@@ -16257,7 +16257,7 @@
         <v>155</v>
       </c>
       <c r="H255" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I255">
         <v>14</v>
@@ -16271,7 +16271,7 @@
         <v>225</v>
       </c>
       <c r="B256" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
@@ -16289,7 +16289,7 @@
         <v>231</v>
       </c>
       <c r="H256" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I256">
         <v>9</v>
@@ -16303,7 +16303,7 @@
         <v>225</v>
       </c>
       <c r="B257" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
@@ -16321,7 +16321,7 @@
         <v>231</v>
       </c>
       <c r="H257" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I257">
         <v>12</v>
@@ -16335,7 +16335,7 @@
         <v>225</v>
       </c>
       <c r="B258" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C258" t="s">
         <v>10</v>
@@ -16353,7 +16353,7 @@
         <v>231</v>
       </c>
       <c r="H258" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I258">
         <v>2</v>
@@ -16367,7 +16367,7 @@
         <v>225</v>
       </c>
       <c r="B259" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C259" t="s">
         <v>1</v>
@@ -16385,7 +16385,7 @@
         <v>231</v>
       </c>
       <c r="H259" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I259">
         <v>3</v>
@@ -16396,7 +16396,7 @@
         <v>225</v>
       </c>
       <c r="B260" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C260" t="s">
         <v>10</v>
@@ -16414,7 +16414,7 @@
         <v>231</v>
       </c>
       <c r="H260" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I260">
         <v>5</v>
@@ -16428,7 +16428,7 @@
         <v>225</v>
       </c>
       <c r="B261" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C261" t="s">
         <v>1</v>
@@ -16446,7 +16446,7 @@
         <v>231</v>
       </c>
       <c r="H261" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I261">
         <v>4</v>
@@ -16460,7 +16460,7 @@
         <v>225</v>
       </c>
       <c r="B262" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C262" t="s">
         <v>1</v>
@@ -16478,7 +16478,7 @@
         <v>231</v>
       </c>
       <c r="H262" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I262">
         <v>2</v>
@@ -16492,7 +16492,7 @@
         <v>225</v>
       </c>
       <c r="B263" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C263" t="s">
         <v>1</v>
@@ -16504,13 +16504,13 @@
         <v>125</v>
       </c>
       <c r="F263" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G263" t="s">
         <v>155</v>
       </c>
       <c r="H263" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I263">
         <v>6</v>
@@ -16524,7 +16524,7 @@
         <v>225</v>
       </c>
       <c r="B264" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C264" t="s">
         <v>120</v>
@@ -16542,7 +16542,7 @@
         <v>155</v>
       </c>
       <c r="H264" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I264">
         <v>10</v>
@@ -16556,7 +16556,7 @@
         <v>225</v>
       </c>
       <c r="B265" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C265" t="s">
         <v>10</v>
@@ -16574,7 +16574,7 @@
         <v>155</v>
       </c>
       <c r="H265" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I265">
         <v>2</v>
@@ -16588,7 +16588,7 @@
         <v>225</v>
       </c>
       <c r="B266" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C266" t="s">
         <v>1</v>
@@ -16606,7 +16606,7 @@
         <v>155</v>
       </c>
       <c r="H266" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I266">
         <v>9</v>
@@ -16620,7 +16620,7 @@
         <v>225</v>
       </c>
       <c r="B267" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C267" t="s">
         <v>1</v>
@@ -16632,13 +16632,13 @@
         <v>65</v>
       </c>
       <c r="F267" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G267" t="s">
         <v>155</v>
       </c>
       <c r="H267" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I267">
         <v>12</v>
@@ -16652,7 +16652,7 @@
         <v>225</v>
       </c>
       <c r="B268" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C268" t="s">
         <v>109</v>
@@ -16670,7 +16670,7 @@
         <v>155</v>
       </c>
       <c r="H268" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I268">
         <v>3</v>
@@ -16684,7 +16684,7 @@
         <v>225</v>
       </c>
       <c r="B269" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C269" t="s">
         <v>57</v>
@@ -16702,7 +16702,7 @@
         <v>155</v>
       </c>
       <c r="H269" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I269">
         <v>14</v>
@@ -16713,10 +16713,10 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B270" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C270" t="s">
         <v>10</v>
@@ -16734,7 +16734,7 @@
         <v>233</v>
       </c>
       <c r="H270" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -16745,10 +16745,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B271" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C271" t="s">
         <v>1</v>
@@ -16766,7 +16766,7 @@
         <v>233</v>
       </c>
       <c r="H271" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I271">
         <v>3</v>
@@ -16777,10 +16777,10 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B272" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C272" t="s">
         <v>57</v>
@@ -16798,7 +16798,7 @@
         <v>233</v>
       </c>
       <c r="H272" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I272">
         <v>12</v>
@@ -16809,10 +16809,10 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B273" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C273" t="s">
         <v>1</v>
@@ -16830,7 +16830,7 @@
         <v>233</v>
       </c>
       <c r="H273" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I273">
         <v>6</v>
@@ -16841,10 +16841,10 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B274" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C274" t="s">
         <v>10</v>
@@ -16862,7 +16862,7 @@
         <v>233</v>
       </c>
       <c r="H274" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I274">
         <v>2</v>
@@ -16873,10 +16873,10 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B275" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C275" t="s">
         <v>67</v>
@@ -16894,7 +16894,7 @@
         <v>233</v>
       </c>
       <c r="H275" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I275">
         <v>6</v>
@@ -16905,10 +16905,10 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B276" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C276" t="s">
         <v>1</v>
@@ -16926,7 +16926,7 @@
         <v>233</v>
       </c>
       <c r="H276" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I276">
         <v>16</v>
@@ -16937,10 +16937,10 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B277" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C277" t="s">
         <v>1</v>
@@ -16958,7 +16958,7 @@
         <v>234</v>
       </c>
       <c r="H277" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I277">
         <v>3</v>
@@ -16969,10 +16969,10 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B278" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
@@ -16990,7 +16990,7 @@
         <v>234</v>
       </c>
       <c r="H278" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I278">
         <v>6</v>
@@ -17001,10 +17001,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B279" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C279" t="s">
         <v>10</v>
@@ -17022,7 +17022,7 @@
         <v>234</v>
       </c>
       <c r="H279" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I279">
         <v>5</v>
@@ -17033,10 +17033,10 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B280" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C280" t="s">
         <v>109</v>
@@ -17054,7 +17054,7 @@
         <v>234</v>
       </c>
       <c r="H280" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I280">
         <v>3</v>
@@ -17065,10 +17065,10 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B281" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C281" t="s">
         <v>1</v>
@@ -17080,13 +17080,13 @@
         <v>65</v>
       </c>
       <c r="F281" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G281" t="s">
         <v>234</v>
       </c>
       <c r="H281" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I281">
         <v>12</v>
@@ -17097,10 +17097,10 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B282" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C282" t="s">
         <v>1</v>
@@ -17118,7 +17118,7 @@
         <v>234</v>
       </c>
       <c r="H282" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I282">
         <v>4</v>
@@ -17129,10 +17129,10 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B283" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C283" t="s">
         <v>1</v>
@@ -17150,7 +17150,7 @@
         <v>234</v>
       </c>
       <c r="H283" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I283">
         <v>2</v>
@@ -17161,10 +17161,10 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
+        <v>294</v>
+      </c>
+      <c r="B284" t="s">
         <v>296</v>
-      </c>
-      <c r="B284" t="s">
-        <v>298</v>
       </c>
       <c r="C284" t="s">
         <v>10</v>
@@ -17182,7 +17182,7 @@
         <v>233</v>
       </c>
       <c r="H284" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I284">
         <v>1</v>
@@ -17193,10 +17193,10 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
+        <v>294</v>
+      </c>
+      <c r="B285" t="s">
         <v>296</v>
-      </c>
-      <c r="B285" t="s">
-        <v>298</v>
       </c>
       <c r="C285" t="s">
         <v>1</v>
@@ -17214,7 +17214,7 @@
         <v>233</v>
       </c>
       <c r="H285" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I285">
         <v>3</v>
@@ -17225,10 +17225,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
+        <v>294</v>
+      </c>
+      <c r="B286" t="s">
         <v>296</v>
-      </c>
-      <c r="B286" t="s">
-        <v>298</v>
       </c>
       <c r="C286" t="s">
         <v>57</v>
@@ -17246,7 +17246,7 @@
         <v>233</v>
       </c>
       <c r="H286" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I286">
         <v>12</v>
@@ -17257,10 +17257,10 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
+        <v>294</v>
+      </c>
+      <c r="B287" t="s">
         <v>296</v>
-      </c>
-      <c r="B287" t="s">
-        <v>298</v>
       </c>
       <c r="C287" t="s">
         <v>1</v>
@@ -17278,7 +17278,7 @@
         <v>233</v>
       </c>
       <c r="H287" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I287">
         <v>6</v>
@@ -17289,10 +17289,10 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288" t="s">
         <v>296</v>
-      </c>
-      <c r="B288" t="s">
-        <v>298</v>
       </c>
       <c r="C288" t="s">
         <v>10</v>
@@ -17310,7 +17310,7 @@
         <v>233</v>
       </c>
       <c r="H288" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I288">
         <v>2</v>
@@ -17321,10 +17321,10 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
+        <v>294</v>
+      </c>
+      <c r="B289" t="s">
         <v>296</v>
-      </c>
-      <c r="B289" t="s">
-        <v>298</v>
       </c>
       <c r="C289" t="s">
         <v>67</v>
@@ -17342,7 +17342,7 @@
         <v>233</v>
       </c>
       <c r="H289" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I289">
         <v>6</v>
@@ -17353,10 +17353,10 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
+        <v>294</v>
+      </c>
+      <c r="B290" t="s">
         <v>296</v>
-      </c>
-      <c r="B290" t="s">
-        <v>298</v>
       </c>
       <c r="C290" t="s">
         <v>1</v>
@@ -17374,7 +17374,7 @@
         <v>233</v>
       </c>
       <c r="H290" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I290">
         <v>16</v>
@@ -17385,10 +17385,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291" t="s">
         <v>296</v>
-      </c>
-      <c r="B291" t="s">
-        <v>298</v>
       </c>
       <c r="C291" t="s">
         <v>1</v>
@@ -17406,7 +17406,7 @@
         <v>234</v>
       </c>
       <c r="H291" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I291">
         <v>3</v>
@@ -17417,10 +17417,10 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292" t="s">
         <v>296</v>
-      </c>
-      <c r="B292" t="s">
-        <v>298</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
@@ -17438,7 +17438,7 @@
         <v>234</v>
       </c>
       <c r="H292" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I292">
         <v>6</v>
@@ -17449,10 +17449,10 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" t="s">
         <v>296</v>
-      </c>
-      <c r="B293" t="s">
-        <v>298</v>
       </c>
       <c r="C293" t="s">
         <v>10</v>
@@ -17470,7 +17470,7 @@
         <v>234</v>
       </c>
       <c r="H293" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I293">
         <v>5</v>
@@ -17481,10 +17481,10 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" t="s">
         <v>296</v>
-      </c>
-      <c r="B294" t="s">
-        <v>298</v>
       </c>
       <c r="C294" t="s">
         <v>109</v>
@@ -17502,7 +17502,7 @@
         <v>234</v>
       </c>
       <c r="H294" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I294">
         <v>3</v>
@@ -17513,10 +17513,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
         <v>296</v>
-      </c>
-      <c r="B295" t="s">
-        <v>298</v>
       </c>
       <c r="C295" t="s">
         <v>1</v>
@@ -17528,13 +17528,13 @@
         <v>65</v>
       </c>
       <c r="F295" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G295" t="s">
         <v>234</v>
       </c>
       <c r="H295" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I295">
         <v>12</v>
@@ -17545,10 +17545,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
         <v>296</v>
-      </c>
-      <c r="B296" t="s">
-        <v>298</v>
       </c>
       <c r="C296" t="s">
         <v>1</v>
@@ -17566,7 +17566,7 @@
         <v>234</v>
       </c>
       <c r="H296" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I296">
         <v>4</v>
@@ -17577,10 +17577,10 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
+        <v>294</v>
+      </c>
+      <c r="B297" t="s">
         <v>296</v>
-      </c>
-      <c r="B297" t="s">
-        <v>298</v>
       </c>
       <c r="C297" t="s">
         <v>1</v>
@@ -17598,7 +17598,7 @@
         <v>234</v>
       </c>
       <c r="H297" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I297">
         <v>2</v>
@@ -17609,10 +17609,10 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B298" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C298" t="s">
         <v>1</v>
@@ -17630,7 +17630,7 @@
         <v>138</v>
       </c>
       <c r="H298" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I298">
         <v>10</v>
@@ -17641,10 +17641,10 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B299" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C299" t="s">
         <v>1</v>
@@ -17656,13 +17656,13 @@
         <v>79</v>
       </c>
       <c r="F299" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G299" t="s">
         <v>138</v>
       </c>
       <c r="H299" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I299">
         <v>15</v>
@@ -17673,10 +17673,10 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B300" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C300" t="s">
         <v>57</v>
@@ -17688,13 +17688,13 @@
         <v>76</v>
       </c>
       <c r="F300" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G300" t="s">
         <v>138</v>
       </c>
       <c r="H300" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I300">
         <v>25</v>
@@ -17705,10 +17705,10 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B301" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C301" t="s">
         <v>1</v>
@@ -17726,7 +17726,7 @@
         <v>138</v>
       </c>
       <c r="H301" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I301">
         <v>14</v>
@@ -17734,10 +17734,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B302" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C302" t="s">
         <v>1</v>
@@ -17749,13 +17749,13 @@
         <v>82</v>
       </c>
       <c r="F302" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G302" t="s">
         <v>138</v>
       </c>
       <c r="H302" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I302">
         <v>11</v>
@@ -17766,10 +17766,10 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B303" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C303" t="s">
         <v>1</v>
@@ -17787,7 +17787,7 @@
         <v>138</v>
       </c>
       <c r="H303" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I303">
         <v>14</v>
@@ -17798,10 +17798,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B304" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C304" t="s">
         <v>84</v>
@@ -17813,13 +17813,13 @@
         <v>86</v>
       </c>
       <c r="F304" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G304" t="s">
         <v>138</v>
       </c>
       <c r="H304" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I304">
         <v>4</v>
@@ -17830,10 +17830,10 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B305" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C305" t="s">
         <v>10</v>
@@ -17851,7 +17851,7 @@
         <v>233</v>
       </c>
       <c r="H305" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I305">
         <v>1</v>
@@ -17862,10 +17862,10 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B306" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C306" t="s">
         <v>1</v>
@@ -17883,7 +17883,7 @@
         <v>233</v>
       </c>
       <c r="H306" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I306">
         <v>3</v>
@@ -17894,10 +17894,10 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B307" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C307" t="s">
         <v>57</v>
@@ -17915,7 +17915,7 @@
         <v>233</v>
       </c>
       <c r="H307" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I307">
         <v>12</v>
@@ -17926,10 +17926,10 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B308" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C308" t="s">
         <v>1</v>
@@ -17947,7 +17947,7 @@
         <v>233</v>
       </c>
       <c r="H308" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I308">
         <v>6</v>
@@ -17958,10 +17958,10 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B309" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C309" t="s">
         <v>10</v>
@@ -17979,7 +17979,7 @@
         <v>233</v>
       </c>
       <c r="H309" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I309">
         <v>2</v>
@@ -17990,10 +17990,10 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B310" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C310" t="s">
         <v>67</v>
@@ -18011,7 +18011,7 @@
         <v>233</v>
       </c>
       <c r="H310" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I310">
         <v>6</v>
@@ -18022,10 +18022,10 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B311" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C311" t="s">
         <v>1</v>
@@ -18043,7 +18043,7 @@
         <v>233</v>
       </c>
       <c r="H311" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I311">
         <v>16</v>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="535" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30564E69-E7FE-4729-9099-1412083C239E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
@@ -4285,9 +4285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AACCC2-25F8-47C0-AE4C-0CA6CA3F7938}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8109,7 +8109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5849FDA-05E6-480F-8FF0-1C4EF45669E6}">
   <dimension ref="A1:J311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -1024,10 +1024,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4319,8 +4318,8 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5003,10 +5002,10 @@
       <c r="F18" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>303</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>300</v>
       </c>
       <c r="I18" t="s">
@@ -5535,10 +5534,10 @@
       <c r="F32" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>303</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
         <v>299</v>
       </c>
       <c r="I32" t="s">
@@ -5573,10 +5572,10 @@
       <c r="F33" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" t="s">
         <v>303</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>300</v>
       </c>
       <c r="I33" t="s">
@@ -5611,10 +5610,10 @@
       <c r="F34" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" t="s">
         <v>303</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" t="s">
         <v>299</v>
       </c>
       <c r="I34" t="s">
@@ -5649,10 +5648,10 @@
       <c r="F35" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" t="s">
         <v>303</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" t="s">
         <v>300</v>
       </c>
       <c r="I35" t="s">
@@ -5687,10 +5686,10 @@
       <c r="F36" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" t="s">
         <v>299</v>
       </c>
       <c r="I36" t="s">
@@ -5725,10 +5724,10 @@
       <c r="F37" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" t="s">
         <v>303</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" t="s">
         <v>299</v>
       </c>
       <c r="I37" t="s">
@@ -5763,10 +5762,10 @@
       <c r="F38" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" t="s">
         <v>303</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" t="s">
         <v>300</v>
       </c>
       <c r="I38" t="s">
@@ -5801,10 +5800,10 @@
       <c r="F39" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" t="s">
         <v>303</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" t="s">
         <v>300</v>
       </c>
       <c r="I39" t="s">
@@ -6067,10 +6066,10 @@
       <c r="F46" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" t="s">
         <v>303</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
       <c r="I46" t="s">
@@ -6105,10 +6104,10 @@
       <c r="F47" t="s">
         <v>256</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" t="s">
         <v>303</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" t="s">
         <v>300</v>
       </c>
       <c r="I47" t="s">
@@ -6143,10 +6142,10 @@
       <c r="F48" t="s">
         <v>257</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" t="s">
         <v>303</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" t="s">
         <v>299</v>
       </c>
       <c r="I48" t="s">
@@ -6181,10 +6180,10 @@
       <c r="F49" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" t="s">
         <v>303</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" t="s">
         <v>300</v>
       </c>
       <c r="I49" t="s">
@@ -6216,10 +6215,10 @@
       <c r="F50" t="s">
         <v>258</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" t="s">
         <v>300</v>
       </c>
       <c r="I50" t="s">
@@ -6254,10 +6253,10 @@
       <c r="F51" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" t="s">
         <v>300</v>
       </c>
       <c r="I51" t="s">
@@ -6292,10 +6291,10 @@
       <c r="F52" t="s">
         <v>259</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" t="s">
         <v>303</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" t="s">
         <v>299</v>
       </c>
       <c r="I52" t="s">
@@ -6596,10 +6595,10 @@
       <c r="F60" t="s">
         <v>88</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" t="s">
         <v>303</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" t="s">
         <v>300</v>
       </c>
       <c r="I60" t="s">
@@ -6634,10 +6633,10 @@
       <c r="F61" t="s">
         <v>256</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" t="s">
         <v>303</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" t="s">
         <v>300</v>
       </c>
       <c r="I61" t="s">
@@ -6672,10 +6671,10 @@
       <c r="F62" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" t="s">
         <v>303</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" t="s">
         <v>299</v>
       </c>
       <c r="I62" t="s">
@@ -6710,10 +6709,10 @@
       <c r="F63" t="s">
         <v>91</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" t="s">
         <v>303</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" t="s">
         <v>300</v>
       </c>
       <c r="I63" t="s">
@@ -6745,10 +6744,10 @@
       <c r="F64" t="s">
         <v>258</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" t="s">
         <v>303</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" t="s">
         <v>300</v>
       </c>
       <c r="I64" t="s">
@@ -6783,10 +6782,10 @@
       <c r="F65" t="s">
         <v>74</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" t="s">
         <v>303</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" t="s">
         <v>300</v>
       </c>
       <c r="I65" t="s">
@@ -6821,10 +6820,10 @@
       <c r="F66" t="s">
         <v>259</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" t="s">
         <v>303</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" t="s">
         <v>299</v>
       </c>
       <c r="I66" t="s">
@@ -7125,10 +7124,10 @@
       <c r="F74" t="s">
         <v>253</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" t="s">
         <v>303</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" t="s">
         <v>300</v>
       </c>
       <c r="I74" t="s">
@@ -7163,10 +7162,10 @@
       <c r="F75" t="s">
         <v>141</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" t="s">
         <v>303</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" t="s">
         <v>300</v>
       </c>
       <c r="I75" t="s">
@@ -7201,10 +7200,10 @@
       <c r="F76" t="s">
         <v>42</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" t="s">
         <v>305</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" t="s">
         <v>299</v>
       </c>
       <c r="I76" t="s">
@@ -7239,10 +7238,10 @@
       <c r="F77" t="s">
         <v>274</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" t="s">
         <v>303</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" t="s">
         <v>299</v>
       </c>
       <c r="I77" t="s">
@@ -7277,10 +7276,10 @@
       <c r="F78" t="s">
         <v>260</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" t="s">
         <v>304</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" t="s">
         <v>299</v>
       </c>
       <c r="I78" t="s">
@@ -7312,10 +7311,10 @@
       <c r="F79" t="s">
         <v>146</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" t="s">
         <v>303</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" t="s">
         <v>301</v>
       </c>
       <c r="I79" t="s">
@@ -7350,10 +7349,10 @@
       <c r="F80" t="s">
         <v>150</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" t="s">
         <v>303</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" t="s">
         <v>299</v>
       </c>
       <c r="I80" t="s">
@@ -7388,10 +7387,10 @@
       <c r="F81" t="s">
         <v>137</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" t="s">
         <v>304</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" t="s">
         <v>299</v>
       </c>
       <c r="I81" t="s">
@@ -7426,10 +7425,10 @@
       <c r="F82" t="s">
         <v>173</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" t="s">
         <v>304</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" t="s">
         <v>299</v>
       </c>
       <c r="I82" t="s">
@@ -7464,10 +7463,10 @@
       <c r="F83" t="s">
         <v>261</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" t="s">
         <v>303</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" t="s">
         <v>301</v>
       </c>
       <c r="I83" t="s">
@@ -7502,10 +7501,10 @@
       <c r="F84" t="s">
         <v>176</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" t="s">
         <v>303</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" t="s">
         <v>301</v>
       </c>
       <c r="I84" t="s">
@@ -7537,10 +7536,10 @@
       <c r="F85" t="s">
         <v>268</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" t="s">
         <v>303</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" t="s">
         <v>301</v>
       </c>
       <c r="I85" t="s">
@@ -7575,10 +7574,10 @@
       <c r="F86" t="s">
         <v>164</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" t="s">
         <v>303</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" t="s">
         <v>301</v>
       </c>
       <c r="I86" t="s">
@@ -7613,10 +7612,10 @@
       <c r="F87" t="s">
         <v>170</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" t="s">
         <v>303</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" t="s">
         <v>301</v>
       </c>
       <c r="I87" t="s">
@@ -7651,10 +7650,10 @@
       <c r="F88" t="s">
         <v>161</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" t="s">
         <v>305</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" t="s">
         <v>299</v>
       </c>
       <c r="I88" t="s">
@@ -7727,10 +7726,10 @@
       <c r="F90" t="s">
         <v>262</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" t="s">
         <v>303</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" t="s">
         <v>301</v>
       </c>
       <c r="I90" t="s">
@@ -7765,10 +7764,10 @@
       <c r="F91" t="s">
         <v>42</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" t="s">
         <v>305</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" t="s">
         <v>299</v>
       </c>
       <c r="I91" t="s">
@@ -7803,10 +7802,10 @@
       <c r="F92" t="s">
         <v>307</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" t="s">
         <v>303</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" t="s">
         <v>300</v>
       </c>
       <c r="I92" t="s">
@@ -7841,10 +7840,10 @@
       <c r="F93" t="s">
         <v>194</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" t="s">
         <v>304</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" t="s">
         <v>299</v>
       </c>
       <c r="I93" t="s">
@@ -7879,10 +7878,10 @@
       <c r="F94" t="s">
         <v>263</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" t="s">
         <v>303</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" t="s">
         <v>300</v>
       </c>
       <c r="I94" t="s">
@@ -7917,10 +7916,10 @@
       <c r="F95" t="s">
         <v>264</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" t="s">
         <v>304</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H95" t="s">
         <v>299</v>
       </c>
       <c r="I95" t="s">
@@ -7955,10 +7954,10 @@
       <c r="F96" t="s">
         <v>158</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" t="s">
         <v>303</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" t="s">
         <v>299</v>
       </c>
       <c r="I96" t="s">
@@ -7993,10 +7992,10 @@
       <c r="F97" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" t="s">
         <v>303</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" t="s">
         <v>300</v>
       </c>
       <c r="I97" t="s">
@@ -8031,10 +8030,10 @@
       <c r="F98" t="s">
         <v>255</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" t="s">
         <v>303</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" t="s">
         <v>300</v>
       </c>
       <c r="I98" t="s">
@@ -8069,10 +8068,10 @@
       <c r="F99" t="s">
         <v>265</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" t="s">
         <v>304</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" t="s">
         <v>300</v>
       </c>
       <c r="I99" t="s">
@@ -8107,10 +8106,10 @@
       <c r="F100" t="s">
         <v>108</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" t="s">
         <v>303</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H100" t="s">
         <v>300</v>
       </c>
       <c r="I100" t="s">
@@ -8145,10 +8144,10 @@
       <c r="F101" t="s">
         <v>182</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" t="s">
         <v>303</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="H101" t="s">
         <v>300</v>
       </c>
       <c r="I101" t="s">
@@ -8183,10 +8182,10 @@
       <c r="F102" t="s">
         <v>266</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" t="s">
         <v>303</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" t="s">
         <v>301</v>
       </c>
       <c r="I102" t="s">
@@ -8221,10 +8220,10 @@
       <c r="F103" t="s">
         <v>170</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" t="s">
         <v>303</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H103" t="s">
         <v>301</v>
       </c>
       <c r="I103" t="s">
@@ -8259,10 +8258,10 @@
       <c r="F104" t="s">
         <v>267</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" t="s">
         <v>304</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="H104" t="s">
         <v>299</v>
       </c>
       <c r="I104" t="s">
@@ -8335,10 +8334,10 @@
       <c r="F106" t="s">
         <v>16</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" t="s">
         <v>303</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H106" t="s">
         <v>300</v>
       </c>
       <c r="I106" t="s">
@@ -8373,10 +8372,10 @@
       <c r="F107" t="s">
         <v>4</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" t="s">
         <v>303</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="H107" t="s">
         <v>300</v>
       </c>
       <c r="I107" t="s">
@@ -8411,10 +8410,10 @@
       <c r="F108" t="s">
         <v>95</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" t="s">
         <v>303</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" t="s">
         <v>299</v>
       </c>
       <c r="I108" t="s">
@@ -8449,10 +8448,10 @@
       <c r="F109" t="s">
         <v>115</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" t="s">
         <v>303</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="H109" t="s">
         <v>300</v>
       </c>
       <c r="I109" t="s">
@@ -8484,10 +8483,10 @@
       <c r="F110" t="s">
         <v>178</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" t="s">
         <v>304</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="H110" t="s">
         <v>299</v>
       </c>
       <c r="I110" t="s">
@@ -8522,10 +8521,10 @@
       <c r="F111" t="s">
         <v>177</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" t="s">
         <v>303</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="H111" t="s">
         <v>300</v>
       </c>
       <c r="I111" t="s">
@@ -8560,10 +8559,10 @@
       <c r="F112" t="s">
         <v>19</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" t="s">
         <v>303</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H112" t="s">
         <v>300</v>
       </c>
       <c r="I112" t="s">
@@ -8598,10 +8597,10 @@
       <c r="F113" t="s">
         <v>255</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" t="s">
         <v>303</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" t="s">
         <v>300</v>
       </c>
       <c r="I113" t="s">
@@ -8636,10 +8635,10 @@
       <c r="F114" t="s">
         <v>181</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" t="s">
         <v>303</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="H114" t="s">
         <v>299</v>
       </c>
       <c r="I114" t="s">
@@ -8674,10 +8673,10 @@
       <c r="F115" t="s">
         <v>42</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" t="s">
         <v>305</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="H115" t="s">
         <v>299</v>
       </c>
       <c r="I115" t="s">
@@ -8712,10 +8711,10 @@
       <c r="F116" t="s">
         <v>182</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" t="s">
         <v>303</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="H116" t="s">
         <v>300</v>
       </c>
       <c r="I116" t="s">
@@ -8750,10 +8749,10 @@
       <c r="F117" t="s">
         <v>254</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" t="s">
         <v>303</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H117" t="s">
         <v>300</v>
       </c>
       <c r="I117" t="s">
@@ -8788,10 +8787,10 @@
       <c r="F118" t="s">
         <v>112</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" t="s">
         <v>303</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="H118" t="s">
         <v>299</v>
       </c>
       <c r="I118" t="s">
@@ -8859,7 +8858,7 @@
   <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="785" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C645BC-4F53-4654-986E-015704DA9717}"/>
+  <xr:revisionPtr revIDLastSave="787" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4778E7C-176D-43DC-8B09-7228C925AE81}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
@@ -4318,8 +4318,8 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="787" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4778E7C-176D-43DC-8B09-7228C925AE81}"/>
+  <xr:revisionPtr revIDLastSave="803" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA717705-F87C-49C4-B139-B0770790669C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView minimized="1" xWindow="1080" yWindow="876" windowWidth="13020" windowHeight="11760" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
@@ -4317,9 +4317,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AACCC2-25F8-47C0-AE4C-0CA6CA3F7938}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="803" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA717705-F87C-49C4-B139-B0770790669C}"/>
+  <xr:revisionPtr revIDLastSave="877" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57ABF7CF-2365-4AC8-B9E7-14B5416ABD52}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1080" yWindow="876" windowWidth="13020" windowHeight="11760" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
     <sheet name="with-site" sheetId="3" r:id="rId2"/>
     <sheet name="with-site_R" sheetId="4" r:id="rId3"/>
+    <sheet name="with-site_R (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7076" uniqueCount="312">
   <si>
     <t>Family</t>
   </si>
@@ -980,6 +981,18 @@
   </si>
   <si>
     <t>Arizona cottontop</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>PlotMix_Climate</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Projected</t>
   </si>
 </sst>
 </file>
@@ -1427,6 +1440,102 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8059827E-DC07-4470-A7AA-9A42F19FD85D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10635615" y="558166"/>
+          <a:ext cx="3451860" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is the same sheet as the `with-site` tab, but it is optimized for R, with separate rows for each site. The other tab is easier for humans to read. Also has PlotMix_Climate column added.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Ossanna, Lia Qin Ryan - (lossanna)" id="{BFCF90D0-C113-436C-8513-14007208B83F}" userId="S::lossanna@arizona.edu::4ef914cd-790d-460d-a4af-cca4fc5cf0d2" providerId="AD"/>
@@ -1741,7 +1850,7 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -4318,8 +4427,8 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18804,4 +18913,9051 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C16732-78E8-4180-9D72-8B4FBFFEDAA3}">
+  <dimension ref="A1:I311"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D245" sqref="D245"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" t="s">
+        <v>272</v>
+      </c>
+      <c r="I14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
+        <v>272</v>
+      </c>
+      <c r="I15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" t="s">
+        <v>272</v>
+      </c>
+      <c r="I16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" t="s">
+        <v>271</v>
+      </c>
+      <c r="I18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" t="s">
+        <v>271</v>
+      </c>
+      <c r="I20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" t="s">
+        <v>271</v>
+      </c>
+      <c r="I21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H22" t="s">
+        <v>271</v>
+      </c>
+      <c r="I22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" t="s">
+        <v>271</v>
+      </c>
+      <c r="I23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" t="s">
+        <v>271</v>
+      </c>
+      <c r="I24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G26" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" t="s">
+        <v>272</v>
+      </c>
+      <c r="I27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" t="s">
+        <v>272</v>
+      </c>
+      <c r="I28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" t="s">
+        <v>272</v>
+      </c>
+      <c r="I30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" t="s">
+        <v>272</v>
+      </c>
+      <c r="I31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" t="s">
+        <v>272</v>
+      </c>
+      <c r="I32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>155</v>
+      </c>
+      <c r="H33" t="s">
+        <v>272</v>
+      </c>
+      <c r="I33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" t="s">
+        <v>234</v>
+      </c>
+      <c r="H34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>234</v>
+      </c>
+      <c r="H36" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" t="s">
+        <v>234</v>
+      </c>
+      <c r="H37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" t="s">
+        <v>234</v>
+      </c>
+      <c r="H38" t="s">
+        <v>241</v>
+      </c>
+      <c r="I38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>234</v>
+      </c>
+      <c r="H40" t="s">
+        <v>241</v>
+      </c>
+      <c r="I40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" t="s">
+        <v>242</v>
+      </c>
+      <c r="I41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" t="s">
+        <v>242</v>
+      </c>
+      <c r="I43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" t="s">
+        <v>242</v>
+      </c>
+      <c r="I46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" t="s">
+        <v>242</v>
+      </c>
+      <c r="I47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" t="s">
+        <v>241</v>
+      </c>
+      <c r="I48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" t="s">
+        <v>241</v>
+      </c>
+      <c r="I49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>234</v>
+      </c>
+      <c r="H50" t="s">
+        <v>241</v>
+      </c>
+      <c r="I50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" t="s">
+        <v>234</v>
+      </c>
+      <c r="H51" t="s">
+        <v>241</v>
+      </c>
+      <c r="I51" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" t="s">
+        <v>234</v>
+      </c>
+      <c r="H52" t="s">
+        <v>241</v>
+      </c>
+      <c r="I52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" t="s">
+        <v>234</v>
+      </c>
+      <c r="H53" t="s">
+        <v>241</v>
+      </c>
+      <c r="I53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>234</v>
+      </c>
+      <c r="H54" t="s">
+        <v>241</v>
+      </c>
+      <c r="I54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" t="s">
+        <v>253</v>
+      </c>
+      <c r="G55" t="s">
+        <v>155</v>
+      </c>
+      <c r="H55" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" t="s">
+        <v>255</v>
+      </c>
+      <c r="G56" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" t="s">
+        <v>242</v>
+      </c>
+      <c r="I56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" t="s">
+        <v>242</v>
+      </c>
+      <c r="I57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s">
+        <v>155</v>
+      </c>
+      <c r="H58" t="s">
+        <v>242</v>
+      </c>
+      <c r="I58" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" t="s">
+        <v>242</v>
+      </c>
+      <c r="I59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" t="s">
+        <v>242</v>
+      </c>
+      <c r="I60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" t="s">
+        <v>242</v>
+      </c>
+      <c r="I61" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>280</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" t="s">
+        <v>234</v>
+      </c>
+      <c r="H62" t="s">
+        <v>241</v>
+      </c>
+      <c r="I62" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>234</v>
+      </c>
+      <c r="H63" t="s">
+        <v>241</v>
+      </c>
+      <c r="I63" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>234</v>
+      </c>
+      <c r="H64" t="s">
+        <v>241</v>
+      </c>
+      <c r="I64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" t="s">
+        <v>234</v>
+      </c>
+      <c r="H65" t="s">
+        <v>241</v>
+      </c>
+      <c r="I65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" t="s">
+        <v>254</v>
+      </c>
+      <c r="G66" t="s">
+        <v>234</v>
+      </c>
+      <c r="H66" t="s">
+        <v>241</v>
+      </c>
+      <c r="I66" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" t="s">
+        <v>234</v>
+      </c>
+      <c r="H67" t="s">
+        <v>241</v>
+      </c>
+      <c r="I67" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
+        <v>234</v>
+      </c>
+      <c r="H68" t="s">
+        <v>241</v>
+      </c>
+      <c r="I68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" t="s">
+        <v>253</v>
+      </c>
+      <c r="G69" t="s">
+        <v>155</v>
+      </c>
+      <c r="H69" t="s">
+        <v>242</v>
+      </c>
+      <c r="I69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>280</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" t="s">
+        <v>255</v>
+      </c>
+      <c r="G70" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" t="s">
+        <v>242</v>
+      </c>
+      <c r="I70" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" t="s">
+        <v>155</v>
+      </c>
+      <c r="H71" t="s">
+        <v>242</v>
+      </c>
+      <c r="I71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" t="s">
+        <v>242</v>
+      </c>
+      <c r="I72" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" t="s">
+        <v>182</v>
+      </c>
+      <c r="G73" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" t="s">
+        <v>242</v>
+      </c>
+      <c r="I73" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" t="s">
+        <v>129</v>
+      </c>
+      <c r="G74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H74" t="s">
+        <v>242</v>
+      </c>
+      <c r="I74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H75" t="s">
+        <v>242</v>
+      </c>
+      <c r="I75" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" t="s">
+        <v>234</v>
+      </c>
+      <c r="H76" t="s">
+        <v>241</v>
+      </c>
+      <c r="I76" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>234</v>
+      </c>
+      <c r="H77" t="s">
+        <v>241</v>
+      </c>
+      <c r="I77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>281</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>234</v>
+      </c>
+      <c r="H78" t="s">
+        <v>241</v>
+      </c>
+      <c r="I78" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" t="s">
+        <v>111</v>
+      </c>
+      <c r="F79" t="s">
+        <v>112</v>
+      </c>
+      <c r="G79" t="s">
+        <v>234</v>
+      </c>
+      <c r="H79" t="s">
+        <v>241</v>
+      </c>
+      <c r="I79" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" t="s">
+        <v>254</v>
+      </c>
+      <c r="G80" t="s">
+        <v>234</v>
+      </c>
+      <c r="H80" t="s">
+        <v>241</v>
+      </c>
+      <c r="I80" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>234</v>
+      </c>
+      <c r="H81" t="s">
+        <v>241</v>
+      </c>
+      <c r="I81" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" t="s">
+        <v>281</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
+        <v>234</v>
+      </c>
+      <c r="H82" t="s">
+        <v>241</v>
+      </c>
+      <c r="I82" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" t="s">
+        <v>118</v>
+      </c>
+      <c r="F83" t="s">
+        <v>253</v>
+      </c>
+      <c r="G83" t="s">
+        <v>155</v>
+      </c>
+      <c r="H83" t="s">
+        <v>242</v>
+      </c>
+      <c r="I83" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" t="s">
+        <v>281</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" t="s">
+        <v>255</v>
+      </c>
+      <c r="G84" t="s">
+        <v>155</v>
+      </c>
+      <c r="H84" t="s">
+        <v>242</v>
+      </c>
+      <c r="I84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85" t="s">
+        <v>123</v>
+      </c>
+      <c r="G85" t="s">
+        <v>155</v>
+      </c>
+      <c r="H85" t="s">
+        <v>242</v>
+      </c>
+      <c r="I85" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" t="s">
+        <v>155</v>
+      </c>
+      <c r="H86" t="s">
+        <v>242</v>
+      </c>
+      <c r="I86" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" t="s">
+        <v>182</v>
+      </c>
+      <c r="G87" t="s">
+        <v>155</v>
+      </c>
+      <c r="H87" t="s">
+        <v>242</v>
+      </c>
+      <c r="I87" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
+        <v>281</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" t="s">
+        <v>128</v>
+      </c>
+      <c r="F88" t="s">
+        <v>129</v>
+      </c>
+      <c r="G88" t="s">
+        <v>155</v>
+      </c>
+      <c r="H88" t="s">
+        <v>242</v>
+      </c>
+      <c r="I88" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" t="s">
+        <v>281</v>
+      </c>
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" t="s">
+        <v>155</v>
+      </c>
+      <c r="H89" t="s">
+        <v>242</v>
+      </c>
+      <c r="I89" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" t="s">
+        <v>233</v>
+      </c>
+      <c r="H90" t="s">
+        <v>243</v>
+      </c>
+      <c r="I90" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" t="s">
+        <v>282</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>233</v>
+      </c>
+      <c r="H91" t="s">
+        <v>243</v>
+      </c>
+      <c r="I91" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" t="s">
+        <v>100</v>
+      </c>
+      <c r="F92" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" t="s">
+        <v>233</v>
+      </c>
+      <c r="H92" t="s">
+        <v>243</v>
+      </c>
+      <c r="I92" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>233</v>
+      </c>
+      <c r="H93" t="s">
+        <v>243</v>
+      </c>
+      <c r="I93" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" t="s">
+        <v>233</v>
+      </c>
+      <c r="H94" t="s">
+        <v>243</v>
+      </c>
+      <c r="I94" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" t="s">
+        <v>92</v>
+      </c>
+      <c r="G95" t="s">
+        <v>233</v>
+      </c>
+      <c r="H95" t="s">
+        <v>243</v>
+      </c>
+      <c r="I95" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" t="s">
+        <v>97</v>
+      </c>
+      <c r="G96" t="s">
+        <v>233</v>
+      </c>
+      <c r="H96" t="s">
+        <v>243</v>
+      </c>
+      <c r="I96" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97" t="s">
+        <v>108</v>
+      </c>
+      <c r="G97" t="s">
+        <v>234</v>
+      </c>
+      <c r="H97" t="s">
+        <v>241</v>
+      </c>
+      <c r="I97" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>234</v>
+      </c>
+      <c r="H98" t="s">
+        <v>241</v>
+      </c>
+      <c r="I98" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>234</v>
+      </c>
+      <c r="H99" t="s">
+        <v>241</v>
+      </c>
+      <c r="I99" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" t="s">
+        <v>110</v>
+      </c>
+      <c r="E100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100" t="s">
+        <v>112</v>
+      </c>
+      <c r="G100" t="s">
+        <v>234</v>
+      </c>
+      <c r="H100" t="s">
+        <v>241</v>
+      </c>
+      <c r="I100" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" t="s">
+        <v>65</v>
+      </c>
+      <c r="F101" t="s">
+        <v>254</v>
+      </c>
+      <c r="G101" t="s">
+        <v>234</v>
+      </c>
+      <c r="H101" t="s">
+        <v>241</v>
+      </c>
+      <c r="I101" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" t="s">
+        <v>104</v>
+      </c>
+      <c r="G102" t="s">
+        <v>234</v>
+      </c>
+      <c r="H102" t="s">
+        <v>241</v>
+      </c>
+      <c r="I102" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s">
+        <v>234</v>
+      </c>
+      <c r="H103" t="s">
+        <v>241</v>
+      </c>
+      <c r="I103" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>71</v>
+      </c>
+      <c r="B104" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>61</v>
+      </c>
+      <c r="E104" t="s">
+        <v>62</v>
+      </c>
+      <c r="F104" t="s">
+        <v>98</v>
+      </c>
+      <c r="G104" t="s">
+        <v>233</v>
+      </c>
+      <c r="H104" t="s">
+        <v>243</v>
+      </c>
+      <c r="I104" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>233</v>
+      </c>
+      <c r="H105" t="s">
+        <v>243</v>
+      </c>
+      <c r="I105" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" t="s">
+        <v>100</v>
+      </c>
+      <c r="F106" t="s">
+        <v>101</v>
+      </c>
+      <c r="G106" t="s">
+        <v>233</v>
+      </c>
+      <c r="H106" t="s">
+        <v>243</v>
+      </c>
+      <c r="I106" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>233</v>
+      </c>
+      <c r="H107" t="s">
+        <v>243</v>
+      </c>
+      <c r="I107" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" t="s">
+        <v>95</v>
+      </c>
+      <c r="G108" t="s">
+        <v>233</v>
+      </c>
+      <c r="H108" t="s">
+        <v>243</v>
+      </c>
+      <c r="I108" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" t="s">
+        <v>68</v>
+      </c>
+      <c r="E109" t="s">
+        <v>69</v>
+      </c>
+      <c r="F109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G109" t="s">
+        <v>233</v>
+      </c>
+      <c r="H109" t="s">
+        <v>243</v>
+      </c>
+      <c r="I109" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B110" t="s">
+        <v>283</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" t="s">
+        <v>55</v>
+      </c>
+      <c r="F110" t="s">
+        <v>97</v>
+      </c>
+      <c r="G110" t="s">
+        <v>233</v>
+      </c>
+      <c r="H110" t="s">
+        <v>243</v>
+      </c>
+      <c r="I110" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>71</v>
+      </c>
+      <c r="B111" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>106</v>
+      </c>
+      <c r="E111" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" t="s">
+        <v>108</v>
+      </c>
+      <c r="G111" t="s">
+        <v>234</v>
+      </c>
+      <c r="H111" t="s">
+        <v>241</v>
+      </c>
+      <c r="I111" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112" t="s">
+        <v>283</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>234</v>
+      </c>
+      <c r="H112" t="s">
+        <v>241</v>
+      </c>
+      <c r="I112" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>71</v>
+      </c>
+      <c r="B113" t="s">
+        <v>283</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>234</v>
+      </c>
+      <c r="H113" t="s">
+        <v>241</v>
+      </c>
+      <c r="I113" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" t="s">
+        <v>283</v>
+      </c>
+      <c r="C114" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114" t="s">
+        <v>110</v>
+      </c>
+      <c r="E114" t="s">
+        <v>111</v>
+      </c>
+      <c r="F114" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" t="s">
+        <v>234</v>
+      </c>
+      <c r="H114" t="s">
+        <v>241</v>
+      </c>
+      <c r="I114" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>71</v>
+      </c>
+      <c r="B115" t="s">
+        <v>283</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" t="s">
+        <v>65</v>
+      </c>
+      <c r="F115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G115" t="s">
+        <v>234</v>
+      </c>
+      <c r="H115" t="s">
+        <v>241</v>
+      </c>
+      <c r="I115" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>102</v>
+      </c>
+      <c r="E116" t="s">
+        <v>103</v>
+      </c>
+      <c r="F116" t="s">
+        <v>104</v>
+      </c>
+      <c r="G116" t="s">
+        <v>234</v>
+      </c>
+      <c r="H116" t="s">
+        <v>241</v>
+      </c>
+      <c r="I116" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" t="s">
+        <v>234</v>
+      </c>
+      <c r="H117" t="s">
+        <v>241</v>
+      </c>
+      <c r="I117" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>71</v>
+      </c>
+      <c r="B118" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" t="s">
+        <v>59</v>
+      </c>
+      <c r="F118" t="s">
+        <v>88</v>
+      </c>
+      <c r="G118" t="s">
+        <v>138</v>
+      </c>
+      <c r="H118" t="s">
+        <v>244</v>
+      </c>
+      <c r="I118" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>71</v>
+      </c>
+      <c r="B119" t="s">
+        <v>297</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" t="s">
+        <v>79</v>
+      </c>
+      <c r="F119" t="s">
+        <v>256</v>
+      </c>
+      <c r="G119" t="s">
+        <v>138</v>
+      </c>
+      <c r="H119" t="s">
+        <v>244</v>
+      </c>
+      <c r="I119" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120" t="s">
+        <v>297</v>
+      </c>
+      <c r="C120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" t="s">
+        <v>75</v>
+      </c>
+      <c r="E120" t="s">
+        <v>76</v>
+      </c>
+      <c r="F120" t="s">
+        <v>257</v>
+      </c>
+      <c r="G120" t="s">
+        <v>138</v>
+      </c>
+      <c r="H120" t="s">
+        <v>244</v>
+      </c>
+      <c r="I120" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>71</v>
+      </c>
+      <c r="B121" t="s">
+        <v>297</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>89</v>
+      </c>
+      <c r="E121" t="s">
+        <v>90</v>
+      </c>
+      <c r="F121" t="s">
+        <v>91</v>
+      </c>
+      <c r="G121" t="s">
+        <v>138</v>
+      </c>
+      <c r="H121" t="s">
+        <v>244</v>
+      </c>
+      <c r="I121" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>71</v>
+      </c>
+      <c r="B122" t="s">
+        <v>297</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>81</v>
+      </c>
+      <c r="E122" t="s">
+        <v>82</v>
+      </c>
+      <c r="F122" t="s">
+        <v>258</v>
+      </c>
+      <c r="G122" t="s">
+        <v>138</v>
+      </c>
+      <c r="H122" t="s">
+        <v>244</v>
+      </c>
+      <c r="I122" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>71</v>
+      </c>
+      <c r="B123" t="s">
+        <v>297</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>72</v>
+      </c>
+      <c r="E123" t="s">
+        <v>73</v>
+      </c>
+      <c r="F123" t="s">
+        <v>74</v>
+      </c>
+      <c r="G123" t="s">
+        <v>138</v>
+      </c>
+      <c r="H123" t="s">
+        <v>244</v>
+      </c>
+      <c r="I123" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>71</v>
+      </c>
+      <c r="B124" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124" t="s">
+        <v>84</v>
+      </c>
+      <c r="D124" t="s">
+        <v>85</v>
+      </c>
+      <c r="E124" t="s">
+        <v>86</v>
+      </c>
+      <c r="F124" t="s">
+        <v>259</v>
+      </c>
+      <c r="G124" t="s">
+        <v>138</v>
+      </c>
+      <c r="H124" t="s">
+        <v>244</v>
+      </c>
+      <c r="I124" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>71</v>
+      </c>
+      <c r="B125" t="s">
+        <v>297</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>61</v>
+      </c>
+      <c r="E125" t="s">
+        <v>62</v>
+      </c>
+      <c r="F125" t="s">
+        <v>98</v>
+      </c>
+      <c r="G125" t="s">
+        <v>233</v>
+      </c>
+      <c r="H125" t="s">
+        <v>243</v>
+      </c>
+      <c r="I125" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>71</v>
+      </c>
+      <c r="B126" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>233</v>
+      </c>
+      <c r="H126" t="s">
+        <v>243</v>
+      </c>
+      <c r="I126" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>71</v>
+      </c>
+      <c r="B127" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127" t="s">
+        <v>100</v>
+      </c>
+      <c r="F127" t="s">
+        <v>101</v>
+      </c>
+      <c r="G127" t="s">
+        <v>233</v>
+      </c>
+      <c r="H127" t="s">
+        <v>243</v>
+      </c>
+      <c r="I127" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>71</v>
+      </c>
+      <c r="B128" t="s">
+        <v>297</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>233</v>
+      </c>
+      <c r="H128" t="s">
+        <v>243</v>
+      </c>
+      <c r="I128" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>93</v>
+      </c>
+      <c r="E129" t="s">
+        <v>94</v>
+      </c>
+      <c r="F129" t="s">
+        <v>95</v>
+      </c>
+      <c r="G129" t="s">
+        <v>233</v>
+      </c>
+      <c r="H129" t="s">
+        <v>243</v>
+      </c>
+      <c r="I129" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" t="s">
+        <v>297</v>
+      </c>
+      <c r="C130" t="s">
+        <v>67</v>
+      </c>
+      <c r="D130" t="s">
+        <v>68</v>
+      </c>
+      <c r="E130" t="s">
+        <v>69</v>
+      </c>
+      <c r="F130" t="s">
+        <v>92</v>
+      </c>
+      <c r="G130" t="s">
+        <v>233</v>
+      </c>
+      <c r="H130" t="s">
+        <v>243</v>
+      </c>
+      <c r="I130" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" t="s">
+        <v>297</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>96</v>
+      </c>
+      <c r="E131" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" t="s">
+        <v>97</v>
+      </c>
+      <c r="G131" t="s">
+        <v>233</v>
+      </c>
+      <c r="H131" t="s">
+        <v>243</v>
+      </c>
+      <c r="I131" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>71</v>
+      </c>
+      <c r="B132" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" t="s">
+        <v>59</v>
+      </c>
+      <c r="F132" t="s">
+        <v>88</v>
+      </c>
+      <c r="G132" t="s">
+        <v>138</v>
+      </c>
+      <c r="H132" t="s">
+        <v>244</v>
+      </c>
+      <c r="I132" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>71</v>
+      </c>
+      <c r="B133" t="s">
+        <v>235</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" t="s">
+        <v>79</v>
+      </c>
+      <c r="F133" t="s">
+        <v>256</v>
+      </c>
+      <c r="G133" t="s">
+        <v>138</v>
+      </c>
+      <c r="H133" t="s">
+        <v>244</v>
+      </c>
+      <c r="I133" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>71</v>
+      </c>
+      <c r="B134" t="s">
+        <v>235</v>
+      </c>
+      <c r="C134" t="s">
+        <v>57</v>
+      </c>
+      <c r="D134" t="s">
+        <v>75</v>
+      </c>
+      <c r="E134" t="s">
+        <v>76</v>
+      </c>
+      <c r="F134" t="s">
+        <v>257</v>
+      </c>
+      <c r="G134" t="s">
+        <v>138</v>
+      </c>
+      <c r="H134" t="s">
+        <v>244</v>
+      </c>
+      <c r="I134" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>71</v>
+      </c>
+      <c r="B135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>89</v>
+      </c>
+      <c r="E135" t="s">
+        <v>90</v>
+      </c>
+      <c r="F135" t="s">
+        <v>91</v>
+      </c>
+      <c r="G135" t="s">
+        <v>138</v>
+      </c>
+      <c r="H135" t="s">
+        <v>244</v>
+      </c>
+      <c r="I135" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>71</v>
+      </c>
+      <c r="B136" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>81</v>
+      </c>
+      <c r="E136" t="s">
+        <v>82</v>
+      </c>
+      <c r="F136" t="s">
+        <v>258</v>
+      </c>
+      <c r="G136" t="s">
+        <v>138</v>
+      </c>
+      <c r="H136" t="s">
+        <v>244</v>
+      </c>
+      <c r="I136" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>71</v>
+      </c>
+      <c r="B137" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>72</v>
+      </c>
+      <c r="E137" t="s">
+        <v>73</v>
+      </c>
+      <c r="F137" t="s">
+        <v>74</v>
+      </c>
+      <c r="G137" t="s">
+        <v>138</v>
+      </c>
+      <c r="H137" t="s">
+        <v>244</v>
+      </c>
+      <c r="I137" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>71</v>
+      </c>
+      <c r="B138" t="s">
+        <v>235</v>
+      </c>
+      <c r="C138" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" t="s">
+        <v>85</v>
+      </c>
+      <c r="E138" t="s">
+        <v>86</v>
+      </c>
+      <c r="F138" t="s">
+        <v>259</v>
+      </c>
+      <c r="G138" t="s">
+        <v>138</v>
+      </c>
+      <c r="H138" t="s">
+        <v>244</v>
+      </c>
+      <c r="I138" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>71</v>
+      </c>
+      <c r="B139" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>117</v>
+      </c>
+      <c r="E139" t="s">
+        <v>118</v>
+      </c>
+      <c r="F139" t="s">
+        <v>253</v>
+      </c>
+      <c r="G139" t="s">
+        <v>155</v>
+      </c>
+      <c r="H139" t="s">
+        <v>242</v>
+      </c>
+      <c r="I139" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>71</v>
+      </c>
+      <c r="B140" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" t="s">
+        <v>125</v>
+      </c>
+      <c r="F140" t="s">
+        <v>255</v>
+      </c>
+      <c r="G140" t="s">
+        <v>155</v>
+      </c>
+      <c r="H140" t="s">
+        <v>242</v>
+      </c>
+      <c r="I140" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>71</v>
+      </c>
+      <c r="B141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" t="s">
+        <v>120</v>
+      </c>
+      <c r="D141" t="s">
+        <v>121</v>
+      </c>
+      <c r="E141" t="s">
+        <v>122</v>
+      </c>
+      <c r="F141" t="s">
+        <v>123</v>
+      </c>
+      <c r="G141" t="s">
+        <v>155</v>
+      </c>
+      <c r="H141" t="s">
+        <v>242</v>
+      </c>
+      <c r="I141" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>71</v>
+      </c>
+      <c r="B142" t="s">
+        <v>235</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>40</v>
+      </c>
+      <c r="E142" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" t="s">
+        <v>155</v>
+      </c>
+      <c r="H142" t="s">
+        <v>242</v>
+      </c>
+      <c r="I142" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>71</v>
+      </c>
+      <c r="B143" t="s">
+        <v>235</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" t="s">
+        <v>47</v>
+      </c>
+      <c r="F143" t="s">
+        <v>182</v>
+      </c>
+      <c r="G143" t="s">
+        <v>155</v>
+      </c>
+      <c r="H143" t="s">
+        <v>242</v>
+      </c>
+      <c r="I143" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>71</v>
+      </c>
+      <c r="B144" t="s">
+        <v>235</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>127</v>
+      </c>
+      <c r="E144" t="s">
+        <v>128</v>
+      </c>
+      <c r="F144" t="s">
+        <v>129</v>
+      </c>
+      <c r="G144" t="s">
+        <v>155</v>
+      </c>
+      <c r="H144" t="s">
+        <v>242</v>
+      </c>
+      <c r="I144" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>71</v>
+      </c>
+      <c r="B145" t="s">
+        <v>235</v>
+      </c>
+      <c r="C145" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145" t="s">
+        <v>131</v>
+      </c>
+      <c r="F145" t="s">
+        <v>132</v>
+      </c>
+      <c r="G145" t="s">
+        <v>155</v>
+      </c>
+      <c r="H145" t="s">
+        <v>242</v>
+      </c>
+      <c r="I145" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>224</v>
+      </c>
+      <c r="B146" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>151</v>
+      </c>
+      <c r="E146" t="s">
+        <v>118</v>
+      </c>
+      <c r="F146" t="s">
+        <v>253</v>
+      </c>
+      <c r="G146" t="s">
+        <v>138</v>
+      </c>
+      <c r="H146" t="s">
+        <v>245</v>
+      </c>
+      <c r="I146" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>224</v>
+      </c>
+      <c r="B147" t="s">
+        <v>284</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>139</v>
+      </c>
+      <c r="E147" t="s">
+        <v>140</v>
+      </c>
+      <c r="F147" t="s">
+        <v>141</v>
+      </c>
+      <c r="G147" t="s">
+        <v>138</v>
+      </c>
+      <c r="H147" t="s">
+        <v>245</v>
+      </c>
+      <c r="I147" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>224</v>
+      </c>
+      <c r="B148" t="s">
+        <v>284</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>40</v>
+      </c>
+      <c r="E148" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" t="s">
+        <v>42</v>
+      </c>
+      <c r="G148" t="s">
+        <v>138</v>
+      </c>
+      <c r="H148" t="s">
+        <v>245</v>
+      </c>
+      <c r="I148" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>224</v>
+      </c>
+      <c r="B149" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" t="s">
+        <v>50</v>
+      </c>
+      <c r="E149" t="s">
+        <v>51</v>
+      </c>
+      <c r="F149" t="s">
+        <v>274</v>
+      </c>
+      <c r="G149" t="s">
+        <v>138</v>
+      </c>
+      <c r="H149" t="s">
+        <v>245</v>
+      </c>
+      <c r="I149" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>224</v>
+      </c>
+      <c r="B150" t="s">
+        <v>284</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>152</v>
+      </c>
+      <c r="E150" t="s">
+        <v>153</v>
+      </c>
+      <c r="F150" t="s">
+        <v>260</v>
+      </c>
+      <c r="G150" t="s">
+        <v>138</v>
+      </c>
+      <c r="H150" t="s">
+        <v>245</v>
+      </c>
+      <c r="I150" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>224</v>
+      </c>
+      <c r="B151" t="s">
+        <v>284</v>
+      </c>
+      <c r="C151" t="s">
+        <v>143</v>
+      </c>
+      <c r="D151" t="s">
+        <v>144</v>
+      </c>
+      <c r="E151" t="s">
+        <v>145</v>
+      </c>
+      <c r="F151" t="s">
+        <v>146</v>
+      </c>
+      <c r="G151" t="s">
+        <v>138</v>
+      </c>
+      <c r="H151" t="s">
+        <v>245</v>
+      </c>
+      <c r="I151" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>224</v>
+      </c>
+      <c r="B152" t="s">
+        <v>284</v>
+      </c>
+      <c r="C152" t="s">
+        <v>147</v>
+      </c>
+      <c r="D152" t="s">
+        <v>148</v>
+      </c>
+      <c r="E152" t="s">
+        <v>149</v>
+      </c>
+      <c r="F152" t="s">
+        <v>150</v>
+      </c>
+      <c r="G152" t="s">
+        <v>138</v>
+      </c>
+      <c r="H152" t="s">
+        <v>245</v>
+      </c>
+      <c r="I152" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" t="s">
+        <v>134</v>
+      </c>
+      <c r="D153" t="s">
+        <v>135</v>
+      </c>
+      <c r="E153" t="s">
+        <v>136</v>
+      </c>
+      <c r="F153" t="s">
+        <v>137</v>
+      </c>
+      <c r="G153" t="s">
+        <v>138</v>
+      </c>
+      <c r="H153" t="s">
+        <v>245</v>
+      </c>
+      <c r="I153" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>224</v>
+      </c>
+      <c r="B154" t="s">
+        <v>284</v>
+      </c>
+      <c r="C154" t="s">
+        <v>147</v>
+      </c>
+      <c r="D154" t="s">
+        <v>171</v>
+      </c>
+      <c r="E154" t="s">
+        <v>172</v>
+      </c>
+      <c r="F154" t="s">
+        <v>173</v>
+      </c>
+      <c r="G154" t="s">
+        <v>155</v>
+      </c>
+      <c r="H154" t="s">
+        <v>246</v>
+      </c>
+      <c r="I154" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>224</v>
+      </c>
+      <c r="B155" t="s">
+        <v>284</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>165</v>
+      </c>
+      <c r="E155" t="s">
+        <v>166</v>
+      </c>
+      <c r="F155" t="s">
+        <v>261</v>
+      </c>
+      <c r="G155" t="s">
+        <v>155</v>
+      </c>
+      <c r="H155" t="s">
+        <v>246</v>
+      </c>
+      <c r="I155" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>224</v>
+      </c>
+      <c r="B156" t="s">
+        <v>284</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>174</v>
+      </c>
+      <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
+        <v>176</v>
+      </c>
+      <c r="G156" t="s">
+        <v>155</v>
+      </c>
+      <c r="H156" t="s">
+        <v>246</v>
+      </c>
+      <c r="I156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>224</v>
+      </c>
+      <c r="B157" t="s">
+        <v>284</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>43</v>
+      </c>
+      <c r="E157" t="s">
+        <v>44</v>
+      </c>
+      <c r="F157" t="s">
+        <v>268</v>
+      </c>
+      <c r="G157" t="s">
+        <v>155</v>
+      </c>
+      <c r="H157" t="s">
+        <v>246</v>
+      </c>
+      <c r="I157" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>224</v>
+      </c>
+      <c r="B158" t="s">
+        <v>284</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>162</v>
+      </c>
+      <c r="E158" t="s">
+        <v>163</v>
+      </c>
+      <c r="F158" t="s">
+        <v>164</v>
+      </c>
+      <c r="G158" t="s">
+        <v>155</v>
+      </c>
+      <c r="H158" t="s">
+        <v>246</v>
+      </c>
+      <c r="I158" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>224</v>
+      </c>
+      <c r="B159" t="s">
+        <v>284</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>168</v>
+      </c>
+      <c r="E159" t="s">
+        <v>169</v>
+      </c>
+      <c r="F159" t="s">
+        <v>170</v>
+      </c>
+      <c r="G159" t="s">
+        <v>155</v>
+      </c>
+      <c r="H159" t="s">
+        <v>246</v>
+      </c>
+      <c r="I159" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>224</v>
+      </c>
+      <c r="B160" t="s">
+        <v>284</v>
+      </c>
+      <c r="C160" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" t="s">
+        <v>159</v>
+      </c>
+      <c r="E160" t="s">
+        <v>160</v>
+      </c>
+      <c r="F160" t="s">
+        <v>161</v>
+      </c>
+      <c r="G160" t="s">
+        <v>155</v>
+      </c>
+      <c r="H160" t="s">
+        <v>246</v>
+      </c>
+      <c r="I160" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>224</v>
+      </c>
+      <c r="B161" t="s">
+        <v>284</v>
+      </c>
+      <c r="C161" t="s">
+        <v>84</v>
+      </c>
+      <c r="D161" t="s">
+        <v>156</v>
+      </c>
+      <c r="E161" t="s">
+        <v>157</v>
+      </c>
+      <c r="F161" t="s">
+        <v>158</v>
+      </c>
+      <c r="G161" t="s">
+        <v>155</v>
+      </c>
+      <c r="H161" t="s">
+        <v>246</v>
+      </c>
+      <c r="I161" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>224</v>
+      </c>
+      <c r="B162" t="s">
+        <v>285</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>151</v>
+      </c>
+      <c r="E162" t="s">
+        <v>118</v>
+      </c>
+      <c r="F162" t="s">
+        <v>253</v>
+      </c>
+      <c r="G162" t="s">
+        <v>138</v>
+      </c>
+      <c r="H162" t="s">
+        <v>245</v>
+      </c>
+      <c r="I162" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>224</v>
+      </c>
+      <c r="B163" t="s">
+        <v>285</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>139</v>
+      </c>
+      <c r="E163" t="s">
+        <v>140</v>
+      </c>
+      <c r="F163" t="s">
+        <v>141</v>
+      </c>
+      <c r="G163" t="s">
+        <v>138</v>
+      </c>
+      <c r="H163" t="s">
+        <v>245</v>
+      </c>
+      <c r="I163" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>224</v>
+      </c>
+      <c r="B164" t="s">
+        <v>285</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s">
+        <v>40</v>
+      </c>
+      <c r="E164" t="s">
+        <v>41</v>
+      </c>
+      <c r="F164" t="s">
+        <v>42</v>
+      </c>
+      <c r="G164" t="s">
+        <v>138</v>
+      </c>
+      <c r="H164" t="s">
+        <v>245</v>
+      </c>
+      <c r="I164" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>224</v>
+      </c>
+      <c r="B165" t="s">
+        <v>285</v>
+      </c>
+      <c r="C165" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165" t="s">
+        <v>50</v>
+      </c>
+      <c r="E165" t="s">
+        <v>51</v>
+      </c>
+      <c r="F165" t="s">
+        <v>274</v>
+      </c>
+      <c r="G165" t="s">
+        <v>138</v>
+      </c>
+      <c r="H165" t="s">
+        <v>245</v>
+      </c>
+      <c r="I165" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" t="s">
+        <v>285</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>152</v>
+      </c>
+      <c r="E166" t="s">
+        <v>153</v>
+      </c>
+      <c r="F166" t="s">
+        <v>260</v>
+      </c>
+      <c r="G166" t="s">
+        <v>138</v>
+      </c>
+      <c r="H166" t="s">
+        <v>245</v>
+      </c>
+      <c r="I166" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>224</v>
+      </c>
+      <c r="B167" t="s">
+        <v>285</v>
+      </c>
+      <c r="C167" t="s">
+        <v>143</v>
+      </c>
+      <c r="D167" t="s">
+        <v>144</v>
+      </c>
+      <c r="E167" t="s">
+        <v>145</v>
+      </c>
+      <c r="F167" t="s">
+        <v>146</v>
+      </c>
+      <c r="G167" t="s">
+        <v>138</v>
+      </c>
+      <c r="H167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I167" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>224</v>
+      </c>
+      <c r="B168" t="s">
+        <v>285</v>
+      </c>
+      <c r="C168" t="s">
+        <v>147</v>
+      </c>
+      <c r="D168" t="s">
+        <v>148</v>
+      </c>
+      <c r="E168" t="s">
+        <v>149</v>
+      </c>
+      <c r="F168" t="s">
+        <v>150</v>
+      </c>
+      <c r="G168" t="s">
+        <v>138</v>
+      </c>
+      <c r="H168" t="s">
+        <v>245</v>
+      </c>
+      <c r="I168" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>224</v>
+      </c>
+      <c r="B169" t="s">
+        <v>285</v>
+      </c>
+      <c r="C169" t="s">
+        <v>134</v>
+      </c>
+      <c r="D169" t="s">
+        <v>135</v>
+      </c>
+      <c r="E169" t="s">
+        <v>136</v>
+      </c>
+      <c r="F169" t="s">
+        <v>137</v>
+      </c>
+      <c r="G169" t="s">
+        <v>138</v>
+      </c>
+      <c r="H169" t="s">
+        <v>245</v>
+      </c>
+      <c r="I169" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>224</v>
+      </c>
+      <c r="B170" t="s">
+        <v>285</v>
+      </c>
+      <c r="C170" t="s">
+        <v>147</v>
+      </c>
+      <c r="D170" t="s">
+        <v>171</v>
+      </c>
+      <c r="E170" t="s">
+        <v>172</v>
+      </c>
+      <c r="F170" t="s">
+        <v>173</v>
+      </c>
+      <c r="G170" t="s">
+        <v>155</v>
+      </c>
+      <c r="H170" t="s">
+        <v>246</v>
+      </c>
+      <c r="I170" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171" t="s">
+        <v>285</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>165</v>
+      </c>
+      <c r="E171" t="s">
+        <v>166</v>
+      </c>
+      <c r="F171" t="s">
+        <v>261</v>
+      </c>
+      <c r="G171" t="s">
+        <v>155</v>
+      </c>
+      <c r="H171" t="s">
+        <v>246</v>
+      </c>
+      <c r="I171" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>224</v>
+      </c>
+      <c r="B172" t="s">
+        <v>285</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" t="s">
+        <v>174</v>
+      </c>
+      <c r="E172" t="s">
+        <v>175</v>
+      </c>
+      <c r="F172" t="s">
+        <v>176</v>
+      </c>
+      <c r="G172" t="s">
+        <v>155</v>
+      </c>
+      <c r="H172" t="s">
+        <v>246</v>
+      </c>
+      <c r="I172" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>224</v>
+      </c>
+      <c r="B173" t="s">
+        <v>285</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>43</v>
+      </c>
+      <c r="E173" t="s">
+        <v>44</v>
+      </c>
+      <c r="F173" t="s">
+        <v>268</v>
+      </c>
+      <c r="G173" t="s">
+        <v>155</v>
+      </c>
+      <c r="H173" t="s">
+        <v>246</v>
+      </c>
+      <c r="I173" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" t="s">
+        <v>285</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>162</v>
+      </c>
+      <c r="E174" t="s">
+        <v>163</v>
+      </c>
+      <c r="F174" t="s">
+        <v>164</v>
+      </c>
+      <c r="G174" t="s">
+        <v>155</v>
+      </c>
+      <c r="H174" t="s">
+        <v>246</v>
+      </c>
+      <c r="I174" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>224</v>
+      </c>
+      <c r="B175" t="s">
+        <v>285</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>168</v>
+      </c>
+      <c r="E175" t="s">
+        <v>169</v>
+      </c>
+      <c r="F175" t="s">
+        <v>170</v>
+      </c>
+      <c r="G175" t="s">
+        <v>155</v>
+      </c>
+      <c r="H175" t="s">
+        <v>246</v>
+      </c>
+      <c r="I175" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>224</v>
+      </c>
+      <c r="B176" t="s">
+        <v>285</v>
+      </c>
+      <c r="C176" t="s">
+        <v>49</v>
+      </c>
+      <c r="D176" t="s">
+        <v>159</v>
+      </c>
+      <c r="E176" t="s">
+        <v>160</v>
+      </c>
+      <c r="F176" t="s">
+        <v>161</v>
+      </c>
+      <c r="G176" t="s">
+        <v>155</v>
+      </c>
+      <c r="H176" t="s">
+        <v>246</v>
+      </c>
+      <c r="I176" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>224</v>
+      </c>
+      <c r="B177" t="s">
+        <v>285</v>
+      </c>
+      <c r="C177" t="s">
+        <v>84</v>
+      </c>
+      <c r="D177" t="s">
+        <v>156</v>
+      </c>
+      <c r="E177" t="s">
+        <v>157</v>
+      </c>
+      <c r="F177" t="s">
+        <v>158</v>
+      </c>
+      <c r="G177" t="s">
+        <v>155</v>
+      </c>
+      <c r="H177" t="s">
+        <v>246</v>
+      </c>
+      <c r="I177" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>226</v>
+      </c>
+      <c r="B178" t="s">
+        <v>289</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>186</v>
+      </c>
+      <c r="E178" t="s">
+        <v>187</v>
+      </c>
+      <c r="F178" t="s">
+        <v>262</v>
+      </c>
+      <c r="G178" t="s">
+        <v>138</v>
+      </c>
+      <c r="H178" t="s">
+        <v>251</v>
+      </c>
+      <c r="I178" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>226</v>
+      </c>
+      <c r="B179" t="s">
+        <v>289</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>40</v>
+      </c>
+      <c r="E179" t="s">
+        <v>41</v>
+      </c>
+      <c r="F179" t="s">
+        <v>42</v>
+      </c>
+      <c r="G179" t="s">
+        <v>138</v>
+      </c>
+      <c r="H179" t="s">
+        <v>251</v>
+      </c>
+      <c r="I179" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>226</v>
+      </c>
+      <c r="B180" t="s">
+        <v>289</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>189</v>
+      </c>
+      <c r="E180" t="s">
+        <v>190</v>
+      </c>
+      <c r="F180" t="s">
+        <v>307</v>
+      </c>
+      <c r="G180" t="s">
+        <v>138</v>
+      </c>
+      <c r="H180" t="s">
+        <v>251</v>
+      </c>
+      <c r="I180" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>226</v>
+      </c>
+      <c r="B181" t="s">
+        <v>289</v>
+      </c>
+      <c r="C181" t="s">
+        <v>57</v>
+      </c>
+      <c r="D181" t="s">
+        <v>192</v>
+      </c>
+      <c r="E181" t="s">
+        <v>193</v>
+      </c>
+      <c r="F181" t="s">
+        <v>194</v>
+      </c>
+      <c r="G181" t="s">
+        <v>138</v>
+      </c>
+      <c r="H181" t="s">
+        <v>251</v>
+      </c>
+      <c r="I181" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>226</v>
+      </c>
+      <c r="B182" t="s">
+        <v>289</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>195</v>
+      </c>
+      <c r="E182" t="s">
+        <v>196</v>
+      </c>
+      <c r="F182" t="s">
+        <v>263</v>
+      </c>
+      <c r="G182" t="s">
+        <v>138</v>
+      </c>
+      <c r="H182" t="s">
+        <v>251</v>
+      </c>
+      <c r="I182" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>226</v>
+      </c>
+      <c r="B183" t="s">
+        <v>289</v>
+      </c>
+      <c r="C183" t="s">
+        <v>198</v>
+      </c>
+      <c r="D183" t="s">
+        <v>199</v>
+      </c>
+      <c r="E183" t="s">
+        <v>200</v>
+      </c>
+      <c r="F183" t="s">
+        <v>264</v>
+      </c>
+      <c r="G183" t="s">
+        <v>138</v>
+      </c>
+      <c r="H183" t="s">
+        <v>251</v>
+      </c>
+      <c r="I183" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>226</v>
+      </c>
+      <c r="B184" t="s">
+        <v>289</v>
+      </c>
+      <c r="C184" t="s">
+        <v>84</v>
+      </c>
+      <c r="D184" t="s">
+        <v>156</v>
+      </c>
+      <c r="E184" t="s">
+        <v>157</v>
+      </c>
+      <c r="F184" t="s">
+        <v>158</v>
+      </c>
+      <c r="G184" t="s">
+        <v>138</v>
+      </c>
+      <c r="H184" t="s">
+        <v>251</v>
+      </c>
+      <c r="I184" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>226</v>
+      </c>
+      <c r="B185" t="s">
+        <v>289</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185" t="s">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>138</v>
+      </c>
+      <c r="H185" t="s">
+        <v>251</v>
+      </c>
+      <c r="I185" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>226</v>
+      </c>
+      <c r="B186" t="s">
+        <v>289</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>124</v>
+      </c>
+      <c r="E186" t="s">
+        <v>125</v>
+      </c>
+      <c r="F186" t="s">
+        <v>255</v>
+      </c>
+      <c r="G186" t="s">
+        <v>155</v>
+      </c>
+      <c r="H186" t="s">
+        <v>252</v>
+      </c>
+      <c r="I186" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>226</v>
+      </c>
+      <c r="B187" t="s">
+        <v>289</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>212</v>
+      </c>
+      <c r="E187" t="s">
+        <v>213</v>
+      </c>
+      <c r="F187" t="s">
+        <v>265</v>
+      </c>
+      <c r="G187" t="s">
+        <v>155</v>
+      </c>
+      <c r="H187" t="s">
+        <v>252</v>
+      </c>
+      <c r="I187" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>226</v>
+      </c>
+      <c r="B188" t="s">
+        <v>289</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>215</v>
+      </c>
+      <c r="E188" t="s">
+        <v>216</v>
+      </c>
+      <c r="F188" t="s">
+        <v>108</v>
+      </c>
+      <c r="G188" t="s">
+        <v>155</v>
+      </c>
+      <c r="H188" t="s">
+        <v>252</v>
+      </c>
+      <c r="I188" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>226</v>
+      </c>
+      <c r="B189" t="s">
+        <v>289</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>46</v>
+      </c>
+      <c r="E189" t="s">
+        <v>47</v>
+      </c>
+      <c r="F189" t="s">
+        <v>182</v>
+      </c>
+      <c r="G189" t="s">
+        <v>155</v>
+      </c>
+      <c r="H189" t="s">
+        <v>252</v>
+      </c>
+      <c r="I189" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>226</v>
+      </c>
+      <c r="B190" t="s">
+        <v>289</v>
+      </c>
+      <c r="C190" t="s">
+        <v>57</v>
+      </c>
+      <c r="D190" t="s">
+        <v>205</v>
+      </c>
+      <c r="E190" t="s">
+        <v>206</v>
+      </c>
+      <c r="F190" t="s">
+        <v>266</v>
+      </c>
+      <c r="G190" t="s">
+        <v>155</v>
+      </c>
+      <c r="H190" t="s">
+        <v>252</v>
+      </c>
+      <c r="I190" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>226</v>
+      </c>
+      <c r="B191" t="s">
+        <v>289</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>168</v>
+      </c>
+      <c r="E191" t="s">
+        <v>169</v>
+      </c>
+      <c r="F191" t="s">
+        <v>170</v>
+      </c>
+      <c r="G191" t="s">
+        <v>155</v>
+      </c>
+      <c r="H191" t="s">
+        <v>252</v>
+      </c>
+      <c r="I191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>226</v>
+      </c>
+      <c r="B192" t="s">
+        <v>289</v>
+      </c>
+      <c r="C192" t="s">
+        <v>109</v>
+      </c>
+      <c r="D192" t="s">
+        <v>208</v>
+      </c>
+      <c r="E192" t="s">
+        <v>209</v>
+      </c>
+      <c r="F192" t="s">
+        <v>267</v>
+      </c>
+      <c r="G192" t="s">
+        <v>155</v>
+      </c>
+      <c r="H192" t="s">
+        <v>252</v>
+      </c>
+      <c r="I192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>226</v>
+      </c>
+      <c r="B193" t="s">
+        <v>289</v>
+      </c>
+      <c r="C193" t="s">
+        <v>57</v>
+      </c>
+      <c r="D193" t="s">
+        <v>130</v>
+      </c>
+      <c r="E193" t="s">
+        <v>131</v>
+      </c>
+      <c r="F193" t="s">
+        <v>132</v>
+      </c>
+      <c r="G193" t="s">
+        <v>155</v>
+      </c>
+      <c r="H193" t="s">
+        <v>252</v>
+      </c>
+      <c r="I193" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>226</v>
+      </c>
+      <c r="B194" t="s">
+        <v>286</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>186</v>
+      </c>
+      <c r="E194" t="s">
+        <v>187</v>
+      </c>
+      <c r="F194" t="s">
+        <v>262</v>
+      </c>
+      <c r="G194" t="s">
+        <v>138</v>
+      </c>
+      <c r="H194" t="s">
+        <v>251</v>
+      </c>
+      <c r="I194" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>226</v>
+      </c>
+      <c r="B195" t="s">
+        <v>286</v>
+      </c>
+      <c r="C195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>40</v>
+      </c>
+      <c r="E195" t="s">
+        <v>41</v>
+      </c>
+      <c r="F195" t="s">
+        <v>42</v>
+      </c>
+      <c r="G195" t="s">
+        <v>138</v>
+      </c>
+      <c r="H195" t="s">
+        <v>251</v>
+      </c>
+      <c r="I195" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>226</v>
+      </c>
+      <c r="B196" t="s">
+        <v>286</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>189</v>
+      </c>
+      <c r="E196" t="s">
+        <v>190</v>
+      </c>
+      <c r="F196" t="s">
+        <v>307</v>
+      </c>
+      <c r="G196" t="s">
+        <v>138</v>
+      </c>
+      <c r="H196" t="s">
+        <v>251</v>
+      </c>
+      <c r="I196" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>226</v>
+      </c>
+      <c r="B197" t="s">
+        <v>286</v>
+      </c>
+      <c r="C197" t="s">
+        <v>57</v>
+      </c>
+      <c r="D197" t="s">
+        <v>192</v>
+      </c>
+      <c r="E197" t="s">
+        <v>193</v>
+      </c>
+      <c r="F197" t="s">
+        <v>194</v>
+      </c>
+      <c r="G197" t="s">
+        <v>138</v>
+      </c>
+      <c r="H197" t="s">
+        <v>251</v>
+      </c>
+      <c r="I197" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>226</v>
+      </c>
+      <c r="B198" t="s">
+        <v>286</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>195</v>
+      </c>
+      <c r="E198" t="s">
+        <v>196</v>
+      </c>
+      <c r="F198" t="s">
+        <v>263</v>
+      </c>
+      <c r="G198" t="s">
+        <v>138</v>
+      </c>
+      <c r="H198" t="s">
+        <v>251</v>
+      </c>
+      <c r="I198" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>226</v>
+      </c>
+      <c r="B199" t="s">
+        <v>286</v>
+      </c>
+      <c r="C199" t="s">
+        <v>198</v>
+      </c>
+      <c r="D199" t="s">
+        <v>199</v>
+      </c>
+      <c r="E199" t="s">
+        <v>200</v>
+      </c>
+      <c r="F199" t="s">
+        <v>264</v>
+      </c>
+      <c r="G199" t="s">
+        <v>138</v>
+      </c>
+      <c r="H199" t="s">
+        <v>251</v>
+      </c>
+      <c r="I199" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>226</v>
+      </c>
+      <c r="B200" t="s">
+        <v>286</v>
+      </c>
+      <c r="C200" t="s">
+        <v>84</v>
+      </c>
+      <c r="D200" t="s">
+        <v>156</v>
+      </c>
+      <c r="E200" t="s">
+        <v>157</v>
+      </c>
+      <c r="F200" t="s">
+        <v>158</v>
+      </c>
+      <c r="G200" t="s">
+        <v>138</v>
+      </c>
+      <c r="H200" t="s">
+        <v>251</v>
+      </c>
+      <c r="I200" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>226</v>
+      </c>
+      <c r="B201" t="s">
+        <v>286</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" t="s">
+        <v>19</v>
+      </c>
+      <c r="G201" t="s">
+        <v>138</v>
+      </c>
+      <c r="H201" t="s">
+        <v>251</v>
+      </c>
+      <c r="I201" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>226</v>
+      </c>
+      <c r="B202" t="s">
+        <v>286</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>124</v>
+      </c>
+      <c r="E202" t="s">
+        <v>125</v>
+      </c>
+      <c r="F202" t="s">
+        <v>255</v>
+      </c>
+      <c r="G202" t="s">
+        <v>155</v>
+      </c>
+      <c r="H202" t="s">
+        <v>252</v>
+      </c>
+      <c r="I202" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>226</v>
+      </c>
+      <c r="B203" t="s">
+        <v>286</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>212</v>
+      </c>
+      <c r="E203" t="s">
+        <v>213</v>
+      </c>
+      <c r="F203" t="s">
+        <v>265</v>
+      </c>
+      <c r="G203" t="s">
+        <v>155</v>
+      </c>
+      <c r="H203" t="s">
+        <v>252</v>
+      </c>
+      <c r="I203" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>226</v>
+      </c>
+      <c r="B204" t="s">
+        <v>286</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>215</v>
+      </c>
+      <c r="E204" t="s">
+        <v>216</v>
+      </c>
+      <c r="F204" t="s">
+        <v>108</v>
+      </c>
+      <c r="G204" t="s">
+        <v>155</v>
+      </c>
+      <c r="H204" t="s">
+        <v>252</v>
+      </c>
+      <c r="I204" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>226</v>
+      </c>
+      <c r="B205" t="s">
+        <v>286</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>46</v>
+      </c>
+      <c r="E205" t="s">
+        <v>47</v>
+      </c>
+      <c r="F205" t="s">
+        <v>182</v>
+      </c>
+      <c r="G205" t="s">
+        <v>155</v>
+      </c>
+      <c r="H205" t="s">
+        <v>252</v>
+      </c>
+      <c r="I205" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>226</v>
+      </c>
+      <c r="B206" t="s">
+        <v>286</v>
+      </c>
+      <c r="C206" t="s">
+        <v>57</v>
+      </c>
+      <c r="D206" t="s">
+        <v>205</v>
+      </c>
+      <c r="E206" t="s">
+        <v>206</v>
+      </c>
+      <c r="F206" t="s">
+        <v>266</v>
+      </c>
+      <c r="G206" t="s">
+        <v>155</v>
+      </c>
+      <c r="H206" t="s">
+        <v>252</v>
+      </c>
+      <c r="I206" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>226</v>
+      </c>
+      <c r="B207" t="s">
+        <v>286</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" t="s">
+        <v>168</v>
+      </c>
+      <c r="E207" t="s">
+        <v>169</v>
+      </c>
+      <c r="F207" t="s">
+        <v>170</v>
+      </c>
+      <c r="G207" t="s">
+        <v>155</v>
+      </c>
+      <c r="H207" t="s">
+        <v>252</v>
+      </c>
+      <c r="I207" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>226</v>
+      </c>
+      <c r="B208" t="s">
+        <v>286</v>
+      </c>
+      <c r="C208" t="s">
+        <v>109</v>
+      </c>
+      <c r="D208" t="s">
+        <v>208</v>
+      </c>
+      <c r="E208" t="s">
+        <v>209</v>
+      </c>
+      <c r="F208" t="s">
+        <v>267</v>
+      </c>
+      <c r="G208" t="s">
+        <v>155</v>
+      </c>
+      <c r="H208" t="s">
+        <v>252</v>
+      </c>
+      <c r="I208" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>226</v>
+      </c>
+      <c r="B209" t="s">
+        <v>286</v>
+      </c>
+      <c r="C209" t="s">
+        <v>57</v>
+      </c>
+      <c r="D209" t="s">
+        <v>130</v>
+      </c>
+      <c r="E209" t="s">
+        <v>131</v>
+      </c>
+      <c r="F209" t="s">
+        <v>132</v>
+      </c>
+      <c r="G209" t="s">
+        <v>155</v>
+      </c>
+      <c r="H209" t="s">
+        <v>252</v>
+      </c>
+      <c r="I209" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>226</v>
+      </c>
+      <c r="B210" t="s">
+        <v>287</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" t="s">
+        <v>186</v>
+      </c>
+      <c r="E210" t="s">
+        <v>187</v>
+      </c>
+      <c r="F210" t="s">
+        <v>262</v>
+      </c>
+      <c r="G210" t="s">
+        <v>138</v>
+      </c>
+      <c r="H210" t="s">
+        <v>251</v>
+      </c>
+      <c r="I210" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>226</v>
+      </c>
+      <c r="B211" t="s">
+        <v>287</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" t="s">
+        <v>40</v>
+      </c>
+      <c r="E211" t="s">
+        <v>41</v>
+      </c>
+      <c r="F211" t="s">
+        <v>42</v>
+      </c>
+      <c r="G211" t="s">
+        <v>138</v>
+      </c>
+      <c r="H211" t="s">
+        <v>251</v>
+      </c>
+      <c r="I211" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>226</v>
+      </c>
+      <c r="B212" t="s">
+        <v>287</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>189</v>
+      </c>
+      <c r="E212" t="s">
+        <v>190</v>
+      </c>
+      <c r="F212" t="s">
+        <v>307</v>
+      </c>
+      <c r="G212" t="s">
+        <v>138</v>
+      </c>
+      <c r="H212" t="s">
+        <v>251</v>
+      </c>
+      <c r="I212" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>226</v>
+      </c>
+      <c r="B213" t="s">
+        <v>287</v>
+      </c>
+      <c r="C213" t="s">
+        <v>57</v>
+      </c>
+      <c r="D213" t="s">
+        <v>192</v>
+      </c>
+      <c r="E213" t="s">
+        <v>193</v>
+      </c>
+      <c r="F213" t="s">
+        <v>194</v>
+      </c>
+      <c r="G213" t="s">
+        <v>138</v>
+      </c>
+      <c r="H213" t="s">
+        <v>251</v>
+      </c>
+      <c r="I213" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" t="s">
+        <v>287</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>195</v>
+      </c>
+      <c r="E214" t="s">
+        <v>196</v>
+      </c>
+      <c r="F214" t="s">
+        <v>263</v>
+      </c>
+      <c r="G214" t="s">
+        <v>138</v>
+      </c>
+      <c r="H214" t="s">
+        <v>251</v>
+      </c>
+      <c r="I214" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>226</v>
+      </c>
+      <c r="B215" t="s">
+        <v>287</v>
+      </c>
+      <c r="C215" t="s">
+        <v>198</v>
+      </c>
+      <c r="D215" t="s">
+        <v>199</v>
+      </c>
+      <c r="E215" t="s">
+        <v>200</v>
+      </c>
+      <c r="F215" t="s">
+        <v>264</v>
+      </c>
+      <c r="G215" t="s">
+        <v>138</v>
+      </c>
+      <c r="H215" t="s">
+        <v>251</v>
+      </c>
+      <c r="I215" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>226</v>
+      </c>
+      <c r="B216" t="s">
+        <v>287</v>
+      </c>
+      <c r="C216" t="s">
+        <v>84</v>
+      </c>
+      <c r="D216" t="s">
+        <v>156</v>
+      </c>
+      <c r="E216" t="s">
+        <v>157</v>
+      </c>
+      <c r="F216" t="s">
+        <v>158</v>
+      </c>
+      <c r="G216" t="s">
+        <v>138</v>
+      </c>
+      <c r="H216" t="s">
+        <v>251</v>
+      </c>
+      <c r="I216" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>226</v>
+      </c>
+      <c r="B217" t="s">
+        <v>287</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" t="s">
+        <v>18</v>
+      </c>
+      <c r="F217" t="s">
+        <v>19</v>
+      </c>
+      <c r="G217" t="s">
+        <v>138</v>
+      </c>
+      <c r="H217" t="s">
+        <v>251</v>
+      </c>
+      <c r="I217" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>226</v>
+      </c>
+      <c r="B218" t="s">
+        <v>287</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>124</v>
+      </c>
+      <c r="E218" t="s">
+        <v>125</v>
+      </c>
+      <c r="F218" t="s">
+        <v>255</v>
+      </c>
+      <c r="G218" t="s">
+        <v>155</v>
+      </c>
+      <c r="H218" t="s">
+        <v>252</v>
+      </c>
+      <c r="I218" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>226</v>
+      </c>
+      <c r="B219" t="s">
+        <v>287</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>212</v>
+      </c>
+      <c r="E219" t="s">
+        <v>213</v>
+      </c>
+      <c r="F219" t="s">
+        <v>265</v>
+      </c>
+      <c r="G219" t="s">
+        <v>155</v>
+      </c>
+      <c r="H219" t="s">
+        <v>252</v>
+      </c>
+      <c r="I219" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" t="s">
+        <v>287</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>215</v>
+      </c>
+      <c r="E220" t="s">
+        <v>216</v>
+      </c>
+      <c r="F220" t="s">
+        <v>108</v>
+      </c>
+      <c r="G220" t="s">
+        <v>155</v>
+      </c>
+      <c r="H220" t="s">
+        <v>252</v>
+      </c>
+      <c r="I220" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" t="s">
+        <v>287</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>46</v>
+      </c>
+      <c r="E221" t="s">
+        <v>47</v>
+      </c>
+      <c r="F221" t="s">
+        <v>182</v>
+      </c>
+      <c r="G221" t="s">
+        <v>155</v>
+      </c>
+      <c r="H221" t="s">
+        <v>252</v>
+      </c>
+      <c r="I221" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" t="s">
+        <v>287</v>
+      </c>
+      <c r="C222" t="s">
+        <v>57</v>
+      </c>
+      <c r="D222" t="s">
+        <v>205</v>
+      </c>
+      <c r="E222" t="s">
+        <v>206</v>
+      </c>
+      <c r="F222" t="s">
+        <v>266</v>
+      </c>
+      <c r="G222" t="s">
+        <v>155</v>
+      </c>
+      <c r="H222" t="s">
+        <v>252</v>
+      </c>
+      <c r="I222" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" t="s">
+        <v>287</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" t="s">
+        <v>168</v>
+      </c>
+      <c r="E223" t="s">
+        <v>169</v>
+      </c>
+      <c r="F223" t="s">
+        <v>170</v>
+      </c>
+      <c r="G223" t="s">
+        <v>155</v>
+      </c>
+      <c r="H223" t="s">
+        <v>252</v>
+      </c>
+      <c r="I223" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224" t="s">
+        <v>287</v>
+      </c>
+      <c r="C224" t="s">
+        <v>109</v>
+      </c>
+      <c r="D224" t="s">
+        <v>208</v>
+      </c>
+      <c r="E224" t="s">
+        <v>209</v>
+      </c>
+      <c r="F224" t="s">
+        <v>267</v>
+      </c>
+      <c r="G224" t="s">
+        <v>155</v>
+      </c>
+      <c r="H224" t="s">
+        <v>252</v>
+      </c>
+      <c r="I224" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>287</v>
+      </c>
+      <c r="C225" t="s">
+        <v>57</v>
+      </c>
+      <c r="D225" t="s">
+        <v>130</v>
+      </c>
+      <c r="E225" t="s">
+        <v>131</v>
+      </c>
+      <c r="F225" t="s">
+        <v>132</v>
+      </c>
+      <c r="G225" t="s">
+        <v>155</v>
+      </c>
+      <c r="H225" t="s">
+        <v>252</v>
+      </c>
+      <c r="I225" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" t="s">
+        <v>288</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" t="s">
+        <v>186</v>
+      </c>
+      <c r="E226" t="s">
+        <v>187</v>
+      </c>
+      <c r="F226" t="s">
+        <v>262</v>
+      </c>
+      <c r="G226" t="s">
+        <v>138</v>
+      </c>
+      <c r="H226" t="s">
+        <v>251</v>
+      </c>
+      <c r="I226" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>288</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" t="s">
+        <v>40</v>
+      </c>
+      <c r="E227" t="s">
+        <v>41</v>
+      </c>
+      <c r="F227" t="s">
+        <v>42</v>
+      </c>
+      <c r="G227" t="s">
+        <v>138</v>
+      </c>
+      <c r="H227" t="s">
+        <v>251</v>
+      </c>
+      <c r="I227" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>288</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>189</v>
+      </c>
+      <c r="E228" t="s">
+        <v>190</v>
+      </c>
+      <c r="F228" t="s">
+        <v>307</v>
+      </c>
+      <c r="G228" t="s">
+        <v>138</v>
+      </c>
+      <c r="H228" t="s">
+        <v>251</v>
+      </c>
+      <c r="I228" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>226</v>
+      </c>
+      <c r="B229" t="s">
+        <v>288</v>
+      </c>
+      <c r="C229" t="s">
+        <v>57</v>
+      </c>
+      <c r="D229" t="s">
+        <v>192</v>
+      </c>
+      <c r="E229" t="s">
+        <v>193</v>
+      </c>
+      <c r="F229" t="s">
+        <v>194</v>
+      </c>
+      <c r="G229" t="s">
+        <v>138</v>
+      </c>
+      <c r="H229" t="s">
+        <v>251</v>
+      </c>
+      <c r="I229" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>226</v>
+      </c>
+      <c r="B230" t="s">
+        <v>288</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>195</v>
+      </c>
+      <c r="E230" t="s">
+        <v>196</v>
+      </c>
+      <c r="F230" t="s">
+        <v>263</v>
+      </c>
+      <c r="G230" t="s">
+        <v>138</v>
+      </c>
+      <c r="H230" t="s">
+        <v>251</v>
+      </c>
+      <c r="I230" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>226</v>
+      </c>
+      <c r="B231" t="s">
+        <v>288</v>
+      </c>
+      <c r="C231" t="s">
+        <v>198</v>
+      </c>
+      <c r="D231" t="s">
+        <v>199</v>
+      </c>
+      <c r="E231" t="s">
+        <v>200</v>
+      </c>
+      <c r="F231" t="s">
+        <v>264</v>
+      </c>
+      <c r="G231" t="s">
+        <v>138</v>
+      </c>
+      <c r="H231" t="s">
+        <v>251</v>
+      </c>
+      <c r="I231" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>226</v>
+      </c>
+      <c r="B232" t="s">
+        <v>288</v>
+      </c>
+      <c r="C232" t="s">
+        <v>84</v>
+      </c>
+      <c r="D232" t="s">
+        <v>156</v>
+      </c>
+      <c r="E232" t="s">
+        <v>157</v>
+      </c>
+      <c r="F232" t="s">
+        <v>158</v>
+      </c>
+      <c r="G232" t="s">
+        <v>138</v>
+      </c>
+      <c r="H232" t="s">
+        <v>251</v>
+      </c>
+      <c r="I232" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>226</v>
+      </c>
+      <c r="B233" t="s">
+        <v>288</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" t="s">
+        <v>18</v>
+      </c>
+      <c r="F233" t="s">
+        <v>19</v>
+      </c>
+      <c r="G233" t="s">
+        <v>138</v>
+      </c>
+      <c r="H233" t="s">
+        <v>251</v>
+      </c>
+      <c r="I233" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>226</v>
+      </c>
+      <c r="B234" t="s">
+        <v>288</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>124</v>
+      </c>
+      <c r="E234" t="s">
+        <v>125</v>
+      </c>
+      <c r="F234" t="s">
+        <v>255</v>
+      </c>
+      <c r="G234" t="s">
+        <v>155</v>
+      </c>
+      <c r="H234" t="s">
+        <v>252</v>
+      </c>
+      <c r="I234" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>226</v>
+      </c>
+      <c r="B235" t="s">
+        <v>288</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>212</v>
+      </c>
+      <c r="E235" t="s">
+        <v>213</v>
+      </c>
+      <c r="F235" t="s">
+        <v>265</v>
+      </c>
+      <c r="G235" t="s">
+        <v>155</v>
+      </c>
+      <c r="H235" t="s">
+        <v>252</v>
+      </c>
+      <c r="I235" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>226</v>
+      </c>
+      <c r="B236" t="s">
+        <v>288</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>215</v>
+      </c>
+      <c r="E236" t="s">
+        <v>216</v>
+      </c>
+      <c r="F236" t="s">
+        <v>108</v>
+      </c>
+      <c r="G236" t="s">
+        <v>155</v>
+      </c>
+      <c r="H236" t="s">
+        <v>252</v>
+      </c>
+      <c r="I236" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>226</v>
+      </c>
+      <c r="B237" t="s">
+        <v>288</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>46</v>
+      </c>
+      <c r="E237" t="s">
+        <v>47</v>
+      </c>
+      <c r="F237" t="s">
+        <v>182</v>
+      </c>
+      <c r="G237" t="s">
+        <v>155</v>
+      </c>
+      <c r="H237" t="s">
+        <v>252</v>
+      </c>
+      <c r="I237" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>226</v>
+      </c>
+      <c r="B238" t="s">
+        <v>288</v>
+      </c>
+      <c r="C238" t="s">
+        <v>57</v>
+      </c>
+      <c r="D238" t="s">
+        <v>205</v>
+      </c>
+      <c r="E238" t="s">
+        <v>206</v>
+      </c>
+      <c r="F238" t="s">
+        <v>266</v>
+      </c>
+      <c r="G238" t="s">
+        <v>155</v>
+      </c>
+      <c r="H238" t="s">
+        <v>252</v>
+      </c>
+      <c r="I238" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>226</v>
+      </c>
+      <c r="B239" t="s">
+        <v>288</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" t="s">
+        <v>168</v>
+      </c>
+      <c r="E239" t="s">
+        <v>169</v>
+      </c>
+      <c r="F239" t="s">
+        <v>170</v>
+      </c>
+      <c r="G239" t="s">
+        <v>155</v>
+      </c>
+      <c r="H239" t="s">
+        <v>252</v>
+      </c>
+      <c r="I239" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>226</v>
+      </c>
+      <c r="B240" t="s">
+        <v>288</v>
+      </c>
+      <c r="C240" t="s">
+        <v>109</v>
+      </c>
+      <c r="D240" t="s">
+        <v>208</v>
+      </c>
+      <c r="E240" t="s">
+        <v>209</v>
+      </c>
+      <c r="F240" t="s">
+        <v>267</v>
+      </c>
+      <c r="G240" t="s">
+        <v>155</v>
+      </c>
+      <c r="H240" t="s">
+        <v>252</v>
+      </c>
+      <c r="I240" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>226</v>
+      </c>
+      <c r="B241" t="s">
+        <v>288</v>
+      </c>
+      <c r="C241" t="s">
+        <v>57</v>
+      </c>
+      <c r="D241" t="s">
+        <v>130</v>
+      </c>
+      <c r="E241" t="s">
+        <v>131</v>
+      </c>
+      <c r="F241" t="s">
+        <v>132</v>
+      </c>
+      <c r="G241" t="s">
+        <v>155</v>
+      </c>
+      <c r="H241" t="s">
+        <v>252</v>
+      </c>
+      <c r="I241" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>225</v>
+      </c>
+      <c r="B242" t="s">
+        <v>290</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>14</v>
+      </c>
+      <c r="E242" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" t="s">
+        <v>16</v>
+      </c>
+      <c r="G242" t="s">
+        <v>231</v>
+      </c>
+      <c r="H242" t="s">
+        <v>247</v>
+      </c>
+      <c r="I242" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>225</v>
+      </c>
+      <c r="B243" t="s">
+        <v>290</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2</v>
+      </c>
+      <c r="E243" t="s">
+        <v>3</v>
+      </c>
+      <c r="F243" t="s">
+        <v>4</v>
+      </c>
+      <c r="G243" t="s">
+        <v>231</v>
+      </c>
+      <c r="H243" t="s">
+        <v>247</v>
+      </c>
+      <c r="I243" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>225</v>
+      </c>
+      <c r="B244" t="s">
+        <v>290</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" t="s">
+        <v>93</v>
+      </c>
+      <c r="E244" t="s">
+        <v>94</v>
+      </c>
+      <c r="F244" t="s">
+        <v>95</v>
+      </c>
+      <c r="G244" t="s">
+        <v>231</v>
+      </c>
+      <c r="H244" t="s">
+        <v>247</v>
+      </c>
+      <c r="I244" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>225</v>
+      </c>
+      <c r="B245" t="s">
+        <v>290</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>113</v>
+      </c>
+      <c r="E245" t="s">
+        <v>114</v>
+      </c>
+      <c r="F245" t="s">
+        <v>115</v>
+      </c>
+      <c r="G245" t="s">
+        <v>231</v>
+      </c>
+      <c r="H245" t="s">
+        <v>247</v>
+      </c>
+      <c r="I245" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>225</v>
+      </c>
+      <c r="B246" t="s">
+        <v>290</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246" t="s">
+        <v>12</v>
+      </c>
+      <c r="F246" t="s">
+        <v>178</v>
+      </c>
+      <c r="G246" t="s">
+        <v>231</v>
+      </c>
+      <c r="H246" t="s">
+        <v>247</v>
+      </c>
+      <c r="I246" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>225</v>
+      </c>
+      <c r="B247" t="s">
+        <v>290</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>102</v>
+      </c>
+      <c r="E247" t="s">
+        <v>103</v>
+      </c>
+      <c r="F247" t="s">
+        <v>177</v>
+      </c>
+      <c r="G247" t="s">
+        <v>231</v>
+      </c>
+      <c r="H247" t="s">
+        <v>247</v>
+      </c>
+      <c r="I247" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>225</v>
+      </c>
+      <c r="B248" t="s">
+        <v>290</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" t="s">
+        <v>18</v>
+      </c>
+      <c r="F248" t="s">
+        <v>19</v>
+      </c>
+      <c r="G248" t="s">
+        <v>231</v>
+      </c>
+      <c r="H248" t="s">
+        <v>247</v>
+      </c>
+      <c r="I248" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>225</v>
+      </c>
+      <c r="B249" t="s">
+        <v>290</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>124</v>
+      </c>
+      <c r="E249" t="s">
+        <v>125</v>
+      </c>
+      <c r="F249" t="s">
+        <v>255</v>
+      </c>
+      <c r="G249" t="s">
+        <v>155</v>
+      </c>
+      <c r="H249" t="s">
+        <v>248</v>
+      </c>
+      <c r="I249" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>225</v>
+      </c>
+      <c r="B250" t="s">
+        <v>290</v>
+      </c>
+      <c r="C250" t="s">
+        <v>120</v>
+      </c>
+      <c r="D250" t="s">
+        <v>121</v>
+      </c>
+      <c r="E250" t="s">
+        <v>122</v>
+      </c>
+      <c r="F250" t="s">
+        <v>181</v>
+      </c>
+      <c r="G250" t="s">
+        <v>155</v>
+      </c>
+      <c r="H250" t="s">
+        <v>248</v>
+      </c>
+      <c r="I250" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>225</v>
+      </c>
+      <c r="B251" t="s">
+        <v>290</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" t="s">
+        <v>40</v>
+      </c>
+      <c r="E251" t="s">
+        <v>41</v>
+      </c>
+      <c r="F251" t="s">
+        <v>42</v>
+      </c>
+      <c r="G251" t="s">
+        <v>155</v>
+      </c>
+      <c r="H251" t="s">
+        <v>248</v>
+      </c>
+      <c r="I251" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>225</v>
+      </c>
+      <c r="B252" t="s">
+        <v>290</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>46</v>
+      </c>
+      <c r="E252" t="s">
+        <v>47</v>
+      </c>
+      <c r="F252" t="s">
+        <v>182</v>
+      </c>
+      <c r="G252" t="s">
+        <v>155</v>
+      </c>
+      <c r="H252" t="s">
+        <v>248</v>
+      </c>
+      <c r="I252" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>225</v>
+      </c>
+      <c r="B253" t="s">
+        <v>290</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253" t="s">
+        <v>179</v>
+      </c>
+      <c r="E253" t="s">
+        <v>65</v>
+      </c>
+      <c r="F253" t="s">
+        <v>254</v>
+      </c>
+      <c r="G253" t="s">
+        <v>155</v>
+      </c>
+      <c r="H253" t="s">
+        <v>248</v>
+      </c>
+      <c r="I253" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>225</v>
+      </c>
+      <c r="B254" t="s">
+        <v>290</v>
+      </c>
+      <c r="C254" t="s">
+        <v>109</v>
+      </c>
+      <c r="D254" t="s">
+        <v>110</v>
+      </c>
+      <c r="E254" t="s">
+        <v>111</v>
+      </c>
+      <c r="F254" t="s">
+        <v>112</v>
+      </c>
+      <c r="G254" t="s">
+        <v>155</v>
+      </c>
+      <c r="H254" t="s">
+        <v>248</v>
+      </c>
+      <c r="I254" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>225</v>
+      </c>
+      <c r="B255" t="s">
+        <v>290</v>
+      </c>
+      <c r="C255" t="s">
+        <v>57</v>
+      </c>
+      <c r="D255" t="s">
+        <v>130</v>
+      </c>
+      <c r="E255" t="s">
+        <v>131</v>
+      </c>
+      <c r="F255" t="s">
+        <v>132</v>
+      </c>
+      <c r="G255" t="s">
+        <v>155</v>
+      </c>
+      <c r="H255" t="s">
+        <v>248</v>
+      </c>
+      <c r="I255" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>225</v>
+      </c>
+      <c r="B256" t="s">
+        <v>291</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256" t="s">
+        <v>15</v>
+      </c>
+      <c r="F256" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" t="s">
+        <v>231</v>
+      </c>
+      <c r="H256" t="s">
+        <v>247</v>
+      </c>
+      <c r="I256" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>225</v>
+      </c>
+      <c r="B257" t="s">
+        <v>291</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2</v>
+      </c>
+      <c r="E257" t="s">
+        <v>3</v>
+      </c>
+      <c r="F257" t="s">
+        <v>4</v>
+      </c>
+      <c r="G257" t="s">
+        <v>231</v>
+      </c>
+      <c r="H257" t="s">
+        <v>247</v>
+      </c>
+      <c r="I257" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>225</v>
+      </c>
+      <c r="B258" t="s">
+        <v>291</v>
+      </c>
+      <c r="C258" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" t="s">
+        <v>93</v>
+      </c>
+      <c r="E258" t="s">
+        <v>94</v>
+      </c>
+      <c r="F258" t="s">
+        <v>95</v>
+      </c>
+      <c r="G258" t="s">
+        <v>231</v>
+      </c>
+      <c r="H258" t="s">
+        <v>247</v>
+      </c>
+      <c r="I258" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>225</v>
+      </c>
+      <c r="B259" t="s">
+        <v>291</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>113</v>
+      </c>
+      <c r="E259" t="s">
+        <v>114</v>
+      </c>
+      <c r="F259" t="s">
+        <v>115</v>
+      </c>
+      <c r="G259" t="s">
+        <v>231</v>
+      </c>
+      <c r="H259" t="s">
+        <v>247</v>
+      </c>
+      <c r="I259" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>225</v>
+      </c>
+      <c r="B260" t="s">
+        <v>291</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260" t="s">
+        <v>178</v>
+      </c>
+      <c r="G260" t="s">
+        <v>231</v>
+      </c>
+      <c r="H260" t="s">
+        <v>247</v>
+      </c>
+      <c r="I260" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>225</v>
+      </c>
+      <c r="B261" t="s">
+        <v>291</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>102</v>
+      </c>
+      <c r="E261" t="s">
+        <v>103</v>
+      </c>
+      <c r="F261" t="s">
+        <v>177</v>
+      </c>
+      <c r="G261" t="s">
+        <v>231</v>
+      </c>
+      <c r="H261" t="s">
+        <v>247</v>
+      </c>
+      <c r="I261" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>225</v>
+      </c>
+      <c r="B262" t="s">
+        <v>291</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" t="s">
+        <v>18</v>
+      </c>
+      <c r="F262" t="s">
+        <v>19</v>
+      </c>
+      <c r="G262" t="s">
+        <v>231</v>
+      </c>
+      <c r="H262" t="s">
+        <v>247</v>
+      </c>
+      <c r="I262" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>225</v>
+      </c>
+      <c r="B263" t="s">
+        <v>291</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
+        <v>124</v>
+      </c>
+      <c r="E263" t="s">
+        <v>125</v>
+      </c>
+      <c r="F263" t="s">
+        <v>255</v>
+      </c>
+      <c r="G263" t="s">
+        <v>155</v>
+      </c>
+      <c r="H263" t="s">
+        <v>248</v>
+      </c>
+      <c r="I263" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>225</v>
+      </c>
+      <c r="B264" t="s">
+        <v>291</v>
+      </c>
+      <c r="C264" t="s">
+        <v>120</v>
+      </c>
+      <c r="D264" t="s">
+        <v>121</v>
+      </c>
+      <c r="E264" t="s">
+        <v>122</v>
+      </c>
+      <c r="F264" t="s">
+        <v>181</v>
+      </c>
+      <c r="G264" t="s">
+        <v>155</v>
+      </c>
+      <c r="H264" t="s">
+        <v>248</v>
+      </c>
+      <c r="I264" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>225</v>
+      </c>
+      <c r="B265" t="s">
+        <v>291</v>
+      </c>
+      <c r="C265" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" t="s">
+        <v>40</v>
+      </c>
+      <c r="E265" t="s">
+        <v>41</v>
+      </c>
+      <c r="F265" t="s">
+        <v>42</v>
+      </c>
+      <c r="G265" t="s">
+        <v>155</v>
+      </c>
+      <c r="H265" t="s">
+        <v>248</v>
+      </c>
+      <c r="I265" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>225</v>
+      </c>
+      <c r="B266" t="s">
+        <v>291</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D266" t="s">
+        <v>46</v>
+      </c>
+      <c r="E266" t="s">
+        <v>47</v>
+      </c>
+      <c r="F266" t="s">
+        <v>182</v>
+      </c>
+      <c r="G266" t="s">
+        <v>155</v>
+      </c>
+      <c r="H266" t="s">
+        <v>248</v>
+      </c>
+      <c r="I266" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>225</v>
+      </c>
+      <c r="B267" t="s">
+        <v>291</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>179</v>
+      </c>
+      <c r="E267" t="s">
+        <v>65</v>
+      </c>
+      <c r="F267" t="s">
+        <v>254</v>
+      </c>
+      <c r="G267" t="s">
+        <v>155</v>
+      </c>
+      <c r="H267" t="s">
+        <v>248</v>
+      </c>
+      <c r="I267" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>225</v>
+      </c>
+      <c r="B268" t="s">
+        <v>291</v>
+      </c>
+      <c r="C268" t="s">
+        <v>109</v>
+      </c>
+      <c r="D268" t="s">
+        <v>110</v>
+      </c>
+      <c r="E268" t="s">
+        <v>111</v>
+      </c>
+      <c r="F268" t="s">
+        <v>112</v>
+      </c>
+      <c r="G268" t="s">
+        <v>155</v>
+      </c>
+      <c r="H268" t="s">
+        <v>248</v>
+      </c>
+      <c r="I268" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>225</v>
+      </c>
+      <c r="B269" t="s">
+        <v>291</v>
+      </c>
+      <c r="C269" t="s">
+        <v>57</v>
+      </c>
+      <c r="D269" t="s">
+        <v>130</v>
+      </c>
+      <c r="E269" t="s">
+        <v>131</v>
+      </c>
+      <c r="F269" t="s">
+        <v>132</v>
+      </c>
+      <c r="G269" t="s">
+        <v>155</v>
+      </c>
+      <c r="H269" t="s">
+        <v>248</v>
+      </c>
+      <c r="I269" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>292</v>
+      </c>
+      <c r="B270" t="s">
+        <v>295</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" t="s">
+        <v>61</v>
+      </c>
+      <c r="E270" t="s">
+        <v>62</v>
+      </c>
+      <c r="F270" t="s">
+        <v>98</v>
+      </c>
+      <c r="G270" t="s">
+        <v>233</v>
+      </c>
+      <c r="H270" t="s">
+        <v>243</v>
+      </c>
+      <c r="I270" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>292</v>
+      </c>
+      <c r="B271" t="s">
+        <v>295</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" t="s">
+        <v>15</v>
+      </c>
+      <c r="F271" t="s">
+        <v>16</v>
+      </c>
+      <c r="G271" t="s">
+        <v>233</v>
+      </c>
+      <c r="H271" t="s">
+        <v>243</v>
+      </c>
+      <c r="I271" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>292</v>
+      </c>
+      <c r="B272" t="s">
+        <v>295</v>
+      </c>
+      <c r="C272" t="s">
+        <v>57</v>
+      </c>
+      <c r="D272" t="s">
+        <v>99</v>
+      </c>
+      <c r="E272" t="s">
+        <v>100</v>
+      </c>
+      <c r="F272" t="s">
+        <v>101</v>
+      </c>
+      <c r="G272" t="s">
+        <v>233</v>
+      </c>
+      <c r="H272" t="s">
+        <v>243</v>
+      </c>
+      <c r="I272" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>292</v>
+      </c>
+      <c r="B273" t="s">
+        <v>295</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>2</v>
+      </c>
+      <c r="E273" t="s">
+        <v>3</v>
+      </c>
+      <c r="F273" t="s">
+        <v>4</v>
+      </c>
+      <c r="G273" t="s">
+        <v>233</v>
+      </c>
+      <c r="H273" t="s">
+        <v>243</v>
+      </c>
+      <c r="I273" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>292</v>
+      </c>
+      <c r="B274" t="s">
+        <v>295</v>
+      </c>
+      <c r="C274" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" t="s">
+        <v>93</v>
+      </c>
+      <c r="E274" t="s">
+        <v>94</v>
+      </c>
+      <c r="F274" t="s">
+        <v>95</v>
+      </c>
+      <c r="G274" t="s">
+        <v>233</v>
+      </c>
+      <c r="H274" t="s">
+        <v>243</v>
+      </c>
+      <c r="I274" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>292</v>
+      </c>
+      <c r="B275" t="s">
+        <v>295</v>
+      </c>
+      <c r="C275" t="s">
+        <v>67</v>
+      </c>
+      <c r="D275" t="s">
+        <v>68</v>
+      </c>
+      <c r="E275" t="s">
+        <v>69</v>
+      </c>
+      <c r="F275" t="s">
+        <v>92</v>
+      </c>
+      <c r="G275" t="s">
+        <v>233</v>
+      </c>
+      <c r="H275" t="s">
+        <v>243</v>
+      </c>
+      <c r="I275" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>292</v>
+      </c>
+      <c r="B276" t="s">
+        <v>295</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>96</v>
+      </c>
+      <c r="E276" t="s">
+        <v>55</v>
+      </c>
+      <c r="F276" t="s">
+        <v>97</v>
+      </c>
+      <c r="G276" t="s">
+        <v>233</v>
+      </c>
+      <c r="H276" t="s">
+        <v>243</v>
+      </c>
+      <c r="I276" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>292</v>
+      </c>
+      <c r="B277" t="s">
+        <v>295</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1</v>
+      </c>
+      <c r="D277" t="s">
+        <v>106</v>
+      </c>
+      <c r="E277" t="s">
+        <v>107</v>
+      </c>
+      <c r="F277" t="s">
+        <v>108</v>
+      </c>
+      <c r="G277" t="s">
+        <v>234</v>
+      </c>
+      <c r="H277" t="s">
+        <v>241</v>
+      </c>
+      <c r="I277" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>292</v>
+      </c>
+      <c r="B278" t="s">
+        <v>295</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" t="s">
+        <v>234</v>
+      </c>
+      <c r="H278" t="s">
+        <v>241</v>
+      </c>
+      <c r="I278" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>292</v>
+      </c>
+      <c r="B279" t="s">
+        <v>295</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279" t="s">
+        <v>234</v>
+      </c>
+      <c r="H279" t="s">
+        <v>241</v>
+      </c>
+      <c r="I279" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>292</v>
+      </c>
+      <c r="B280" t="s">
+        <v>295</v>
+      </c>
+      <c r="C280" t="s">
+        <v>109</v>
+      </c>
+      <c r="D280" t="s">
+        <v>110</v>
+      </c>
+      <c r="E280" t="s">
+        <v>111</v>
+      </c>
+      <c r="F280" t="s">
+        <v>112</v>
+      </c>
+      <c r="G280" t="s">
+        <v>234</v>
+      </c>
+      <c r="H280" t="s">
+        <v>241</v>
+      </c>
+      <c r="I280" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>292</v>
+      </c>
+      <c r="B281" t="s">
+        <v>295</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1</v>
+      </c>
+      <c r="D281" t="s">
+        <v>64</v>
+      </c>
+      <c r="E281" t="s">
+        <v>65</v>
+      </c>
+      <c r="F281" t="s">
+        <v>254</v>
+      </c>
+      <c r="G281" t="s">
+        <v>234</v>
+      </c>
+      <c r="H281" t="s">
+        <v>241</v>
+      </c>
+      <c r="I281" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>292</v>
+      </c>
+      <c r="B282" t="s">
+        <v>295</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1</v>
+      </c>
+      <c r="D282" t="s">
+        <v>102</v>
+      </c>
+      <c r="E282" t="s">
+        <v>103</v>
+      </c>
+      <c r="F282" t="s">
+        <v>104</v>
+      </c>
+      <c r="G282" t="s">
+        <v>234</v>
+      </c>
+      <c r="H282" t="s">
+        <v>241</v>
+      </c>
+      <c r="I282" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>292</v>
+      </c>
+      <c r="B283" t="s">
+        <v>295</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1</v>
+      </c>
+      <c r="D283" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283" t="s">
+        <v>18</v>
+      </c>
+      <c r="F283" t="s">
+        <v>19</v>
+      </c>
+      <c r="G283" t="s">
+        <v>234</v>
+      </c>
+      <c r="H283" t="s">
+        <v>241</v>
+      </c>
+      <c r="I283" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>292</v>
+      </c>
+      <c r="B284" t="s">
+        <v>294</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" t="s">
+        <v>61</v>
+      </c>
+      <c r="E284" t="s">
+        <v>62</v>
+      </c>
+      <c r="F284" t="s">
+        <v>98</v>
+      </c>
+      <c r="G284" t="s">
+        <v>233</v>
+      </c>
+      <c r="H284" t="s">
+        <v>243</v>
+      </c>
+      <c r="I284" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>292</v>
+      </c>
+      <c r="B285" t="s">
+        <v>294</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>14</v>
+      </c>
+      <c r="E285" t="s">
+        <v>15</v>
+      </c>
+      <c r="F285" t="s">
+        <v>16</v>
+      </c>
+      <c r="G285" t="s">
+        <v>233</v>
+      </c>
+      <c r="H285" t="s">
+        <v>243</v>
+      </c>
+      <c r="I285" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>292</v>
+      </c>
+      <c r="B286" t="s">
+        <v>294</v>
+      </c>
+      <c r="C286" t="s">
+        <v>57</v>
+      </c>
+      <c r="D286" t="s">
+        <v>99</v>
+      </c>
+      <c r="E286" t="s">
+        <v>100</v>
+      </c>
+      <c r="F286" t="s">
+        <v>101</v>
+      </c>
+      <c r="G286" t="s">
+        <v>233</v>
+      </c>
+      <c r="H286" t="s">
+        <v>243</v>
+      </c>
+      <c r="I286" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>292</v>
+      </c>
+      <c r="B287" t="s">
+        <v>294</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>2</v>
+      </c>
+      <c r="E287" t="s">
+        <v>3</v>
+      </c>
+      <c r="F287" t="s">
+        <v>4</v>
+      </c>
+      <c r="G287" t="s">
+        <v>233</v>
+      </c>
+      <c r="H287" t="s">
+        <v>243</v>
+      </c>
+      <c r="I287" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>292</v>
+      </c>
+      <c r="B288" t="s">
+        <v>294</v>
+      </c>
+      <c r="C288" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" t="s">
+        <v>93</v>
+      </c>
+      <c r="E288" t="s">
+        <v>94</v>
+      </c>
+      <c r="F288" t="s">
+        <v>95</v>
+      </c>
+      <c r="G288" t="s">
+        <v>233</v>
+      </c>
+      <c r="H288" t="s">
+        <v>243</v>
+      </c>
+      <c r="I288" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" t="s">
+        <v>294</v>
+      </c>
+      <c r="C289" t="s">
+        <v>67</v>
+      </c>
+      <c r="D289" t="s">
+        <v>68</v>
+      </c>
+      <c r="E289" t="s">
+        <v>69</v>
+      </c>
+      <c r="F289" t="s">
+        <v>92</v>
+      </c>
+      <c r="G289" t="s">
+        <v>233</v>
+      </c>
+      <c r="H289" t="s">
+        <v>243</v>
+      </c>
+      <c r="I289" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290" t="s">
+        <v>294</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>96</v>
+      </c>
+      <c r="E290" t="s">
+        <v>55</v>
+      </c>
+      <c r="F290" t="s">
+        <v>97</v>
+      </c>
+      <c r="G290" t="s">
+        <v>233</v>
+      </c>
+      <c r="H290" t="s">
+        <v>243</v>
+      </c>
+      <c r="I290" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" t="s">
+        <v>294</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>106</v>
+      </c>
+      <c r="E291" t="s">
+        <v>107</v>
+      </c>
+      <c r="F291" t="s">
+        <v>108</v>
+      </c>
+      <c r="G291" t="s">
+        <v>234</v>
+      </c>
+      <c r="H291" t="s">
+        <v>241</v>
+      </c>
+      <c r="I291" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" t="s">
+        <v>294</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" t="s">
+        <v>9</v>
+      </c>
+      <c r="G292" t="s">
+        <v>234</v>
+      </c>
+      <c r="H292" t="s">
+        <v>241</v>
+      </c>
+      <c r="I292" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>294</v>
+      </c>
+      <c r="C293" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293" t="s">
+        <v>12</v>
+      </c>
+      <c r="F293" t="s">
+        <v>13</v>
+      </c>
+      <c r="G293" t="s">
+        <v>234</v>
+      </c>
+      <c r="H293" t="s">
+        <v>241</v>
+      </c>
+      <c r="I293" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+      <c r="C294" t="s">
+        <v>109</v>
+      </c>
+      <c r="D294" t="s">
+        <v>110</v>
+      </c>
+      <c r="E294" t="s">
+        <v>111</v>
+      </c>
+      <c r="F294" t="s">
+        <v>112</v>
+      </c>
+      <c r="G294" t="s">
+        <v>234</v>
+      </c>
+      <c r="H294" t="s">
+        <v>241</v>
+      </c>
+      <c r="I294" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>292</v>
+      </c>
+      <c r="B295" t="s">
+        <v>294</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>64</v>
+      </c>
+      <c r="E295" t="s">
+        <v>65</v>
+      </c>
+      <c r="F295" t="s">
+        <v>254</v>
+      </c>
+      <c r="G295" t="s">
+        <v>234</v>
+      </c>
+      <c r="H295" t="s">
+        <v>241</v>
+      </c>
+      <c r="I295" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>292</v>
+      </c>
+      <c r="B296" t="s">
+        <v>294</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>102</v>
+      </c>
+      <c r="E296" t="s">
+        <v>103</v>
+      </c>
+      <c r="F296" t="s">
+        <v>104</v>
+      </c>
+      <c r="G296" t="s">
+        <v>234</v>
+      </c>
+      <c r="H296" t="s">
+        <v>241</v>
+      </c>
+      <c r="I296" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>292</v>
+      </c>
+      <c r="B297" t="s">
+        <v>294</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>17</v>
+      </c>
+      <c r="E297" t="s">
+        <v>18</v>
+      </c>
+      <c r="F297" t="s">
+        <v>19</v>
+      </c>
+      <c r="G297" t="s">
+        <v>234</v>
+      </c>
+      <c r="H297" t="s">
+        <v>241</v>
+      </c>
+      <c r="I297" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>292</v>
+      </c>
+      <c r="B298" t="s">
+        <v>293</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>58</v>
+      </c>
+      <c r="E298" t="s">
+        <v>59</v>
+      </c>
+      <c r="F298" t="s">
+        <v>88</v>
+      </c>
+      <c r="G298" t="s">
+        <v>138</v>
+      </c>
+      <c r="H298" t="s">
+        <v>244</v>
+      </c>
+      <c r="I298" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>292</v>
+      </c>
+      <c r="B299" t="s">
+        <v>293</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>78</v>
+      </c>
+      <c r="E299" t="s">
+        <v>79</v>
+      </c>
+      <c r="F299" t="s">
+        <v>256</v>
+      </c>
+      <c r="G299" t="s">
+        <v>138</v>
+      </c>
+      <c r="H299" t="s">
+        <v>244</v>
+      </c>
+      <c r="I299" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>292</v>
+      </c>
+      <c r="B300" t="s">
+        <v>293</v>
+      </c>
+      <c r="C300" t="s">
+        <v>57</v>
+      </c>
+      <c r="D300" t="s">
+        <v>75</v>
+      </c>
+      <c r="E300" t="s">
+        <v>76</v>
+      </c>
+      <c r="F300" t="s">
+        <v>257</v>
+      </c>
+      <c r="G300" t="s">
+        <v>138</v>
+      </c>
+      <c r="H300" t="s">
+        <v>244</v>
+      </c>
+      <c r="I300" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>292</v>
+      </c>
+      <c r="B301" t="s">
+        <v>293</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>89</v>
+      </c>
+      <c r="E301" t="s">
+        <v>90</v>
+      </c>
+      <c r="F301" t="s">
+        <v>91</v>
+      </c>
+      <c r="G301" t="s">
+        <v>138</v>
+      </c>
+      <c r="H301" t="s">
+        <v>244</v>
+      </c>
+      <c r="I301" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>292</v>
+      </c>
+      <c r="B302" t="s">
+        <v>293</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>81</v>
+      </c>
+      <c r="E302" t="s">
+        <v>82</v>
+      </c>
+      <c r="F302" t="s">
+        <v>258</v>
+      </c>
+      <c r="G302" t="s">
+        <v>138</v>
+      </c>
+      <c r="H302" t="s">
+        <v>244</v>
+      </c>
+      <c r="I302" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>292</v>
+      </c>
+      <c r="B303" t="s">
+        <v>293</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>72</v>
+      </c>
+      <c r="E303" t="s">
+        <v>73</v>
+      </c>
+      <c r="F303" t="s">
+        <v>74</v>
+      </c>
+      <c r="G303" t="s">
+        <v>138</v>
+      </c>
+      <c r="H303" t="s">
+        <v>244</v>
+      </c>
+      <c r="I303" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>292</v>
+      </c>
+      <c r="B304" t="s">
+        <v>293</v>
+      </c>
+      <c r="C304" t="s">
+        <v>84</v>
+      </c>
+      <c r="D304" t="s">
+        <v>85</v>
+      </c>
+      <c r="E304" t="s">
+        <v>86</v>
+      </c>
+      <c r="F304" t="s">
+        <v>259</v>
+      </c>
+      <c r="G304" t="s">
+        <v>138</v>
+      </c>
+      <c r="H304" t="s">
+        <v>244</v>
+      </c>
+      <c r="I304" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>292</v>
+      </c>
+      <c r="B305" t="s">
+        <v>293</v>
+      </c>
+      <c r="C305" t="s">
+        <v>10</v>
+      </c>
+      <c r="D305" t="s">
+        <v>61</v>
+      </c>
+      <c r="E305" t="s">
+        <v>62</v>
+      </c>
+      <c r="F305" t="s">
+        <v>98</v>
+      </c>
+      <c r="G305" t="s">
+        <v>233</v>
+      </c>
+      <c r="H305" t="s">
+        <v>243</v>
+      </c>
+      <c r="I305" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>292</v>
+      </c>
+      <c r="B306" t="s">
+        <v>293</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>14</v>
+      </c>
+      <c r="E306" t="s">
+        <v>15</v>
+      </c>
+      <c r="F306" t="s">
+        <v>16</v>
+      </c>
+      <c r="G306" t="s">
+        <v>233</v>
+      </c>
+      <c r="H306" t="s">
+        <v>243</v>
+      </c>
+      <c r="I306" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>292</v>
+      </c>
+      <c r="B307" t="s">
+        <v>293</v>
+      </c>
+      <c r="C307" t="s">
+        <v>57</v>
+      </c>
+      <c r="D307" t="s">
+        <v>99</v>
+      </c>
+      <c r="E307" t="s">
+        <v>100</v>
+      </c>
+      <c r="F307" t="s">
+        <v>101</v>
+      </c>
+      <c r="G307" t="s">
+        <v>233</v>
+      </c>
+      <c r="H307" t="s">
+        <v>243</v>
+      </c>
+      <c r="I307" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>292</v>
+      </c>
+      <c r="B308" t="s">
+        <v>293</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2</v>
+      </c>
+      <c r="E308" t="s">
+        <v>3</v>
+      </c>
+      <c r="F308" t="s">
+        <v>4</v>
+      </c>
+      <c r="G308" t="s">
+        <v>233</v>
+      </c>
+      <c r="H308" t="s">
+        <v>243</v>
+      </c>
+      <c r="I308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>292</v>
+      </c>
+      <c r="B309" t="s">
+        <v>293</v>
+      </c>
+      <c r="C309" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" t="s">
+        <v>93</v>
+      </c>
+      <c r="E309" t="s">
+        <v>94</v>
+      </c>
+      <c r="F309" t="s">
+        <v>95</v>
+      </c>
+      <c r="G309" t="s">
+        <v>233</v>
+      </c>
+      <c r="H309" t="s">
+        <v>243</v>
+      </c>
+      <c r="I309" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>292</v>
+      </c>
+      <c r="B310" t="s">
+        <v>293</v>
+      </c>
+      <c r="C310" t="s">
+        <v>67</v>
+      </c>
+      <c r="D310" t="s">
+        <v>68</v>
+      </c>
+      <c r="E310" t="s">
+        <v>69</v>
+      </c>
+      <c r="F310" t="s">
+        <v>92</v>
+      </c>
+      <c r="G310" t="s">
+        <v>233</v>
+      </c>
+      <c r="H310" t="s">
+        <v>243</v>
+      </c>
+      <c r="I310" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>292</v>
+      </c>
+      <c r="B311" t="s">
+        <v>293</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>96</v>
+      </c>
+      <c r="E311" t="s">
+        <v>55</v>
+      </c>
+      <c r="F311" t="s">
+        <v>97</v>
+      </c>
+      <c r="G311" t="s">
+        <v>233</v>
+      </c>
+      <c r="H311" t="s">
+        <v>243</v>
+      </c>
+      <c r="I311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -4427,8 +4427,8 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60:J63"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="877" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57ABF7CF-2365-4AC8-B9E7-14B5416ABD52}"/>
+  <xr:revisionPtr revIDLastSave="896" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B07D61AF-905C-4AE8-8268-ACB3CF351999}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7076" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7076" uniqueCount="313">
   <si>
     <t>Family</t>
   </si>
@@ -993,6 +993,9 @@
   </si>
   <si>
     <t>Projected</t>
+  </si>
+  <si>
+    <t>Rothrock's grama</t>
   </si>
 </sst>
 </file>
@@ -1142,15 +1145,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1165,8 +1168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13064490" y="567690"/>
-          <a:ext cx="3448050" cy="5177790"/>
+          <a:off x="13051155" y="381001"/>
+          <a:ext cx="3451860" cy="5234940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1336,6 +1339,9 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>Code, Duration, and Lifeform according to USDA Plants.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4427,8 +4433,8 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8213,7 +8219,7 @@
         <v>216</v>
       </c>
       <c r="F100" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="G100" t="s">
         <v>303</v>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="896" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B07D61AF-905C-4AE8-8268-ACB3CF351999}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView minimized="1" xWindow="3036" yWindow="420" windowWidth="17256" windowHeight="8868" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
@@ -4433,8 +4433,8 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="896" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B07D61AF-905C-4AE8-8268-ACB3CF351999}"/>
+  <xr:revisionPtr revIDLastSave="920" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77445C1B-65DA-4390-A55D-C33432C71040}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3036" yWindow="420" windowWidth="17256" windowHeight="8868" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7076" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7195" uniqueCount="313">
   <si>
     <t>Family</t>
   </si>
@@ -1040,9 +1040,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1144,13 +1146,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>81915</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
@@ -1856,7 +1858,7 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -4430,4538 +4432,4896 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AACCC2-25F8-47C0-AE4C-0CA6CA3F7938}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>227</v>
       </c>
       <c r="B1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>218</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>229</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>219</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>298</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>240</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>221</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>223</v>
       </c>
       <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
         <v>269</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>303</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>299</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>231</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>271</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>15.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>223</v>
       </c>
       <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" t="s">
         <v>269</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>59</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>275</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>303</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>300</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>231</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>271</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>14.2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>223</v>
       </c>
       <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" t="s">
         <v>269</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>274</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>303</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>299</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>231</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>271</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>11.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>223</v>
       </c>
       <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="s">
         <v>269</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>303</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>301</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>231</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>271</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>17.72</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>223</v>
       </c>
       <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
         <v>269</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>304</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>299</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>231</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>271</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>17.97</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>223</v>
       </c>
       <c r="B7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" t="s">
         <v>269</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
       <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>254</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>303</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>300</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>231</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>271</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>12</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>15.95</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>223</v>
       </c>
       <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" t="s">
         <v>269</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
       <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>270</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>303</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>300</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>231</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>271</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15.8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>223</v>
       </c>
       <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
         <v>269</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
       <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>303</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>300</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>231</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>271</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>223</v>
       </c>
       <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
         <v>269</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>268</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>303</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>301</v>
       </c>
-      <c r="I10" t="s">
-        <v>155</v>
-      </c>
       <c r="J10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" t="s">
         <v>272</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>223</v>
       </c>
       <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" t="s">
         <v>269</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>305</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>299</v>
       </c>
-      <c r="I11" t="s">
-        <v>155</v>
-      </c>
       <c r="J11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" t="s">
         <v>272</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>21.84</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>223</v>
       </c>
       <c r="B12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" t="s">
         <v>269</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
       <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>303</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>300</v>
       </c>
-      <c r="I12" t="s">
-        <v>155</v>
-      </c>
       <c r="J12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" t="s">
         <v>272</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>223</v>
       </c>
       <c r="B13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
         <v>269</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
       <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>182</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>303</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>300</v>
       </c>
-      <c r="I13" t="s">
-        <v>155</v>
-      </c>
       <c r="J13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" t="s">
         <v>272</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>9</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>23.15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>223</v>
       </c>
       <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" t="s">
         <v>269</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>273</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>305</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>299</v>
       </c>
-      <c r="I14" t="s">
-        <v>155</v>
-      </c>
       <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
         <v>272</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>10</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>223</v>
       </c>
       <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" t="s">
         <v>269</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
       <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>303</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>300</v>
       </c>
-      <c r="I15" t="s">
-        <v>155</v>
-      </c>
       <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
         <v>272</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>5</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>20.3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>223</v>
       </c>
       <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" t="s">
         <v>269</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>303</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>299</v>
       </c>
-      <c r="I16" t="s">
-        <v>155</v>
-      </c>
       <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
         <v>272</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>20.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="J17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>4</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>21.6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
       <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
         <v>230</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
       <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>106</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>107</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>108</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>303</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>300</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>234</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>241</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
       <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
         <v>230</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>303</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>301</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>234</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>241</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>6</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>71</v>
       </c>
       <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
         <v>230</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>304</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>299</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>234</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>241</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
       <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
         <v>230</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>109</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>112</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>303</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>234</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>241</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
       <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
         <v>230</v>
       </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
       <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>64</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>65</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>254</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>303</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>234</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>241</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>12</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>15.1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
       <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
         <v>230</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
       <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>102</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>103</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>104</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>303</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>300</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>234</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>241</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>4</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>16.7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>230</v>
       </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
       <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>303</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>300</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>234</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>241</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
       <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>230</v>
       </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
       <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>117</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>118</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>253</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>303</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>300</v>
       </c>
-      <c r="I25" t="s">
-        <v>155</v>
-      </c>
       <c r="J25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" t="s">
         <v>242</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>12</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>18.3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
       <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
         <v>230</v>
       </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
       <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>124</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>125</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>255</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>303</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>300</v>
       </c>
-      <c r="I26" t="s">
-        <v>155</v>
-      </c>
       <c r="J26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" t="s">
         <v>242</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>6</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>21.1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
       <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
         <v>230</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>120</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>121</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>122</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>123</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>303</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>299</v>
       </c>
-      <c r="I27" t="s">
-        <v>155</v>
-      </c>
       <c r="J27" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" t="s">
         <v>242</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>12</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>71</v>
       </c>
       <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
         <v>230</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>41</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>42</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>305</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>299</v>
       </c>
-      <c r="I28" t="s">
-        <v>155</v>
-      </c>
       <c r="J28" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" t="s">
         <v>242</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>21.4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
       <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
         <v>230</v>
       </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
       <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>46</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>47</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>182</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>303</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>300</v>
       </c>
-      <c r="I29" t="s">
-        <v>155</v>
-      </c>
       <c r="J29" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" t="s">
         <v>242</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>9</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>18.7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
       <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
         <v>230</v>
       </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
       <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>127</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>128</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>129</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>303</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>300</v>
       </c>
-      <c r="I30" t="s">
-        <v>155</v>
-      </c>
       <c r="J30" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" t="s">
         <v>242</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>9</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>21.5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="J31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>14</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>21.7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>237</v>
       </c>
       <c r="B32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" t="s">
         <v>238</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>61</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>98</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>303</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>299</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>233</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>243</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
       <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
         <v>15.5</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>237</v>
       </c>
       <c r="B33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" t="s">
         <v>238</v>
       </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
       <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>16</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>303</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>300</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>233</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>243</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>3</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>15.9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>237</v>
       </c>
       <c r="B34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" t="s">
         <v>238</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>57</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>99</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>100</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>101</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>303</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>299</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>233</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>243</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>12</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>15.7</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>237</v>
       </c>
       <c r="B35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" t="s">
         <v>238</v>
       </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
       <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>4</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>303</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>300</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>233</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>243</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>6</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>15.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>237</v>
       </c>
       <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
         <v>238</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>10</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>93</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>94</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>95</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>303</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>299</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>233</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>243</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>2</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>13.7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>237</v>
       </c>
       <c r="B37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" t="s">
         <v>238</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>67</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>68</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>69</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>92</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>299</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>233</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>243</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>6</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>13.3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>237</v>
       </c>
       <c r="B38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" t="s">
         <v>238</v>
       </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
       <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>96</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>55</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>97</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>303</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>300</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>233</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>243</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>16</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>14.2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>237</v>
       </c>
       <c r="B39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" t="s">
         <v>238</v>
       </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
       <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
         <v>106</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>107</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>108</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>300</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>234</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>241</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>3</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>237</v>
       </c>
       <c r="B40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" t="s">
         <v>238</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>7</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>8</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>9</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>303</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>301</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>234</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>241</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>6</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>237</v>
       </c>
       <c r="B41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" t="s">
         <v>238</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>10</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>13</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>304</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>299</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>234</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>241</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>5</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>237</v>
       </c>
       <c r="B42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
         <v>238</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>109</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>110</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>111</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>112</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>303</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>299</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>234</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>241</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>3</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>237</v>
       </c>
       <c r="B43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" t="s">
         <v>238</v>
       </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
       <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>64</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>65</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>254</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>303</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>300</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>234</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>241</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>12</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>15.1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>237</v>
       </c>
       <c r="B44" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" t="s">
         <v>238</v>
       </c>
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
       <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>102</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>103</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>104</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>303</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>300</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>234</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>241</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>4</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>16.7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>2</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>237</v>
       </c>
       <c r="B46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" t="s">
         <v>296</v>
       </c>
-      <c r="C46" t="s">
-        <v>1</v>
-      </c>
       <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
         <v>58</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>59</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>88</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>303</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>300</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>138</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>244</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>10</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>14.2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>237</v>
       </c>
       <c r="B47" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" t="s">
         <v>296</v>
       </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
       <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>78</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>79</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>256</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>303</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>300</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>138</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>244</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>15</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>237</v>
       </c>
       <c r="B48" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" t="s">
         <v>296</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>57</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>75</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>76</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>257</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>303</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>299</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>138</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>244</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>25</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>11.7</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>237</v>
       </c>
       <c r="B49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" t="s">
         <v>296</v>
       </c>
-      <c r="C49" t="s">
-        <v>1</v>
-      </c>
       <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>89</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>90</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>91</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>303</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>300</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>138</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>244</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>237</v>
       </c>
       <c r="B50" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" t="s">
         <v>296</v>
       </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
       <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
         <v>81</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>82</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>258</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>303</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>300</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>138</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>244</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>11</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>12.1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>237</v>
       </c>
       <c r="B51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" t="s">
         <v>296</v>
       </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
       <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
         <v>72</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>73</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>74</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>303</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>300</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>138</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>244</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>14</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>11.4</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>237</v>
       </c>
       <c r="B52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" t="s">
         <v>296</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>84</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>85</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>86</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>259</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>303</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>299</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>138</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>244</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>4</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>12.7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>237</v>
       </c>
       <c r="B53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" t="s">
         <v>296</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>10</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>61</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>62</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>98</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>299</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>233</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>243</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
       <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
         <v>15.5</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>237</v>
       </c>
       <c r="B54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" t="s">
         <v>296</v>
       </c>
-      <c r="C54" t="s">
-        <v>1</v>
-      </c>
       <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>14</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>15</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>16</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>303</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>300</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>233</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>243</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>3</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>15.9</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>237</v>
       </c>
       <c r="B55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" t="s">
         <v>296</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>57</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>99</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>100</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>101</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>303</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>299</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>233</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>243</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>12</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>15.7</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>237</v>
       </c>
       <c r="B56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" t="s">
         <v>296</v>
       </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
       <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>2</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>3</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>4</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>303</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>300</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>233</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>243</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>6</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>15.5</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>237</v>
       </c>
       <c r="B57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" t="s">
         <v>296</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>93</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>94</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>95</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>303</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>299</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>233</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>243</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>2</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>13.7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>237</v>
       </c>
       <c r="B58" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" t="s">
         <v>296</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>67</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>68</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>69</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>92</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>303</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>299</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>233</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>243</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>6</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>13.3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>16</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <v>14.2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
       <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
         <v>235</v>
       </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
       <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
         <v>58</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>59</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>88</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>303</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>300</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>138</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>244</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>10</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>14.2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
       <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
         <v>235</v>
       </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
       <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
         <v>78</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>79</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>256</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>303</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>300</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>138</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>244</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>15</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>71</v>
       </c>
       <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
         <v>235</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>57</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>75</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>76</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>257</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>303</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>299</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>138</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>244</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>25</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>11.7</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
         <v>235</v>
       </c>
-      <c r="C63" t="s">
-        <v>1</v>
-      </c>
       <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>89</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>90</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>91</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>303</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>300</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>138</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>244</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>71</v>
       </c>
       <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
         <v>235</v>
       </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
       <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
         <v>81</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>82</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>258</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>303</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>300</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>138</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>244</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>11</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>12.1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
         <v>235</v>
       </c>
-      <c r="C65" t="s">
-        <v>1</v>
-      </c>
       <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>72</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>73</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>74</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>303</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>300</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>138</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>244</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>14</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>11.4</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
       <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
         <v>235</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>84</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>85</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>86</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>259</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>303</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>299</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>138</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>244</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>4</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>12.7</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
       <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
         <v>235</v>
       </c>
-      <c r="C67" t="s">
-        <v>1</v>
-      </c>
       <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
         <v>117</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>118</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>253</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>303</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>300</v>
       </c>
-      <c r="I67" t="s">
-        <v>155</v>
-      </c>
       <c r="J67" t="s">
+        <v>155</v>
+      </c>
+      <c r="K67" t="s">
         <v>242</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>12</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>18.3</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
         <v>235</v>
       </c>
-      <c r="C68" t="s">
-        <v>1</v>
-      </c>
       <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
         <v>124</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>125</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>255</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>303</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>300</v>
       </c>
-      <c r="I68" t="s">
-        <v>155</v>
-      </c>
       <c r="J68" t="s">
+        <v>155</v>
+      </c>
+      <c r="K68" t="s">
         <v>242</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>6</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>21.1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
         <v>235</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>120</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>121</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>122</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>123</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>303</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>299</v>
       </c>
-      <c r="I69" t="s">
-        <v>155</v>
-      </c>
       <c r="J69" t="s">
+        <v>155</v>
+      </c>
+      <c r="K69" t="s">
         <v>242</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>12</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
         <v>235</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>10</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>40</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>41</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>42</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>305</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>299</v>
       </c>
-      <c r="I70" t="s">
-        <v>155</v>
-      </c>
       <c r="J70" t="s">
+        <v>155</v>
+      </c>
+      <c r="K70" t="s">
         <v>242</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>2</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>21.4</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
         <v>235</v>
       </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
       <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
         <v>46</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>47</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>182</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>303</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>300</v>
       </c>
-      <c r="I71" t="s">
-        <v>155</v>
-      </c>
       <c r="J71" t="s">
+        <v>155</v>
+      </c>
+      <c r="K71" t="s">
         <v>242</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>9</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>18.7</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
         <v>235</v>
       </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
       <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
         <v>127</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>128</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>129</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>303</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>300</v>
       </c>
-      <c r="I72" t="s">
-        <v>155</v>
-      </c>
       <c r="J72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K72" t="s">
         <v>242</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>9</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>21.5</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="J73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L73" s="1">
         <v>14</v>
       </c>
-      <c r="L73" s="1">
+      <c r="M73" s="1">
         <v>21.7</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>224</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" t="s">
         <v>236</v>
       </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
       <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
         <v>151</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>118</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>253</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>300</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>138</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>245</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>10</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>20.25</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>224</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" t="s">
         <v>236</v>
       </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
       <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
         <v>139</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>140</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>141</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>303</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>300</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>138</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>245</v>
       </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
       <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
         <v>20.25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>224</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" t="s">
         <v>236</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>10</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>40</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>41</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>42</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>305</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>299</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>138</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>245</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>2</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>21.84</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>224</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" t="s">
         <v>236</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>49</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>50</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>51</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>274</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>303</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>299</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>138</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>245</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>2</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>19.86</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>224</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" t="s">
         <v>236</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>10</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>152</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>153</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>260</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>304</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>299</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>138</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>245</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>224</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" t="s">
         <v>236</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>143</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>144</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>145</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>146</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>303</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>301</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>138</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>245</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>0.5</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>21.94</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>224</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
         <v>236</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>147</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>148</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>149</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>150</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>303</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>299</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>138</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>245</v>
       </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
       <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
         <v>23.31</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>224</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" t="s">
         <v>236</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>134</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>135</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>136</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>137</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>304</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>299</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>138</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>245</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>2.5</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>17.97</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>224</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" t="s">
         <v>236</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>147</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>171</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>172</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>173</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>304</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>299</v>
       </c>
-      <c r="I82" t="s">
-        <v>155</v>
-      </c>
       <c r="J82" t="s">
+        <v>155</v>
+      </c>
+      <c r="K82" t="s">
         <v>246</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>6</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>23.52</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>224</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" t="s">
         <v>236</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>10</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>165</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>166</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>261</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>303</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>301</v>
       </c>
-      <c r="I83" t="s">
-        <v>155</v>
-      </c>
       <c r="J83" t="s">
+        <v>155</v>
+      </c>
+      <c r="K83" t="s">
         <v>246</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>3</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>23.38</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>224</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" t="s">
         <v>236</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>10</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>174</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>306</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>176</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>303</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>301</v>
       </c>
-      <c r="I84" t="s">
-        <v>155</v>
-      </c>
       <c r="J84" t="s">
+        <v>155</v>
+      </c>
+      <c r="K84" t="s">
         <v>246</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>224</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" t="s">
         <v>236</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>6</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>43</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>44</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>268</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>303</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>301</v>
       </c>
-      <c r="I85" t="s">
-        <v>155</v>
-      </c>
       <c r="J85" t="s">
+        <v>155</v>
+      </c>
+      <c r="K85" t="s">
         <v>246</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>4</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>22.5</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>224</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" t="s">
         <v>236</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>162</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>163</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>164</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>303</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>301</v>
       </c>
-      <c r="I86" t="s">
-        <v>155</v>
-      </c>
       <c r="J86" t="s">
+        <v>155</v>
+      </c>
+      <c r="K86" t="s">
         <v>246</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>2</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>23.33</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>224</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" t="s">
         <v>236</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>10</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>168</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>169</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>170</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>303</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>301</v>
       </c>
-      <c r="I87" t="s">
-        <v>155</v>
-      </c>
       <c r="J87" t="s">
+        <v>155</v>
+      </c>
+      <c r="K87" t="s">
         <v>246</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>2</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>23.38</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>224</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C88" t="s">
         <v>236</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>49</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>159</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>160</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>161</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>305</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>299</v>
       </c>
-      <c r="I88" t="s">
-        <v>155</v>
-      </c>
       <c r="J88" t="s">
+        <v>155</v>
+      </c>
+      <c r="K88" t="s">
         <v>246</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>23.18</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="J89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K89" s="1">
+      <c r="L89" s="1">
         <v>4</v>
       </c>
-      <c r="L89" s="1">
+      <c r="M89" s="1">
         <v>22.96</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>226</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" t="s">
         <v>250</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>10</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>186</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>187</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>262</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>303</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>301</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>138</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>251</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>5</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>22.89</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>226</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" t="s">
         <v>250</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>10</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>40</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>41</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>42</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>305</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>299</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>138</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>251</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>1.5</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>21.84</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>226</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" t="s">
         <v>250</v>
       </c>
-      <c r="C92" t="s">
-        <v>1</v>
-      </c>
       <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
         <v>189</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>190</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>307</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>303</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>300</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>138</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>251</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>4</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>22.87</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>226</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" t="s">
         <v>250</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>57</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>192</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>193</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>194</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>299</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>138</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>251</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>3</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>21.75</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>226</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" t="s">
         <v>250</v>
       </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
       <c r="D94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
         <v>195</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>196</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>263</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>303</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>300</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>138</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>251</v>
       </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
       <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
         <v>20.86</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>226</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" t="s">
         <v>250</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>198</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>199</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>200</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>264</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>304</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>299</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>138</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>251</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>2</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>21.66</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>226</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s">
         <v>250</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>84</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>156</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>157</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>158</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>303</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>299</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>138</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>251</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>1.5</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>22.96</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>226</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
         <v>250</v>
       </c>
-      <c r="C97" t="s">
-        <v>1</v>
-      </c>
       <c r="D97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
         <v>17</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>18</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>19</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>303</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>300</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>138</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>251</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>1.5</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>226</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" t="s">
         <v>250</v>
       </c>
-      <c r="C98" t="s">
-        <v>1</v>
-      </c>
       <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
         <v>124</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>125</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>255</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>303</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>300</v>
       </c>
-      <c r="I98" t="s">
-        <v>155</v>
-      </c>
       <c r="J98" t="s">
+        <v>155</v>
+      </c>
+      <c r="K98" t="s">
         <v>252</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>3</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>23.46</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>226</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" t="s">
         <v>250</v>
       </c>
-      <c r="C99" t="s">
-        <v>1</v>
-      </c>
       <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
         <v>212</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>213</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>265</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>304</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>300</v>
       </c>
-      <c r="I99" t="s">
-        <v>155</v>
-      </c>
       <c r="J99" t="s">
+        <v>155</v>
+      </c>
+      <c r="K99" t="s">
         <v>252</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>3</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>24.88</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>226</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" t="s">
         <v>250</v>
       </c>
-      <c r="C100" t="s">
-        <v>1</v>
-      </c>
       <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
         <v>215</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>216</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>312</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>303</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>300</v>
       </c>
-      <c r="I100" t="s">
-        <v>155</v>
-      </c>
       <c r="J100" t="s">
+        <v>155</v>
+      </c>
+      <c r="K100" t="s">
         <v>252</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>2</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>24.2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>226</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" t="s">
         <v>250</v>
       </c>
-      <c r="C101" t="s">
-        <v>1</v>
-      </c>
       <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
         <v>46</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>47</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>182</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>303</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>300</v>
       </c>
-      <c r="I101" t="s">
-        <v>155</v>
-      </c>
       <c r="J101" t="s">
+        <v>155</v>
+      </c>
+      <c r="K101" t="s">
         <v>252</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>3</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>23.15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>226</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" t="s">
         <v>250</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>57</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>205</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>206</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>266</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>303</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>301</v>
       </c>
-      <c r="I102" t="s">
-        <v>155</v>
-      </c>
       <c r="J102" t="s">
+        <v>155</v>
+      </c>
+      <c r="K102" t="s">
         <v>252</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>5</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>23.97</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>226</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" t="s">
         <v>250</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>10</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>168</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>169</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>170</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>303</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>301</v>
       </c>
-      <c r="I103" t="s">
-        <v>155</v>
-      </c>
       <c r="J103" t="s">
+        <v>155</v>
+      </c>
+      <c r="K103" t="s">
         <v>252</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>2</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>23.38</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>226</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C104" t="s">
         <v>250</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>109</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>208</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>209</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>267</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>304</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>299</v>
       </c>
-      <c r="I104" t="s">
-        <v>155</v>
-      </c>
       <c r="J104" t="s">
+        <v>155</v>
+      </c>
+      <c r="K104" t="s">
         <v>252</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>1.5</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>23.5</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="I105" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="J105" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K105" s="1">
+      <c r="L105" s="1">
         <v>2</v>
       </c>
-      <c r="L105" s="1">
+      <c r="M105" s="1">
         <v>23.83</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>225</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" t="s">
         <v>249</v>
       </c>
-      <c r="C106" t="s">
-        <v>1</v>
-      </c>
       <c r="D106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
         <v>14</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>15</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>16</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>303</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>300</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>231</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>247</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>9</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>18.63</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>225</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C107" t="s">
         <v>249</v>
       </c>
-      <c r="C107" t="s">
-        <v>1</v>
-      </c>
       <c r="D107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
         <v>2</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>3</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>4</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>303</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>300</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>231</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>247</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>12</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>16.25</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>225</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" t="s">
         <v>249</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>10</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>93</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>94</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>95</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>303</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>299</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>231</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>247</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>2</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>13.7</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>225</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" t="s">
         <v>249</v>
       </c>
-      <c r="C109" t="s">
-        <v>1</v>
-      </c>
       <c r="D109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
         <v>113</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>114</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>115</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>303</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>300</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>231</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>247</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>225</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" t="s">
         <v>249</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>10</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>11</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>12</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>178</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>304</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>299</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>231</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>247</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>5</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>17.97</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>225</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s">
         <v>249</v>
       </c>
-      <c r="C111" t="s">
-        <v>1</v>
-      </c>
       <c r="D111" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
         <v>102</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>103</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>177</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>303</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>300</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>231</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>247</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>4</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>16.7</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>225</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="s">
         <v>249</v>
       </c>
-      <c r="C112" t="s">
-        <v>1</v>
-      </c>
       <c r="D112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
         <v>17</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>18</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>19</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>303</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>300</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>231</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>247</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>2</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>225</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" t="s">
         <v>249</v>
       </c>
-      <c r="C113" t="s">
-        <v>1</v>
-      </c>
       <c r="D113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
         <v>124</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>125</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>255</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>303</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>300</v>
       </c>
-      <c r="I113" t="s">
-        <v>155</v>
-      </c>
       <c r="J113" t="s">
+        <v>155</v>
+      </c>
+      <c r="K113" t="s">
         <v>248</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>6</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>21.1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>225</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" t="s">
         <v>249</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>120</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>121</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>122</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>181</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>303</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>299</v>
       </c>
-      <c r="I114" t="s">
-        <v>155</v>
-      </c>
       <c r="J114" t="s">
+        <v>155</v>
+      </c>
+      <c r="K114" t="s">
         <v>248</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <v>10</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>225</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" t="s">
         <v>249</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>10</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>40</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>41</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>42</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>305</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>299</v>
       </c>
-      <c r="I115" t="s">
-        <v>155</v>
-      </c>
       <c r="J115" t="s">
+        <v>155</v>
+      </c>
+      <c r="K115" t="s">
         <v>248</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>2</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>21.84</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>225</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" t="s">
         <v>249</v>
       </c>
-      <c r="C116" t="s">
-        <v>1</v>
-      </c>
       <c r="D116" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
         <v>46</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>47</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>182</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>303</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>300</v>
       </c>
-      <c r="I116" t="s">
-        <v>155</v>
-      </c>
       <c r="J116" t="s">
+        <v>155</v>
+      </c>
+      <c r="K116" t="s">
         <v>248</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>9</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>23.15</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>225</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" t="s">
         <v>249</v>
       </c>
-      <c r="C117" t="s">
-        <v>1</v>
-      </c>
       <c r="D117" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
         <v>179</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>65</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>254</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>303</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>300</v>
       </c>
-      <c r="I117" t="s">
-        <v>155</v>
-      </c>
       <c r="J117" t="s">
+        <v>155</v>
+      </c>
+      <c r="K117" t="s">
         <v>248</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>12</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>15.97</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>225</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" t="s">
         <v>249</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>109</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>110</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>111</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>112</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>303</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>299</v>
       </c>
-      <c r="I118" t="s">
-        <v>155</v>
-      </c>
       <c r="J118" t="s">
+        <v>155</v>
+      </c>
+      <c r="K118" t="s">
         <v>248</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>3</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="I119" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="J119" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K119" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K119" s="1">
+      <c r="L119" s="1">
         <v>14</v>
       </c>
-      <c r="L119" s="1">
+      <c r="M119" s="1">
         <v>21.7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:L31">
-    <sortCondition ref="D25:D31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:M31">
+    <sortCondition ref="E25:E31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="920" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77445C1B-65DA-4390-A55D-C33432C71040}"/>
+  <xr:revisionPtr revIDLastSave="922" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84B82025-A6A7-4364-AA6D-DEEC8159A41C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
@@ -1040,11 +1040,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4435,8 +4433,8 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7446,7 +7444,7 @@
       <c r="A74" t="s">
         <v>224</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>224</v>
       </c>
       <c r="C74" t="s">
@@ -7487,7 +7485,7 @@
       <c r="A75" t="s">
         <v>224</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>224</v>
       </c>
       <c r="C75" t="s">
@@ -7528,7 +7526,7 @@
       <c r="A76" t="s">
         <v>224</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>224</v>
       </c>
       <c r="C76" t="s">
@@ -7569,7 +7567,7 @@
       <c r="A77" t="s">
         <v>224</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>224</v>
       </c>
       <c r="C77" t="s">
@@ -7610,7 +7608,7 @@
       <c r="A78" t="s">
         <v>224</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>224</v>
       </c>
       <c r="C78" t="s">
@@ -7648,7 +7646,7 @@
       <c r="A79" t="s">
         <v>224</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>224</v>
       </c>
       <c r="C79" t="s">
@@ -7689,7 +7687,7 @@
       <c r="A80" t="s">
         <v>224</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>224</v>
       </c>
       <c r="C80" t="s">
@@ -7730,7 +7728,7 @@
       <c r="A81" t="s">
         <v>224</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>224</v>
       </c>
       <c r="C81" t="s">
@@ -7771,7 +7769,7 @@
       <c r="A82" t="s">
         <v>224</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>224</v>
       </c>
       <c r="C82" t="s">
@@ -7812,7 +7810,7 @@
       <c r="A83" t="s">
         <v>224</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>224</v>
       </c>
       <c r="C83" t="s">
@@ -7853,7 +7851,7 @@
       <c r="A84" t="s">
         <v>224</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>224</v>
       </c>
       <c r="C84" t="s">
@@ -7891,7 +7889,7 @@
       <c r="A85" t="s">
         <v>224</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>224</v>
       </c>
       <c r="C85" t="s">
@@ -7932,7 +7930,7 @@
       <c r="A86" t="s">
         <v>224</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>224</v>
       </c>
       <c r="C86" t="s">
@@ -7973,7 +7971,7 @@
       <c r="A87" t="s">
         <v>224</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>224</v>
       </c>
       <c r="C87" t="s">
@@ -8014,7 +8012,7 @@
       <c r="A88" t="s">
         <v>224</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>224</v>
       </c>
       <c r="C88" t="s">
@@ -8055,7 +8053,7 @@
       <c r="A89" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -8096,7 +8094,7 @@
       <c r="A90" t="s">
         <v>226</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>226</v>
       </c>
       <c r="C90" t="s">
@@ -8137,7 +8135,7 @@
       <c r="A91" t="s">
         <v>226</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>226</v>
       </c>
       <c r="C91" t="s">
@@ -8178,7 +8176,7 @@
       <c r="A92" t="s">
         <v>226</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>226</v>
       </c>
       <c r="C92" t="s">
@@ -8219,7 +8217,7 @@
       <c r="A93" t="s">
         <v>226</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>226</v>
       </c>
       <c r="C93" t="s">
@@ -8260,7 +8258,7 @@
       <c r="A94" t="s">
         <v>226</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>226</v>
       </c>
       <c r="C94" t="s">
@@ -8301,7 +8299,7 @@
       <c r="A95" t="s">
         <v>226</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
         <v>226</v>
       </c>
       <c r="C95" t="s">
@@ -8342,7 +8340,7 @@
       <c r="A96" t="s">
         <v>226</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>226</v>
       </c>
       <c r="C96" t="s">
@@ -8383,7 +8381,7 @@
       <c r="A97" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>226</v>
       </c>
       <c r="C97" t="s">
@@ -8424,7 +8422,7 @@
       <c r="A98" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>226</v>
       </c>
       <c r="C98" t="s">
@@ -8465,7 +8463,7 @@
       <c r="A99" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>226</v>
       </c>
       <c r="C99" t="s">
@@ -8506,7 +8504,7 @@
       <c r="A100" t="s">
         <v>226</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>226</v>
       </c>
       <c r="C100" t="s">
@@ -8547,7 +8545,7 @@
       <c r="A101" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>226</v>
       </c>
       <c r="C101" t="s">
@@ -8588,7 +8586,7 @@
       <c r="A102" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>226</v>
       </c>
       <c r="C102" t="s">
@@ -8629,7 +8627,7 @@
       <c r="A103" t="s">
         <v>226</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
         <v>226</v>
       </c>
       <c r="C103" t="s">
@@ -8670,7 +8668,7 @@
       <c r="A104" t="s">
         <v>226</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>226</v>
       </c>
       <c r="C104" t="s">
@@ -8711,7 +8709,7 @@
       <c r="A105" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -8752,7 +8750,7 @@
       <c r="A106" t="s">
         <v>225</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>225</v>
       </c>
       <c r="C106" t="s">
@@ -8793,7 +8791,7 @@
       <c r="A107" t="s">
         <v>225</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>225</v>
       </c>
       <c r="C107" t="s">
@@ -8834,7 +8832,7 @@
       <c r="A108" t="s">
         <v>225</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
         <v>225</v>
       </c>
       <c r="C108" t="s">
@@ -8875,7 +8873,7 @@
       <c r="A109" t="s">
         <v>225</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
         <v>225</v>
       </c>
       <c r="C109" t="s">
@@ -8913,7 +8911,7 @@
       <c r="A110" t="s">
         <v>225</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>225</v>
       </c>
       <c r="C110" t="s">
@@ -8954,7 +8952,7 @@
       <c r="A111" t="s">
         <v>225</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
         <v>225</v>
       </c>
       <c r="C111" t="s">
@@ -8995,7 +8993,7 @@
       <c r="A112" t="s">
         <v>225</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>225</v>
       </c>
       <c r="C112" t="s">
@@ -9036,7 +9034,7 @@
       <c r="A113" t="s">
         <v>225</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" t="s">
         <v>225</v>
       </c>
       <c r="C113" t="s">
@@ -9077,7 +9075,7 @@
       <c r="A114" t="s">
         <v>225</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
         <v>225</v>
       </c>
       <c r="C114" t="s">
@@ -9118,7 +9116,7 @@
       <c r="A115" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s">
         <v>225</v>
       </c>
       <c r="C115" t="s">
@@ -9159,7 +9157,7 @@
       <c r="A116" t="s">
         <v>225</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
         <v>225</v>
       </c>
       <c r="C116" t="s">
@@ -9200,7 +9198,7 @@
       <c r="A117" t="s">
         <v>225</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" t="s">
         <v>225</v>
       </c>
       <c r="C117" t="s">
@@ -9241,7 +9239,7 @@
       <c r="A118" t="s">
         <v>225</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
         <v>225</v>
       </c>
       <c r="C118" t="s">
@@ -9282,7 +9280,7 @@
       <c r="A119" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C119" s="1" t="s">

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="922" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84B82025-A6A7-4364-AA6D-DEEC8159A41C}"/>
+  <xr:revisionPtr revIDLastSave="929" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56521DEA-C85B-4FC6-AC42-704F22EE6396}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
@@ -1002,10 +1002,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1040,9 +1046,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4433,8 +4441,8 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5453,7 +5461,7 @@
       <c r="E25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G25" t="s">
@@ -5494,7 +5502,7 @@
       <c r="E26" t="s">
         <v>124</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G26" t="s">
@@ -5535,7 +5543,7 @@
       <c r="E27" t="s">
         <v>121</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G27" t="s">
@@ -5576,7 +5584,7 @@
       <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G28" t="s">
@@ -5617,7 +5625,7 @@
       <c r="E29" t="s">
         <v>46</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G29" t="s">
@@ -5658,7 +5666,7 @@
       <c r="E30" t="s">
         <v>127</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>128</v>
       </c>
       <c r="G30" t="s">
@@ -5699,7 +5707,7 @@
       <c r="E31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -5740,7 +5748,7 @@
       <c r="E32" t="s">
         <v>61</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G32" t="s">
@@ -5781,7 +5789,7 @@
       <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
@@ -5822,7 +5830,7 @@
       <c r="E34" t="s">
         <v>99</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G34" t="s">
@@ -5863,7 +5871,7 @@
       <c r="E35" t="s">
         <v>2</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G35" t="s">
@@ -5904,7 +5912,7 @@
       <c r="E36" t="s">
         <v>93</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G36" t="s">
@@ -5945,7 +5953,7 @@
       <c r="E37" t="s">
         <v>68</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G37" t="s">
@@ -5986,7 +5994,7 @@
       <c r="E38" t="s">
         <v>96</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G38" t="s">
@@ -6027,7 +6035,7 @@
       <c r="E39" t="s">
         <v>106</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G39" t="s">
@@ -6068,7 +6076,7 @@
       <c r="E40" t="s">
         <v>7</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G40" t="s">
@@ -6109,7 +6117,7 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
@@ -6150,7 +6158,7 @@
       <c r="E42" t="s">
         <v>110</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G42" t="s">
@@ -6191,7 +6199,7 @@
       <c r="E43" t="s">
         <v>64</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G43" t="s">
@@ -6232,7 +6240,7 @@
       <c r="E44" t="s">
         <v>102</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G44" t="s">
@@ -6273,7 +6281,7 @@
       <c r="E45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6314,7 +6322,7 @@
       <c r="E46" t="s">
         <v>58</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G46" t="s">
@@ -6355,7 +6363,7 @@
       <c r="E47" t="s">
         <v>78</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G47" t="s">
@@ -6396,7 +6404,7 @@
       <c r="E48" t="s">
         <v>75</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G48" t="s">
@@ -6437,7 +6445,7 @@
       <c r="E49" t="s">
         <v>89</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G49" t="s">
@@ -6475,7 +6483,7 @@
       <c r="E50" t="s">
         <v>81</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G50" t="s">
@@ -6516,7 +6524,7 @@
       <c r="E51" t="s">
         <v>72</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G51" t="s">

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="929" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56521DEA-C85B-4FC6-AC42-704F22EE6396}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
@@ -4441,8 +4441,8 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="929" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56521DEA-C85B-4FC6-AC42-704F22EE6396}"/>
+  <xr:revisionPtr revIDLastSave="1014" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B4B36E-E7DB-433B-883F-219CE80B2DC6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
     <sheet name="with-site" sheetId="3" r:id="rId2"/>
     <sheet name="with-site_R" sheetId="4" r:id="rId3"/>
     <sheet name="with-site_R (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sonoran &amp; N AZ" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7195" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7864" uniqueCount="335">
   <si>
     <t>Family</t>
   </si>
@@ -996,6 +997,72 @@
   </si>
   <si>
     <t>Rothrock's grama</t>
+  </si>
+  <si>
+    <t>Northern Arizona</t>
+  </si>
+  <si>
+    <t>BarTBar | FlyingM</t>
+  </si>
+  <si>
+    <t>AguaFria, MOWE | PEFO, Spiderweb</t>
+  </si>
+  <si>
+    <t>AZ/NM Mountains | Plateau</t>
+  </si>
+  <si>
+    <t>Med-Warm_NAZ</t>
+  </si>
+  <si>
+    <t>Warm_NAZ</t>
+  </si>
+  <si>
+    <t>Cool-Med_NAZ</t>
+  </si>
+  <si>
+    <t>Cool_NAZ</t>
+  </si>
+  <si>
+    <t>Level III Ecoregion</t>
+  </si>
+  <si>
+    <t>Scientific name</t>
+  </si>
+  <si>
+    <t>Common name</t>
+  </si>
+  <si>
+    <t>Niche value</t>
+  </si>
+  <si>
+    <t>Sonoran Desert</t>
+  </si>
+  <si>
+    <t>Sonoran Desert Basin &amp; Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrean Archipelago </t>
+  </si>
+  <si>
+    <t>AZ/NM Mountains</t>
+  </si>
+  <si>
+    <t>AZ/NM Plateau</t>
+  </si>
+  <si>
+    <t>Seeding rate (lbs/acre)</t>
+  </si>
+  <si>
+    <t>Current_BR</t>
+  </si>
+  <si>
+    <t>Projected_BR</t>
+  </si>
+  <si>
+    <t>Current_MA</t>
+  </si>
+  <si>
+    <t>Projected_MA</t>
   </si>
 </sst>
 </file>
@@ -1046,11 +1113,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,13 +1227,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>81915</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
@@ -4438,4896 +4513,4538 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AACCC2-25F8-47C0-AE4C-0CA6CA3F7938}">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G1" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="H1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I1" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="K1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="L1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K2" t="s">
         <v>271</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
         <v>15.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I3" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K3" t="s">
         <v>271</v>
       </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
       <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
         <v>14.2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K4" t="s">
         <v>271</v>
       </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
       <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
         <v>11.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>303</v>
-      </c>
-      <c r="I5" t="s">
-        <v>301</v>
-      </c>
-      <c r="J5" t="s">
-        <v>231</v>
-      </c>
-      <c r="K5" t="s">
-        <v>271</v>
-      </c>
       <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
         <v>17.72</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I6" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K6" t="s">
         <v>271</v>
       </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
       <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
         <v>17.97</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="H7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I7" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K7" t="s">
         <v>271</v>
       </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
       <c r="L7">
-        <v>12</v>
-      </c>
-      <c r="M7">
         <v>15.95</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="H8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="J8" t="s">
-        <v>231</v>
-      </c>
-      <c r="K8" t="s">
         <v>271</v>
       </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
       <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
         <v>15.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="H9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I9" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="J9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K9" t="s">
         <v>271</v>
       </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
       <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="H10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" t="s">
         <v>272</v>
       </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
       <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I11" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" t="s">
         <v>272</v>
       </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
       <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
         <v>21.84</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="H12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I12" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J12" t="s">
-        <v>155</v>
-      </c>
-      <c r="K12" t="s">
         <v>272</v>
       </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
       <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="H13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I13" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" t="s">
         <v>272</v>
       </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
       <c r="L13">
-        <v>9</v>
-      </c>
-      <c r="M13">
         <v>23.15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" t="s">
+        <v>299</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>273</v>
-      </c>
-      <c r="H14" t="s">
-        <v>305</v>
-      </c>
-      <c r="I14" t="s">
-        <v>299</v>
-      </c>
-      <c r="J14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" t="s">
-        <v>272</v>
-      </c>
       <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="H15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I15" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" t="s">
         <v>272</v>
       </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
       <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
         <v>20.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="H16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" t="s">
         <v>272</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
         <v>20.5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
       <c r="L17" s="1">
-        <v>4</v>
-      </c>
-      <c r="M17" s="1">
         <v>21.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I18" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="J18" t="s">
-        <v>234</v>
-      </c>
-      <c r="K18" t="s">
         <v>241</v>
       </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
       <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>303</v>
+      </c>
+      <c r="H19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I19" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" t="s">
+        <v>241</v>
+      </c>
+      <c r="K19">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
-        <v>303</v>
-      </c>
-      <c r="I19" t="s">
-        <v>301</v>
-      </c>
-      <c r="J19" t="s">
-        <v>234</v>
-      </c>
-      <c r="K19" t="s">
-        <v>241</v>
-      </c>
       <c r="L19">
-        <v>6</v>
-      </c>
-      <c r="M19">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="H20" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="J20" t="s">
-        <v>234</v>
-      </c>
-      <c r="K20" t="s">
         <v>241</v>
       </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
       <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>303</v>
       </c>
       <c r="H21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K21" t="s">
         <v>241</v>
       </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
       <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="G22" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="H22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>234</v>
-      </c>
-      <c r="K22" t="s">
         <v>241</v>
       </c>
+      <c r="K22">
+        <v>12</v>
+      </c>
       <c r="L22">
-        <v>12</v>
-      </c>
-      <c r="M22">
         <v>15.1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="H23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I23" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="J23" t="s">
-        <v>234</v>
-      </c>
-      <c r="K23" t="s">
         <v>241</v>
       </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
       <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23">
         <v>16.7</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="H24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I24" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
-      </c>
-      <c r="K24" t="s">
         <v>241</v>
       </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
       <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="F25" t="s">
+        <v>253</v>
+      </c>
       <c r="G25" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="H25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I25" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J25" t="s">
-        <v>155</v>
-      </c>
-      <c r="K25" t="s">
         <v>242</v>
       </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
       <c r="L25">
-        <v>12</v>
-      </c>
-      <c r="M25">
         <v>18.3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
       <c r="G26" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="H26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I26" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J26" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" t="s">
         <v>242</v>
       </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
       <c r="L26">
-        <v>6</v>
-      </c>
-      <c r="M26">
         <v>21.1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="F27" t="s">
+        <v>123</v>
+      </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="H27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I27" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>155</v>
-      </c>
-      <c r="K27" t="s">
         <v>242</v>
       </c>
+      <c r="K27">
+        <v>12</v>
+      </c>
       <c r="L27">
-        <v>12</v>
-      </c>
-      <c r="M27">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="H28" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I28" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J28" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" t="s">
         <v>242</v>
       </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
       <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="M28">
         <v>21.4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="H29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I29" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J29" t="s">
-        <v>155</v>
-      </c>
-      <c r="K29" t="s">
         <v>242</v>
       </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
       <c r="L29">
-        <v>9</v>
-      </c>
-      <c r="M29">
         <v>18.7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
       <c r="G30" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="H30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I30" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s">
-        <v>155</v>
-      </c>
-      <c r="K30" t="s">
         <v>242</v>
       </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
       <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
         <v>21.5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K31" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="K31" s="1">
+        <v>14</v>
+      </c>
       <c r="L31" s="1">
-        <v>14</v>
-      </c>
-      <c r="M31" s="1">
         <v>21.7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>237</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="F32" t="s">
+        <v>98</v>
+      </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="H32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
-      </c>
-      <c r="K32" t="s">
         <v>243</v>
       </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
       <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
         <v>15.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>237</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="H33" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K33" t="s">
         <v>243</v>
       </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
       <c r="L33">
-        <v>3</v>
-      </c>
-      <c r="M33">
         <v>15.9</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
       <c r="G34" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="H34" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="J34" t="s">
-        <v>233</v>
-      </c>
-      <c r="K34" t="s">
         <v>243</v>
       </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
       <c r="L34">
-        <v>12</v>
-      </c>
-      <c r="M34">
         <v>15.7</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>237</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
       <c r="G35" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="H35" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="J35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K35" t="s">
         <v>243</v>
       </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
       <c r="L35">
-        <v>6</v>
-      </c>
-      <c r="M35">
         <v>15.5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>237</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="H36" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="J36" t="s">
-        <v>233</v>
-      </c>
-      <c r="K36" t="s">
         <v>243</v>
       </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
       <c r="L36">
-        <v>2</v>
-      </c>
-      <c r="M36">
         <v>13.7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="H37" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I37" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="J37" t="s">
-        <v>233</v>
-      </c>
-      <c r="K37" t="s">
         <v>243</v>
       </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
       <c r="L37">
-        <v>6</v>
-      </c>
-      <c r="M37">
         <v>13.3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
       <c r="G38" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="H38" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I38" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="J38" t="s">
-        <v>233</v>
-      </c>
-      <c r="K38" t="s">
         <v>243</v>
       </c>
+      <c r="K38">
+        <v>16</v>
+      </c>
       <c r="L38">
-        <v>16</v>
-      </c>
-      <c r="M38">
         <v>14.2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
       <c r="G39" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="H39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I39" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="J39" t="s">
-        <v>234</v>
-      </c>
-      <c r="K39" t="s">
         <v>241</v>
       </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
       <c r="L39">
-        <v>3</v>
-      </c>
-      <c r="M39">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>237</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>303</v>
+      </c>
+      <c r="H40" t="s">
+        <v>301</v>
+      </c>
+      <c r="I40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J40" t="s">
+        <v>241</v>
+      </c>
+      <c r="K40">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
-        <v>303</v>
-      </c>
-      <c r="I40" t="s">
-        <v>301</v>
-      </c>
-      <c r="J40" t="s">
-        <v>234</v>
-      </c>
-      <c r="K40" t="s">
-        <v>241</v>
-      </c>
       <c r="L40">
-        <v>6</v>
-      </c>
-      <c r="M40">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>237</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="H41" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I41" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="J41" t="s">
-        <v>234</v>
-      </c>
-      <c r="K41" t="s">
         <v>241</v>
       </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
       <c r="L41">
-        <v>5</v>
-      </c>
-      <c r="M41">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>237</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="F42" t="s">
+        <v>112</v>
+      </c>
       <c r="G42" t="s">
-        <v>112</v>
+        <v>303</v>
       </c>
       <c r="H42" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I42" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="J42" t="s">
-        <v>234</v>
-      </c>
-      <c r="K42" t="s">
         <v>241</v>
       </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
       <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>237</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="F43" t="s">
+        <v>254</v>
+      </c>
       <c r="G43" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="H43" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I43" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="J43" t="s">
-        <v>234</v>
-      </c>
-      <c r="K43" t="s">
         <v>241</v>
       </c>
+      <c r="K43">
+        <v>12</v>
+      </c>
       <c r="L43">
-        <v>12</v>
-      </c>
-      <c r="M43">
         <v>15.1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>237</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="H44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I44" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="J44" t="s">
-        <v>234</v>
-      </c>
-      <c r="K44" t="s">
         <v>241</v>
       </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
       <c r="L44">
-        <v>4</v>
-      </c>
-      <c r="M44">
         <v>16.7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G45" s="1" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K45" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="K45" s="1">
+        <v>2</v>
+      </c>
       <c r="L45" s="1">
-        <v>2</v>
-      </c>
-      <c r="M45" s="1">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>237</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="H46" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I46" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J46" t="s">
-        <v>138</v>
-      </c>
-      <c r="K46" t="s">
         <v>244</v>
       </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
       <c r="L46">
-        <v>10</v>
-      </c>
-      <c r="M46">
         <v>14.2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>237</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F47" t="s">
+        <v>256</v>
+      </c>
       <c r="G47" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H47" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I47" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J47" t="s">
-        <v>138</v>
-      </c>
-      <c r="K47" t="s">
         <v>244</v>
       </c>
+      <c r="K47">
+        <v>15</v>
+      </c>
       <c r="L47">
-        <v>15</v>
-      </c>
-      <c r="M47">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>237</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C48" t="s">
-        <v>296</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="F48" t="s">
+        <v>257</v>
+      </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="H48" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I48" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J48" t="s">
-        <v>138</v>
-      </c>
-      <c r="K48" t="s">
         <v>244</v>
       </c>
+      <c r="K48">
+        <v>25</v>
+      </c>
       <c r="L48">
-        <v>25</v>
-      </c>
-      <c r="M48">
         <v>11.7</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>237</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="F49" t="s">
+        <v>91</v>
+      </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>303</v>
       </c>
       <c r="H49" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I49" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J49" t="s">
-        <v>138</v>
-      </c>
-      <c r="K49" t="s">
         <v>244</v>
       </c>
-      <c r="L49">
+      <c r="K49">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C50" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="F50" t="s">
+        <v>258</v>
+      </c>
       <c r="G50" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="H50" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I50" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J50" t="s">
-        <v>138</v>
-      </c>
-      <c r="K50" t="s">
         <v>244</v>
       </c>
+      <c r="K50">
+        <v>11</v>
+      </c>
       <c r="L50">
-        <v>11</v>
-      </c>
-      <c r="M50">
         <v>12.1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>237</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="F51" t="s">
+        <v>74</v>
+      </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="H51" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I51" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J51" t="s">
-        <v>138</v>
-      </c>
-      <c r="K51" t="s">
         <v>244</v>
       </c>
+      <c r="K51">
+        <v>14</v>
+      </c>
       <c r="L51">
-        <v>14</v>
-      </c>
-      <c r="M51">
         <v>11.4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>237</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="G52" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="H52" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I52" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J52" t="s">
-        <v>138</v>
-      </c>
-      <c r="K52" t="s">
         <v>244</v>
       </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
       <c r="L52">
-        <v>4</v>
-      </c>
-      <c r="M52">
         <v>12.7</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>237</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C53" t="s">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="H53" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I53" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="J53" t="s">
-        <v>233</v>
-      </c>
-      <c r="K53" t="s">
         <v>243</v>
       </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
       <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
         <v>15.5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>237</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C54" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="H54" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I54" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="J54" t="s">
-        <v>233</v>
-      </c>
-      <c r="K54" t="s">
         <v>243</v>
       </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
       <c r="L54">
-        <v>3</v>
-      </c>
-      <c r="M54">
         <v>15.9</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G55" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="H55" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I55" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="J55" t="s">
-        <v>233</v>
-      </c>
-      <c r="K55" t="s">
         <v>243</v>
       </c>
+      <c r="K55">
+        <v>12</v>
+      </c>
       <c r="L55">
-        <v>12</v>
-      </c>
-      <c r="M55">
         <v>15.7</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>237</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="H56" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I56" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="J56" t="s">
-        <v>233</v>
-      </c>
-      <c r="K56" t="s">
         <v>243</v>
       </c>
+      <c r="K56">
+        <v>6</v>
+      </c>
       <c r="L56">
-        <v>6</v>
-      </c>
-      <c r="M56">
         <v>15.5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>237</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="H57" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I57" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="J57" t="s">
-        <v>233</v>
-      </c>
-      <c r="K57" t="s">
         <v>243</v>
       </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
       <c r="L57">
-        <v>2</v>
-      </c>
-      <c r="M57">
         <v>13.7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>237</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C58" t="s">
-        <v>296</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="H58" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I58" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="J58" t="s">
-        <v>233</v>
-      </c>
-      <c r="K58" t="s">
         <v>243</v>
       </c>
+      <c r="K58">
+        <v>6</v>
+      </c>
       <c r="L58">
-        <v>6</v>
-      </c>
-      <c r="M58">
         <v>13.3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K59" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="K59" s="1">
+        <v>16</v>
+      </c>
       <c r="L59" s="1">
-        <v>16</v>
-      </c>
-      <c r="M59" s="1">
         <v>14.2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="H60" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I60" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J60" t="s">
-        <v>138</v>
-      </c>
-      <c r="K60" t="s">
         <v>244</v>
       </c>
+      <c r="K60">
+        <v>10</v>
+      </c>
       <c r="L60">
-        <v>10</v>
-      </c>
-      <c r="M60">
         <v>14.2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="G61" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="H61" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I61" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J61" t="s">
-        <v>138</v>
-      </c>
-      <c r="K61" t="s">
         <v>244</v>
       </c>
+      <c r="K61">
+        <v>15</v>
+      </c>
       <c r="L61">
-        <v>15</v>
-      </c>
-      <c r="M61">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="G62" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="H62" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I62" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J62" t="s">
-        <v>138</v>
-      </c>
-      <c r="K62" t="s">
         <v>244</v>
       </c>
+      <c r="K62">
+        <v>25</v>
+      </c>
       <c r="L62">
-        <v>25</v>
-      </c>
-      <c r="M62">
         <v>11.7</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s">
-        <v>91</v>
+        <v>303</v>
       </c>
       <c r="H63" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I63" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J63" t="s">
-        <v>138</v>
-      </c>
-      <c r="K63" t="s">
         <v>244</v>
       </c>
-      <c r="L63">
+      <c r="K63">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="H64" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I64" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J64" t="s">
-        <v>138</v>
-      </c>
-      <c r="K64" t="s">
         <v>244</v>
       </c>
+      <c r="K64">
+        <v>11</v>
+      </c>
       <c r="L64">
-        <v>11</v>
-      </c>
-      <c r="M64">
         <v>12.1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="H65" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I65" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J65" t="s">
-        <v>138</v>
-      </c>
-      <c r="K65" t="s">
         <v>244</v>
       </c>
+      <c r="K65">
+        <v>14</v>
+      </c>
       <c r="L65">
-        <v>14</v>
-      </c>
-      <c r="M65">
         <v>11.4</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C66" t="s">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="H66" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I66" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J66" t="s">
-        <v>138</v>
-      </c>
-      <c r="K66" t="s">
         <v>244</v>
       </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
       <c r="L66">
-        <v>4</v>
-      </c>
-      <c r="M66">
         <v>12.7</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="G67" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="H67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I67" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J67" t="s">
-        <v>155</v>
-      </c>
-      <c r="K67" t="s">
         <v>242</v>
       </c>
+      <c r="K67">
+        <v>12</v>
+      </c>
       <c r="L67">
-        <v>12</v>
-      </c>
-      <c r="M67">
         <v>18.3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C68" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="G68" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="H68" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I68" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J68" t="s">
-        <v>155</v>
-      </c>
-      <c r="K68" t="s">
         <v>242</v>
       </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
       <c r="L68">
-        <v>6</v>
-      </c>
-      <c r="M68">
         <v>21.1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C69" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G69" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="H69" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I69" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J69" t="s">
-        <v>155</v>
-      </c>
-      <c r="K69" t="s">
         <v>242</v>
       </c>
+      <c r="K69">
+        <v>12</v>
+      </c>
       <c r="L69">
-        <v>12</v>
-      </c>
-      <c r="M69">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="H70" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I70" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J70" t="s">
-        <v>155</v>
-      </c>
-      <c r="K70" t="s">
         <v>242</v>
       </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
       <c r="L70">
-        <v>2</v>
-      </c>
-      <c r="M70">
         <v>21.4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="G71" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="H71" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I71" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J71" t="s">
-        <v>155</v>
-      </c>
-      <c r="K71" t="s">
         <v>242</v>
       </c>
+      <c r="K71">
+        <v>9</v>
+      </c>
       <c r="L71">
-        <v>9</v>
-      </c>
-      <c r="M71">
         <v>18.7</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C72" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G72" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="H72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I72" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J72" t="s">
-        <v>155</v>
-      </c>
-      <c r="K72" t="s">
         <v>242</v>
       </c>
+      <c r="K72">
+        <v>9</v>
+      </c>
       <c r="L72">
-        <v>9</v>
-      </c>
-      <c r="M72">
         <v>21.5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K73" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="K73" s="1">
+        <v>14</v>
+      </c>
       <c r="L73" s="1">
-        <v>14</v>
-      </c>
-      <c r="M73" s="1">
         <v>21.7</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>224</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="F74" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="G74" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="H74" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I74" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J74" t="s">
-        <v>138</v>
-      </c>
-      <c r="K74" t="s">
         <v>245</v>
       </c>
+      <c r="K74">
+        <v>10</v>
+      </c>
       <c r="L74">
-        <v>10</v>
-      </c>
-      <c r="M74">
         <v>20.25</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G75" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="H75" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I75" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J75" t="s">
-        <v>138</v>
-      </c>
-      <c r="K75" t="s">
         <v>245</v>
       </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
       <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
         <v>20.25</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="H76" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I76" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J76" t="s">
-        <v>138</v>
-      </c>
-      <c r="K76" t="s">
         <v>245</v>
       </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
       <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
         <v>21.84</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C77" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="G77" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="H77" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I77" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J77" t="s">
-        <v>138</v>
-      </c>
-      <c r="K77" t="s">
         <v>245</v>
       </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
       <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77">
         <v>19.86</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>224</v>
       </c>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="H78" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I78" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J78" t="s">
-        <v>138</v>
-      </c>
-      <c r="K78" t="s">
         <v>245</v>
       </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>224</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="D79" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G79" t="s">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="H79" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I79" t="s">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="J79" t="s">
-        <v>138</v>
-      </c>
-      <c r="K79" t="s">
         <v>245</v>
       </c>
+      <c r="K79">
+        <v>0.5</v>
+      </c>
       <c r="L79">
-        <v>0.5</v>
-      </c>
-      <c r="M79">
         <v>21.94</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>224</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G80" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="H80" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I80" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J80" t="s">
-        <v>138</v>
-      </c>
-      <c r="K80" t="s">
         <v>245</v>
       </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
       <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
         <v>23.31</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>224</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G81" t="s">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="H81" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I81" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J81" t="s">
-        <v>138</v>
-      </c>
-      <c r="K81" t="s">
         <v>245</v>
       </c>
+      <c r="K81">
+        <v>2.5</v>
+      </c>
       <c r="L81">
-        <v>2.5</v>
-      </c>
-      <c r="M81">
         <v>17.97</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>224</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="D82" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G82" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="H82" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I82" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J82" t="s">
-        <v>155</v>
-      </c>
-      <c r="K82" t="s">
         <v>246</v>
       </c>
+      <c r="K82">
+        <v>6</v>
+      </c>
       <c r="L82">
-        <v>6</v>
-      </c>
-      <c r="M82">
         <v>23.52</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>224</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="G83" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="H83" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I83" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="J83" t="s">
-        <v>155</v>
-      </c>
-      <c r="K83" t="s">
         <v>246</v>
       </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
       <c r="L83">
-        <v>3</v>
-      </c>
-      <c r="M83">
         <v>23.38</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>224</v>
       </c>
       <c r="B84" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="E84" t="s">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="F84" t="s">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="G84" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="H84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I84" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="J84" t="s">
-        <v>155</v>
-      </c>
-      <c r="K84" t="s">
         <v>246</v>
       </c>
-      <c r="L84">
+      <c r="K84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>224</v>
       </c>
       <c r="B85" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="G85" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="H85" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I85" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="J85" t="s">
-        <v>155</v>
-      </c>
-      <c r="K85" t="s">
         <v>246</v>
       </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
       <c r="L85">
-        <v>4</v>
-      </c>
-      <c r="M85">
         <v>22.5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>224</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="E86" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G86" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="H86" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I86" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="J86" t="s">
-        <v>155</v>
-      </c>
-      <c r="K86" t="s">
         <v>246</v>
       </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
       <c r="L86">
-        <v>2</v>
-      </c>
-      <c r="M86">
         <v>23.33</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>224</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G87" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="H87" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I87" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="J87" t="s">
-        <v>155</v>
-      </c>
-      <c r="K87" t="s">
         <v>246</v>
       </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
       <c r="L87">
-        <v>2</v>
-      </c>
-      <c r="M87">
         <v>23.38</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>224</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G88" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="H88" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I88" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J88" t="s">
-        <v>155</v>
-      </c>
-      <c r="K88" t="s">
         <v>246</v>
       </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
       <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
         <v>23.18</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K89" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="K89" s="1">
+        <v>4</v>
+      </c>
       <c r="L89" s="1">
-        <v>4</v>
-      </c>
-      <c r="M89" s="1">
         <v>22.96</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E90" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F90" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="G90" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="H90" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I90" t="s">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="J90" t="s">
-        <v>138</v>
-      </c>
-      <c r="K90" t="s">
         <v>251</v>
       </c>
+      <c r="K90">
+        <v>5</v>
+      </c>
       <c r="L90">
-        <v>5</v>
-      </c>
-      <c r="M90">
         <v>22.89</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C91" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="H91" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I91" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J91" t="s">
-        <v>138</v>
-      </c>
-      <c r="K91" t="s">
         <v>251</v>
       </c>
+      <c r="K91">
+        <v>1.5</v>
+      </c>
       <c r="L91">
-        <v>1.5</v>
-      </c>
-      <c r="M91">
         <v>21.84</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="E92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F92" t="s">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="G92" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H92" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I92" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J92" t="s">
-        <v>138</v>
-      </c>
-      <c r="K92" t="s">
         <v>251</v>
       </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
       <c r="L92">
-        <v>4</v>
-      </c>
-      <c r="M92">
         <v>22.87</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="D93" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="E93" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F93" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G93" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="H93" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I93" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J93" t="s">
-        <v>138</v>
-      </c>
-      <c r="K93" t="s">
         <v>251</v>
       </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
       <c r="L93">
-        <v>3</v>
-      </c>
-      <c r="M93">
         <v>21.75</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="E94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F94" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="G94" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="H94" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I94" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J94" t="s">
-        <v>138</v>
-      </c>
-      <c r="K94" t="s">
         <v>251</v>
       </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
       <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94">
         <v>20.86</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="D95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E95" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F95" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="G95" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="H95" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I95" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J95" t="s">
-        <v>138</v>
-      </c>
-      <c r="K95" t="s">
         <v>251</v>
       </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
       <c r="L95">
-        <v>2</v>
-      </c>
-      <c r="M95">
         <v>21.66</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C96" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="E96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G96" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="H96" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I96" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="J96" t="s">
-        <v>138</v>
-      </c>
-      <c r="K96" t="s">
         <v>251</v>
       </c>
+      <c r="K96">
+        <v>1.5</v>
+      </c>
       <c r="L96">
-        <v>1.5</v>
-      </c>
-      <c r="M96">
         <v>22.96</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="H97" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I97" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="J97" t="s">
-        <v>138</v>
-      </c>
-      <c r="K97" t="s">
         <v>251</v>
       </c>
+      <c r="K97">
+        <v>1.5</v>
+      </c>
       <c r="L97">
-        <v>1.5</v>
-      </c>
-      <c r="M97">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="E98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="G98" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="H98" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I98" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J98" t="s">
-        <v>155</v>
-      </c>
-      <c r="K98" t="s">
         <v>252</v>
       </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
       <c r="L98">
-        <v>3</v>
-      </c>
-      <c r="M98">
         <v>23.46</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="E99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F99" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="G99" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="H99" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I99" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J99" t="s">
-        <v>155</v>
-      </c>
-      <c r="K99" t="s">
         <v>252</v>
       </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
       <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
         <v>24.88</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="E100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F100" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="G100" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I100" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J100" t="s">
-        <v>155</v>
-      </c>
-      <c r="K100" t="s">
         <v>252</v>
       </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
       <c r="L100">
-        <v>2</v>
-      </c>
-      <c r="M100">
         <v>24.2</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="G101" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="H101" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I101" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J101" t="s">
-        <v>155</v>
-      </c>
-      <c r="K101" t="s">
         <v>252</v>
       </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
       <c r="L101">
-        <v>3</v>
-      </c>
-      <c r="M101">
         <v>23.15</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="D102" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F102" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="G102" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="H102" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I102" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="J102" t="s">
-        <v>155</v>
-      </c>
-      <c r="K102" t="s">
         <v>252</v>
       </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
       <c r="L102">
-        <v>5</v>
-      </c>
-      <c r="M102">
         <v>23.97</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="E103" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G103" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="H103" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I103" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="J103" t="s">
-        <v>155</v>
-      </c>
-      <c r="K103" t="s">
         <v>252</v>
       </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
       <c r="L103">
-        <v>2</v>
-      </c>
-      <c r="M103">
         <v>23.38</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="D104" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="E104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F104" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="G104" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="H104" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I104" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J104" t="s">
-        <v>155</v>
-      </c>
-      <c r="K104" t="s">
         <v>252</v>
       </c>
+      <c r="K104">
+        <v>1.5</v>
+      </c>
       <c r="L104">
-        <v>1.5</v>
-      </c>
-      <c r="M104">
         <v>23.5</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K105" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="K105" s="1">
+        <v>2</v>
+      </c>
       <c r="L105" s="1">
-        <v>2</v>
-      </c>
-      <c r="M105" s="1">
         <v>23.83</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>225</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="H106" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I106" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="J106" t="s">
-        <v>231</v>
-      </c>
-      <c r="K106" t="s">
         <v>247</v>
       </c>
+      <c r="K106">
+        <v>9</v>
+      </c>
       <c r="L106">
-        <v>9</v>
-      </c>
-      <c r="M106">
         <v>18.63</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>225</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="H107" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I107" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="J107" t="s">
-        <v>231</v>
-      </c>
-      <c r="K107" t="s">
         <v>247</v>
       </c>
+      <c r="K107">
+        <v>12</v>
+      </c>
       <c r="L107">
-        <v>12</v>
-      </c>
-      <c r="M107">
         <v>16.25</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>225</v>
       </c>
       <c r="B108" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C108" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E108" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F108" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G108" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="H108" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I108" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J108" t="s">
-        <v>231</v>
-      </c>
-      <c r="K108" t="s">
         <v>247</v>
       </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
       <c r="L108">
-        <v>2</v>
-      </c>
-      <c r="M108">
         <v>13.7</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>225</v>
       </c>
       <c r="B109" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G109" t="s">
-        <v>115</v>
+        <v>303</v>
       </c>
       <c r="H109" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I109" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="J109" t="s">
-        <v>231</v>
-      </c>
-      <c r="K109" t="s">
         <v>247</v>
       </c>
-      <c r="L109">
+      <c r="K109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>225</v>
       </c>
       <c r="B110" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="G110" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="H110" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I110" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J110" t="s">
-        <v>231</v>
-      </c>
-      <c r="K110" t="s">
         <v>247</v>
       </c>
+      <c r="K110">
+        <v>5</v>
+      </c>
       <c r="L110">
-        <v>5</v>
-      </c>
-      <c r="M110">
         <v>17.97</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>225</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E111" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F111" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="G111" t="s">
-        <v>177</v>
+        <v>303</v>
       </c>
       <c r="H111" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I111" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="J111" t="s">
-        <v>231</v>
-      </c>
-      <c r="K111" t="s">
         <v>247</v>
       </c>
+      <c r="K111">
+        <v>4</v>
+      </c>
       <c r="L111">
-        <v>4</v>
-      </c>
-      <c r="M111">
         <v>16.7</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>225</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="H112" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I112" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="J112" t="s">
-        <v>231</v>
-      </c>
-      <c r="K112" t="s">
         <v>247</v>
       </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
       <c r="L112">
-        <v>2</v>
-      </c>
-      <c r="M112">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>225</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="E113" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F113" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="G113" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="H113" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I113" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J113" t="s">
-        <v>155</v>
-      </c>
-      <c r="K113" t="s">
         <v>248</v>
       </c>
+      <c r="K113">
+        <v>6</v>
+      </c>
       <c r="L113">
-        <v>6</v>
-      </c>
-      <c r="M113">
         <v>21.1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C114" t="s">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="G114" t="s">
-        <v>181</v>
+        <v>303</v>
       </c>
       <c r="H114" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I114" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J114" t="s">
-        <v>155</v>
-      </c>
-      <c r="K114" t="s">
         <v>248</v>
       </c>
+      <c r="K114">
+        <v>10</v>
+      </c>
       <c r="L114">
-        <v>10</v>
-      </c>
-      <c r="M114">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C115" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="H115" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I115" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J115" t="s">
-        <v>155</v>
-      </c>
-      <c r="K115" t="s">
         <v>248</v>
       </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
       <c r="L115">
-        <v>2</v>
-      </c>
-      <c r="M115">
         <v>21.84</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>225</v>
       </c>
       <c r="B116" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F116" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="G116" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="H116" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I116" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J116" t="s">
-        <v>155</v>
-      </c>
-      <c r="K116" t="s">
         <v>248</v>
       </c>
+      <c r="K116">
+        <v>9</v>
+      </c>
       <c r="L116">
-        <v>9</v>
-      </c>
-      <c r="M116">
         <v>23.15</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>225</v>
       </c>
       <c r="B117" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C117" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="E117" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="G117" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="H117" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I117" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="J117" t="s">
-        <v>155</v>
-      </c>
-      <c r="K117" t="s">
         <v>248</v>
       </c>
+      <c r="K117">
+        <v>12</v>
+      </c>
       <c r="L117">
-        <v>12</v>
-      </c>
-      <c r="M117">
         <v>15.97</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>225</v>
       </c>
       <c r="B118" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="D118" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E118" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F118" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G118" t="s">
-        <v>112</v>
+        <v>303</v>
       </c>
       <c r="H118" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I118" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J118" t="s">
-        <v>155</v>
-      </c>
-      <c r="K118" t="s">
         <v>248</v>
       </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
       <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>249</v>
+        <v>57</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K119" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="K119" s="1">
+        <v>14</v>
+      </c>
       <c r="L119" s="1">
-        <v>14</v>
-      </c>
-      <c r="M119" s="1">
         <v>21.7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:M31">
-    <sortCondition ref="E25:E31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:L31">
+    <sortCondition ref="D25:D31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28332,4 +28049,3078 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3956EC7-86B1-4603-B84C-C9BA64C80C6D}">
+  <dimension ref="A1:K87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:K87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H7" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H9" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H11" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>305</v>
+      </c>
+      <c r="H12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" t="s">
+        <v>300</v>
+      </c>
+      <c r="I13" t="s">
+        <v>318</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>303</v>
+      </c>
+      <c r="H14" t="s">
+        <v>300</v>
+      </c>
+      <c r="I14" t="s">
+        <v>318</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J15" s="1">
+        <v>14</v>
+      </c>
+      <c r="K15" s="1">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" t="s">
+        <v>319</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>303</v>
+      </c>
+      <c r="H17" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
+        <v>303</v>
+      </c>
+      <c r="H18" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" t="s">
+        <v>319</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>303</v>
+      </c>
+      <c r="H19" t="s">
+        <v>300</v>
+      </c>
+      <c r="I19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>303</v>
+      </c>
+      <c r="H20" t="s">
+        <v>299</v>
+      </c>
+      <c r="I20" t="s">
+        <v>319</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>303</v>
+      </c>
+      <c r="H21" t="s">
+        <v>299</v>
+      </c>
+      <c r="I21" t="s">
+        <v>319</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" t="s">
+        <v>300</v>
+      </c>
+      <c r="I22" t="s">
+        <v>319</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>303</v>
+      </c>
+      <c r="H23" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" t="s">
+        <v>317</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" t="s">
+        <v>301</v>
+      </c>
+      <c r="I24" t="s">
+        <v>317</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>304</v>
+      </c>
+      <c r="H25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I25" t="s">
+        <v>317</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>303</v>
+      </c>
+      <c r="H26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I26" t="s">
+        <v>317</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27" t="s">
+        <v>300</v>
+      </c>
+      <c r="I27" t="s">
+        <v>317</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="s">
+        <v>303</v>
+      </c>
+      <c r="H28" t="s">
+        <v>300</v>
+      </c>
+      <c r="I28" t="s">
+        <v>317</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>303</v>
+      </c>
+      <c r="H30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I30" t="s">
+        <v>320</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" t="s">
+        <v>303</v>
+      </c>
+      <c r="H31" t="s">
+        <v>300</v>
+      </c>
+      <c r="I31" t="s">
+        <v>320</v>
+      </c>
+      <c r="J31">
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>303</v>
+      </c>
+      <c r="H32" t="s">
+        <v>299</v>
+      </c>
+      <c r="I32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>303</v>
+      </c>
+      <c r="H33" t="s">
+        <v>300</v>
+      </c>
+      <c r="I33" t="s">
+        <v>320</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" t="s">
+        <v>300</v>
+      </c>
+      <c r="I34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" t="s">
+        <v>300</v>
+      </c>
+      <c r="I35" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>303</v>
+      </c>
+      <c r="H36" t="s">
+        <v>299</v>
+      </c>
+      <c r="I36" t="s">
+        <v>320</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" t="s">
+        <v>328</v>
+      </c>
+      <c r="C37" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" t="s">
+        <v>303</v>
+      </c>
+      <c r="H37" t="s">
+        <v>299</v>
+      </c>
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>303</v>
+      </c>
+      <c r="H38" t="s">
+        <v>300</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" t="s">
+        <v>328</v>
+      </c>
+      <c r="C39" t="s">
+        <v>297</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" t="s">
+        <v>303</v>
+      </c>
+      <c r="H39" t="s">
+        <v>299</v>
+      </c>
+      <c r="I39" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39">
+        <v>12</v>
+      </c>
+      <c r="K39">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B40" t="s">
+        <v>328</v>
+      </c>
+      <c r="C40" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>303</v>
+      </c>
+      <c r="H40" t="s">
+        <v>300</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>313</v>
+      </c>
+      <c r="B41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" t="s">
+        <v>303</v>
+      </c>
+      <c r="H41" t="s">
+        <v>299</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>313</v>
+      </c>
+      <c r="B42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
+        <v>303</v>
+      </c>
+      <c r="H42" t="s">
+        <v>299</v>
+      </c>
+      <c r="I42" t="s">
+        <v>319</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" s="1">
+        <v>16</v>
+      </c>
+      <c r="K43" s="1">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" t="s">
+        <v>329</v>
+      </c>
+      <c r="C44" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s">
+        <v>303</v>
+      </c>
+      <c r="H44" t="s">
+        <v>300</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45" t="s">
+        <v>303</v>
+      </c>
+      <c r="H45" t="s">
+        <v>300</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45">
+        <v>15</v>
+      </c>
+      <c r="K45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>313</v>
+      </c>
+      <c r="B46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="s">
+        <v>257</v>
+      </c>
+      <c r="G46" t="s">
+        <v>303</v>
+      </c>
+      <c r="H46" t="s">
+        <v>299</v>
+      </c>
+      <c r="I46" t="s">
+        <v>320</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>313</v>
+      </c>
+      <c r="B47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" t="s">
+        <v>303</v>
+      </c>
+      <c r="H47" t="s">
+        <v>300</v>
+      </c>
+      <c r="I47" t="s">
+        <v>320</v>
+      </c>
+      <c r="J47">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48" t="s">
+        <v>329</v>
+      </c>
+      <c r="C48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" t="s">
+        <v>303</v>
+      </c>
+      <c r="H48" t="s">
+        <v>300</v>
+      </c>
+      <c r="I48" t="s">
+        <v>320</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>313</v>
+      </c>
+      <c r="B49" t="s">
+        <v>329</v>
+      </c>
+      <c r="C49" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>303</v>
+      </c>
+      <c r="H49" t="s">
+        <v>300</v>
+      </c>
+      <c r="I49" t="s">
+        <v>320</v>
+      </c>
+      <c r="J49">
+        <v>14</v>
+      </c>
+      <c r="K49">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s">
+        <v>259</v>
+      </c>
+      <c r="G50" t="s">
+        <v>303</v>
+      </c>
+      <c r="H50" t="s">
+        <v>299</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51" t="s">
+        <v>303</v>
+      </c>
+      <c r="H51" t="s">
+        <v>300</v>
+      </c>
+      <c r="I51" t="s">
+        <v>318</v>
+      </c>
+      <c r="J51">
+        <v>12</v>
+      </c>
+      <c r="K51">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" t="s">
+        <v>329</v>
+      </c>
+      <c r="C52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" t="s">
+        <v>255</v>
+      </c>
+      <c r="G52" t="s">
+        <v>303</v>
+      </c>
+      <c r="H52" t="s">
+        <v>300</v>
+      </c>
+      <c r="I52" t="s">
+        <v>318</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>313</v>
+      </c>
+      <c r="B53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" t="s">
+        <v>303</v>
+      </c>
+      <c r="H53" t="s">
+        <v>299</v>
+      </c>
+      <c r="I53" t="s">
+        <v>318</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>313</v>
+      </c>
+      <c r="B54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>305</v>
+      </c>
+      <c r="H54" t="s">
+        <v>299</v>
+      </c>
+      <c r="I54" t="s">
+        <v>318</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>313</v>
+      </c>
+      <c r="B55" t="s">
+        <v>329</v>
+      </c>
+      <c r="C55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>182</v>
+      </c>
+      <c r="G55" t="s">
+        <v>303</v>
+      </c>
+      <c r="H55" t="s">
+        <v>300</v>
+      </c>
+      <c r="I55" t="s">
+        <v>318</v>
+      </c>
+      <c r="J55">
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>313</v>
+      </c>
+      <c r="B56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" t="s">
+        <v>303</v>
+      </c>
+      <c r="H56" t="s">
+        <v>300</v>
+      </c>
+      <c r="I56" t="s">
+        <v>318</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J57" s="1">
+        <v>14</v>
+      </c>
+      <c r="K57" s="1">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" t="s">
+        <v>262</v>
+      </c>
+      <c r="G58" t="s">
+        <v>303</v>
+      </c>
+      <c r="H58" t="s">
+        <v>301</v>
+      </c>
+      <c r="I58" t="s">
+        <v>331</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B59" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>305</v>
+      </c>
+      <c r="H59" t="s">
+        <v>299</v>
+      </c>
+      <c r="I59" t="s">
+        <v>331</v>
+      </c>
+      <c r="J59">
+        <v>1.5</v>
+      </c>
+      <c r="K59">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B60" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" t="s">
+        <v>307</v>
+      </c>
+      <c r="G60" t="s">
+        <v>303</v>
+      </c>
+      <c r="H60" t="s">
+        <v>300</v>
+      </c>
+      <c r="I60" t="s">
+        <v>331</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" t="s">
+        <v>326</v>
+      </c>
+      <c r="C61" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" t="s">
+        <v>304</v>
+      </c>
+      <c r="H61" t="s">
+        <v>299</v>
+      </c>
+      <c r="I61" t="s">
+        <v>331</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" t="s">
+        <v>263</v>
+      </c>
+      <c r="G62" t="s">
+        <v>303</v>
+      </c>
+      <c r="H62" t="s">
+        <v>300</v>
+      </c>
+      <c r="I62" t="s">
+        <v>331</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" t="s">
+        <v>304</v>
+      </c>
+      <c r="H63" t="s">
+        <v>299</v>
+      </c>
+      <c r="I63" t="s">
+        <v>331</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B64" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" t="s">
+        <v>303</v>
+      </c>
+      <c r="H64" t="s">
+        <v>299</v>
+      </c>
+      <c r="I64" t="s">
+        <v>331</v>
+      </c>
+      <c r="J64">
+        <v>1.5</v>
+      </c>
+      <c r="K64">
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B65" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" t="s">
+        <v>250</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>303</v>
+      </c>
+      <c r="H65" t="s">
+        <v>300</v>
+      </c>
+      <c r="I65" t="s">
+        <v>331</v>
+      </c>
+      <c r="J65">
+        <v>1.5</v>
+      </c>
+      <c r="K65">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" t="s">
+        <v>255</v>
+      </c>
+      <c r="G66" t="s">
+        <v>303</v>
+      </c>
+      <c r="H66" t="s">
+        <v>300</v>
+      </c>
+      <c r="I66" t="s">
+        <v>332</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" t="s">
+        <v>265</v>
+      </c>
+      <c r="G67" t="s">
+        <v>304</v>
+      </c>
+      <c r="H67" t="s">
+        <v>300</v>
+      </c>
+      <c r="I67" t="s">
+        <v>332</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>24.88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B68" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>312</v>
+      </c>
+      <c r="G68" t="s">
+        <v>303</v>
+      </c>
+      <c r="H68" t="s">
+        <v>300</v>
+      </c>
+      <c r="I68" t="s">
+        <v>332</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" t="s">
+        <v>182</v>
+      </c>
+      <c r="G69" t="s">
+        <v>303</v>
+      </c>
+      <c r="H69" t="s">
+        <v>300</v>
+      </c>
+      <c r="I69" t="s">
+        <v>332</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B70" t="s">
+        <v>326</v>
+      </c>
+      <c r="C70" t="s">
+        <v>250</v>
+      </c>
+      <c r="D70" t="s">
+        <v>205</v>
+      </c>
+      <c r="E70" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" t="s">
+        <v>266</v>
+      </c>
+      <c r="G70" t="s">
+        <v>303</v>
+      </c>
+      <c r="H70" t="s">
+        <v>301</v>
+      </c>
+      <c r="I70" t="s">
+        <v>332</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B71" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" t="s">
+        <v>301</v>
+      </c>
+      <c r="I71" t="s">
+        <v>332</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" t="s">
+        <v>209</v>
+      </c>
+      <c r="F72" t="s">
+        <v>267</v>
+      </c>
+      <c r="G72" t="s">
+        <v>304</v>
+      </c>
+      <c r="H72" t="s">
+        <v>299</v>
+      </c>
+      <c r="I72" t="s">
+        <v>332</v>
+      </c>
+      <c r="J72">
+        <v>1.5</v>
+      </c>
+      <c r="K72">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J73" s="1">
+        <v>2</v>
+      </c>
+      <c r="K73" s="1">
+        <v>23.83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B74" t="s">
+        <v>327</v>
+      </c>
+      <c r="C74" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>303</v>
+      </c>
+      <c r="H74" t="s">
+        <v>300</v>
+      </c>
+      <c r="I74" t="s">
+        <v>333</v>
+      </c>
+      <c r="J74">
+        <v>9</v>
+      </c>
+      <c r="K74">
+        <v>18.63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B75" t="s">
+        <v>327</v>
+      </c>
+      <c r="C75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>303</v>
+      </c>
+      <c r="H75" t="s">
+        <v>300</v>
+      </c>
+      <c r="I75" t="s">
+        <v>333</v>
+      </c>
+      <c r="J75">
+        <v>12</v>
+      </c>
+      <c r="K75">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" t="s">
+        <v>303</v>
+      </c>
+      <c r="H76" t="s">
+        <v>299</v>
+      </c>
+      <c r="I76" t="s">
+        <v>333</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B77" t="s">
+        <v>327</v>
+      </c>
+      <c r="C77" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" t="s">
+        <v>303</v>
+      </c>
+      <c r="H77" t="s">
+        <v>300</v>
+      </c>
+      <c r="I77" t="s">
+        <v>333</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B78" t="s">
+        <v>327</v>
+      </c>
+      <c r="C78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" t="s">
+        <v>304</v>
+      </c>
+      <c r="H78" t="s">
+        <v>299</v>
+      </c>
+      <c r="I78" t="s">
+        <v>333</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B79" t="s">
+        <v>327</v>
+      </c>
+      <c r="C79" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" t="s">
+        <v>177</v>
+      </c>
+      <c r="G79" t="s">
+        <v>303</v>
+      </c>
+      <c r="H79" t="s">
+        <v>300</v>
+      </c>
+      <c r="I79" t="s">
+        <v>333</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B80" t="s">
+        <v>327</v>
+      </c>
+      <c r="C80" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
+        <v>303</v>
+      </c>
+      <c r="H80" t="s">
+        <v>300</v>
+      </c>
+      <c r="I80" t="s">
+        <v>333</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" t="s">
+        <v>327</v>
+      </c>
+      <c r="C81" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" t="s">
+        <v>255</v>
+      </c>
+      <c r="G81" t="s">
+        <v>303</v>
+      </c>
+      <c r="H81" t="s">
+        <v>300</v>
+      </c>
+      <c r="I81" t="s">
+        <v>334</v>
+      </c>
+      <c r="J81">
+        <v>6</v>
+      </c>
+      <c r="K81">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B82" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" t="s">
+        <v>303</v>
+      </c>
+      <c r="H82" t="s">
+        <v>299</v>
+      </c>
+      <c r="I82" t="s">
+        <v>334</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B83" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s">
+        <v>305</v>
+      </c>
+      <c r="H83" t="s">
+        <v>299</v>
+      </c>
+      <c r="I83" t="s">
+        <v>334</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B84" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" t="s">
+        <v>249</v>
+      </c>
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" t="s">
+        <v>182</v>
+      </c>
+      <c r="G84" t="s">
+        <v>303</v>
+      </c>
+      <c r="H84" t="s">
+        <v>300</v>
+      </c>
+      <c r="I84" t="s">
+        <v>334</v>
+      </c>
+      <c r="J84">
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B85" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" t="s">
+        <v>254</v>
+      </c>
+      <c r="G85" t="s">
+        <v>303</v>
+      </c>
+      <c r="H85" t="s">
+        <v>300</v>
+      </c>
+      <c r="I85" t="s">
+        <v>334</v>
+      </c>
+      <c r="J85">
+        <v>12</v>
+      </c>
+      <c r="K85">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" t="s">
+        <v>327</v>
+      </c>
+      <c r="C86" t="s">
+        <v>249</v>
+      </c>
+      <c r="D86" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>303</v>
+      </c>
+      <c r="H86" t="s">
+        <v>299</v>
+      </c>
+      <c r="I86" t="s">
+        <v>334</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J87" s="1">
+        <v>14</v>
+      </c>
+      <c r="K87" s="1">
+        <v>21.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1014" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B4B36E-E7DB-433B-883F-219CE80B2DC6}"/>
+  <xr:revisionPtr revIDLastSave="1062" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB3E0C2-F44D-4375-9BBE-AEFBEDD0FBDD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7864" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7951" uniqueCount="336">
   <si>
     <t>Family</t>
   </si>
@@ -1053,16 +1053,19 @@
     <t>Seeding rate (lbs/acre)</t>
   </si>
   <si>
-    <t>Current_BR</t>
-  </si>
-  <si>
-    <t>Projected_BR</t>
-  </si>
-  <si>
-    <t>Current_MA</t>
-  </si>
-  <si>
-    <t>Projected_MA</t>
+    <t>Climate adaptation</t>
+  </si>
+  <si>
+    <t>Cool_BR</t>
+  </si>
+  <si>
+    <t>Warm_BR</t>
+  </si>
+  <si>
+    <t>Med_MA</t>
+  </si>
+  <si>
+    <t>Warm_MA</t>
   </si>
 </sst>
 </file>
@@ -1113,19 +1116,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1939,8 +1939,8 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4516,8 +4516,8 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28053,68 +28053,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3956EC7-86B1-4603-B84C-C9BA64C80C6D}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K87"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>316</v>
       </c>
       <c r="C2" t="s">
@@ -28138,18 +28142,21 @@
       <c r="I2" t="s">
         <v>317</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>316</v>
       </c>
       <c r="C3" t="s">
@@ -28173,18 +28180,21 @@
       <c r="I3" t="s">
         <v>317</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3">
         <v>6</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>316</v>
       </c>
       <c r="C4" t="s">
@@ -28208,18 +28218,21 @@
       <c r="I4" t="s">
         <v>317</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>316</v>
       </c>
       <c r="C5" t="s">
@@ -28243,18 +28256,21 @@
       <c r="I5" t="s">
         <v>317</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>316</v>
       </c>
       <c r="C6" t="s">
@@ -28278,18 +28294,21 @@
       <c r="I6" t="s">
         <v>317</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K6">
         <v>12</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>15.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>316</v>
       </c>
       <c r="C7" t="s">
@@ -28313,18 +28332,21 @@
       <c r="I7" t="s">
         <v>317</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>16.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>313</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>316</v>
       </c>
       <c r="C8" t="s">
@@ -28348,18 +28370,21 @@
       <c r="I8" t="s">
         <v>317</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>310</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>316</v>
       </c>
       <c r="C9" t="s">
@@ -28383,18 +28408,21 @@
       <c r="I9" t="s">
         <v>318</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>311</v>
+      </c>
+      <c r="K9">
         <v>12</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>18.3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>316</v>
       </c>
       <c r="C10" t="s">
@@ -28418,18 +28446,21 @@
       <c r="I10" t="s">
         <v>318</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>21.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>316</v>
       </c>
       <c r="C11" t="s">
@@ -28453,18 +28484,21 @@
       <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K11">
         <v>12</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>316</v>
       </c>
       <c r="C12" t="s">
@@ -28488,18 +28522,21 @@
       <c r="I12" t="s">
         <v>318</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="s">
+        <v>311</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>21.4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>316</v>
       </c>
       <c r="C13" t="s">
@@ -28523,18 +28560,21 @@
       <c r="I13" t="s">
         <v>318</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="s">
+        <v>311</v>
+      </c>
+      <c r="K13">
         <v>9</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>18.7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>316</v>
       </c>
       <c r="C14" t="s">
@@ -28558,18 +28598,21 @@
       <c r="I14" t="s">
         <v>318</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="s">
+        <v>311</v>
+      </c>
+      <c r="K14">
         <v>9</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>21.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -28593,18 +28636,21 @@
       <c r="I15" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K15" s="1">
         <v>14</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>21.7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>313</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>316</v>
       </c>
       <c r="C16" t="s">
@@ -28628,18 +28674,21 @@
       <c r="I16" t="s">
         <v>319</v>
       </c>
-      <c r="J16">
-        <v>1</v>
+      <c r="J16" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>15.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>316</v>
       </c>
       <c r="C17" t="s">
@@ -28663,18 +28712,21 @@
       <c r="I17" t="s">
         <v>319</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K17">
         <v>3</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>15.9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>313</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>316</v>
       </c>
       <c r="C18" t="s">
@@ -28698,18 +28750,21 @@
       <c r="I18" t="s">
         <v>319</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K18">
         <v>12</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>15.7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>316</v>
       </c>
       <c r="C19" t="s">
@@ -28733,18 +28788,21 @@
       <c r="I19" t="s">
         <v>319</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K19">
         <v>6</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>15.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>313</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>316</v>
       </c>
       <c r="C20" t="s">
@@ -28768,18 +28826,21 @@
       <c r="I20" t="s">
         <v>319</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>13.7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>313</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>316</v>
       </c>
       <c r="C21" t="s">
@@ -28803,18 +28864,21 @@
       <c r="I21" t="s">
         <v>319</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K21">
         <v>6</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>13.3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>313</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>316</v>
       </c>
       <c r="C22" t="s">
@@ -28838,18 +28902,21 @@
       <c r="I22" t="s">
         <v>319</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K22">
         <v>16</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>14.2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>313</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>316</v>
       </c>
       <c r="C23" t="s">
@@ -28873,18 +28940,21 @@
       <c r="I23" t="s">
         <v>317</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>313</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>316</v>
       </c>
       <c r="C24" t="s">
@@ -28908,18 +28978,21 @@
       <c r="I24" t="s">
         <v>317</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K24">
         <v>6</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>313</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>316</v>
       </c>
       <c r="C25" t="s">
@@ -28943,18 +29016,21 @@
       <c r="I25" t="s">
         <v>317</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>313</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>316</v>
       </c>
       <c r="C26" t="s">
@@ -28978,18 +29054,21 @@
       <c r="I26" t="s">
         <v>317</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K26">
         <v>3</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>313</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>316</v>
       </c>
       <c r="C27" t="s">
@@ -29013,18 +29092,21 @@
       <c r="I27" t="s">
         <v>317</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K27">
         <v>12</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>15.1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>313</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>316</v>
       </c>
       <c r="C28" t="s">
@@ -29048,18 +29130,21 @@
       <c r="I28" t="s">
         <v>317</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K28">
         <v>4</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>16.7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -29083,14 +29168,17 @@
       <c r="I29" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="K29" s="1">
         <v>2</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -29118,14 +29206,17 @@
       <c r="I30" t="s">
         <v>320</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K30">
         <v>10</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>14.2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -29153,14 +29244,17 @@
       <c r="I31" t="s">
         <v>320</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K31">
         <v>15</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -29188,14 +29282,17 @@
       <c r="I32" t="s">
         <v>320</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K32">
         <v>25</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>11.7</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>313</v>
       </c>
@@ -29223,14 +29320,17 @@
       <c r="I33" t="s">
         <v>320</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K33">
         <v>14</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>313</v>
       </c>
@@ -29258,14 +29358,17 @@
       <c r="I34" t="s">
         <v>320</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34">
         <v>11</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>12.1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -29293,14 +29396,17 @@
       <c r="I35" t="s">
         <v>320</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K35">
         <v>14</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>11.4</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>313</v>
       </c>
@@ -29328,14 +29434,17 @@
       <c r="I36" t="s">
         <v>320</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36">
         <v>4</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>12.7</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>313</v>
       </c>
@@ -29363,14 +29472,17 @@
       <c r="I37" t="s">
         <v>319</v>
       </c>
-      <c r="J37">
-        <v>1</v>
+      <c r="J37" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
         <v>15.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>313</v>
       </c>
@@ -29398,14 +29510,17 @@
       <c r="I38" t="s">
         <v>319</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38">
         <v>3</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>15.9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>313</v>
       </c>
@@ -29433,14 +29548,17 @@
       <c r="I39" t="s">
         <v>319</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K39">
         <v>12</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>15.7</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>313</v>
       </c>
@@ -29468,14 +29586,17 @@
       <c r="I40" t="s">
         <v>319</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K40">
         <v>6</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>15.5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>313</v>
       </c>
@@ -29503,14 +29624,17 @@
       <c r="I41" t="s">
         <v>319</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K41">
         <v>2</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>13.7</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>313</v>
       </c>
@@ -29538,14 +29662,17 @@
       <c r="I42" t="s">
         <v>319</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42">
         <v>6</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>13.3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>313</v>
       </c>
@@ -29573,14 +29700,17 @@
       <c r="I43" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="K43" s="1">
         <v>16</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>14.2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>313</v>
       </c>
@@ -29608,14 +29738,17 @@
       <c r="I44" t="s">
         <v>320</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44">
         <v>10</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>14.2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>313</v>
       </c>
@@ -29643,14 +29776,17 @@
       <c r="I45" t="s">
         <v>320</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K45">
         <v>15</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>313</v>
       </c>
@@ -29678,14 +29814,17 @@
       <c r="I46" t="s">
         <v>320</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K46">
         <v>25</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>11.7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>313</v>
       </c>
@@ -29713,14 +29852,17 @@
       <c r="I47" t="s">
         <v>320</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K47">
         <v>14</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>313</v>
       </c>
@@ -29748,14 +29890,17 @@
       <c r="I48" t="s">
         <v>320</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K48">
         <v>11</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>12.1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>313</v>
       </c>
@@ -29783,14 +29928,17 @@
       <c r="I49" t="s">
         <v>320</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K49">
         <v>14</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>11.4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>313</v>
       </c>
@@ -29818,14 +29966,17 @@
       <c r="I50" t="s">
         <v>320</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K50">
         <v>4</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>12.7</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>313</v>
       </c>
@@ -29853,14 +30004,17 @@
       <c r="I51" t="s">
         <v>318</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K51">
         <v>12</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>18.3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>313</v>
       </c>
@@ -29888,14 +30042,17 @@
       <c r="I52" t="s">
         <v>318</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K52">
         <v>6</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>21.1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -29923,14 +30080,17 @@
       <c r="I53" t="s">
         <v>318</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K53">
         <v>12</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>313</v>
       </c>
@@ -29958,14 +30118,17 @@
       <c r="I54" t="s">
         <v>318</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K54">
         <v>2</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>21.4</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>313</v>
       </c>
@@ -29993,14 +30156,17 @@
       <c r="I55" t="s">
         <v>318</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K55">
         <v>9</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>18.7</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>313</v>
       </c>
@@ -30028,15 +30194,18 @@
       <c r="I56" t="s">
         <v>318</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K56">
         <v>9</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>21.5</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -30063,15 +30232,18 @@
       <c r="I57" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="K57" s="1">
         <v>14</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>21.7</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>325</v>
       </c>
       <c r="B58" t="s">
@@ -30096,17 +30268,20 @@
         <v>301</v>
       </c>
       <c r="I58" t="s">
-        <v>331</v>
-      </c>
-      <c r="J58">
+        <v>332</v>
+      </c>
+      <c r="J58" t="s">
+        <v>310</v>
+      </c>
+      <c r="K58">
         <v>5</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>22.89</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>325</v>
       </c>
       <c r="B59" t="s">
@@ -30131,17 +30306,20 @@
         <v>299</v>
       </c>
       <c r="I59" t="s">
-        <v>331</v>
-      </c>
-      <c r="J59">
+        <v>332</v>
+      </c>
+      <c r="J59" t="s">
+        <v>310</v>
+      </c>
+      <c r="K59">
         <v>1.5</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>21.84</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>325</v>
       </c>
       <c r="B60" t="s">
@@ -30166,17 +30344,20 @@
         <v>300</v>
       </c>
       <c r="I60" t="s">
-        <v>331</v>
-      </c>
-      <c r="J60">
+        <v>332</v>
+      </c>
+      <c r="J60" t="s">
+        <v>310</v>
+      </c>
+      <c r="K60">
         <v>4</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>22.87</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>325</v>
       </c>
       <c r="B61" t="s">
@@ -30201,17 +30382,20 @@
         <v>299</v>
       </c>
       <c r="I61" t="s">
-        <v>331</v>
-      </c>
-      <c r="J61">
+        <v>332</v>
+      </c>
+      <c r="J61" t="s">
+        <v>310</v>
+      </c>
+      <c r="K61">
         <v>3</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>21.75</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>325</v>
       </c>
       <c r="B62" t="s">
@@ -30236,17 +30420,20 @@
         <v>300</v>
       </c>
       <c r="I62" t="s">
-        <v>331</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
+        <v>332</v>
+      </c>
+      <c r="J62" t="s">
+        <v>310</v>
       </c>
       <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
         <v>20.86</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>325</v>
       </c>
       <c r="B63" t="s">
@@ -30271,17 +30458,20 @@
         <v>299</v>
       </c>
       <c r="I63" t="s">
-        <v>331</v>
-      </c>
-      <c r="J63">
+        <v>332</v>
+      </c>
+      <c r="J63" t="s">
+        <v>310</v>
+      </c>
+      <c r="K63">
         <v>2</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>21.66</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>325</v>
       </c>
       <c r="B64" t="s">
@@ -30306,17 +30496,20 @@
         <v>299</v>
       </c>
       <c r="I64" t="s">
-        <v>331</v>
-      </c>
-      <c r="J64">
+        <v>332</v>
+      </c>
+      <c r="J64" t="s">
+        <v>310</v>
+      </c>
+      <c r="K64">
         <v>1.5</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>22.96</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>325</v>
       </c>
       <c r="B65" t="s">
@@ -30341,17 +30534,20 @@
         <v>300</v>
       </c>
       <c r="I65" t="s">
-        <v>331</v>
-      </c>
-      <c r="J65">
+        <v>332</v>
+      </c>
+      <c r="J65" t="s">
+        <v>310</v>
+      </c>
+      <c r="K65">
         <v>1.5</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>325</v>
       </c>
       <c r="B66" t="s">
@@ -30376,17 +30572,20 @@
         <v>300</v>
       </c>
       <c r="I66" t="s">
-        <v>332</v>
-      </c>
-      <c r="J66">
+        <v>333</v>
+      </c>
+      <c r="J66" t="s">
+        <v>311</v>
+      </c>
+      <c r="K66">
         <v>3</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>23.46</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>325</v>
       </c>
       <c r="B67" t="s">
@@ -30411,17 +30610,20 @@
         <v>300</v>
       </c>
       <c r="I67" t="s">
-        <v>332</v>
-      </c>
-      <c r="J67">
+        <v>333</v>
+      </c>
+      <c r="J67" t="s">
+        <v>311</v>
+      </c>
+      <c r="K67">
         <v>3</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>24.88</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>325</v>
       </c>
       <c r="B68" t="s">
@@ -30446,17 +30648,20 @@
         <v>300</v>
       </c>
       <c r="I68" t="s">
-        <v>332</v>
-      </c>
-      <c r="J68">
+        <v>333</v>
+      </c>
+      <c r="J68" t="s">
+        <v>311</v>
+      </c>
+      <c r="K68">
         <v>2</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>24.2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>325</v>
       </c>
       <c r="B69" t="s">
@@ -30481,17 +30686,20 @@
         <v>300</v>
       </c>
       <c r="I69" t="s">
-        <v>332</v>
-      </c>
-      <c r="J69">
+        <v>333</v>
+      </c>
+      <c r="J69" t="s">
+        <v>311</v>
+      </c>
+      <c r="K69">
         <v>3</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>23.15</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>325</v>
       </c>
       <c r="B70" t="s">
@@ -30516,17 +30724,20 @@
         <v>301</v>
       </c>
       <c r="I70" t="s">
-        <v>332</v>
-      </c>
-      <c r="J70">
+        <v>333</v>
+      </c>
+      <c r="J70" t="s">
+        <v>311</v>
+      </c>
+      <c r="K70">
         <v>5</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>23.97</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>325</v>
       </c>
       <c r="B71" t="s">
@@ -30551,17 +30762,20 @@
         <v>301</v>
       </c>
       <c r="I71" t="s">
-        <v>332</v>
-      </c>
-      <c r="J71">
+        <v>333</v>
+      </c>
+      <c r="J71" t="s">
+        <v>311</v>
+      </c>
+      <c r="K71">
         <v>2</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>23.38</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>325</v>
       </c>
       <c r="B72" t="s">
@@ -30586,17 +30800,20 @@
         <v>299</v>
       </c>
       <c r="I72" t="s">
-        <v>332</v>
-      </c>
-      <c r="J72">
+        <v>333</v>
+      </c>
+      <c r="J72" t="s">
+        <v>311</v>
+      </c>
+      <c r="K72">
         <v>1.5</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>23.5</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -30621,17 +30838,20 @@
         <v>299</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J73" s="1">
+        <v>333</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K73" s="1">
         <v>2</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L73" s="1">
         <v>23.83</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>325</v>
       </c>
       <c r="B74" t="s">
@@ -30656,17 +30876,20 @@
         <v>300</v>
       </c>
       <c r="I74" t="s">
-        <v>333</v>
-      </c>
-      <c r="J74">
+        <v>334</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K74">
         <v>9</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>18.63</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>325</v>
       </c>
       <c r="B75" t="s">
@@ -30691,17 +30914,20 @@
         <v>300</v>
       </c>
       <c r="I75" t="s">
-        <v>333</v>
-      </c>
-      <c r="J75">
+        <v>334</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K75">
         <v>12</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>16.25</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>325</v>
       </c>
       <c r="B76" t="s">
@@ -30726,17 +30952,20 @@
         <v>299</v>
       </c>
       <c r="I76" t="s">
-        <v>333</v>
-      </c>
-      <c r="J76">
+        <v>334</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K76">
         <v>2</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>13.7</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>325</v>
       </c>
       <c r="B77" t="s">
@@ -30761,17 +30990,20 @@
         <v>300</v>
       </c>
       <c r="I77" t="s">
-        <v>333</v>
-      </c>
-      <c r="J77">
+        <v>334</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K77">
         <v>3</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>325</v>
       </c>
       <c r="B78" t="s">
@@ -30796,17 +31028,20 @@
         <v>299</v>
       </c>
       <c r="I78" t="s">
-        <v>333</v>
-      </c>
-      <c r="J78">
+        <v>334</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K78">
         <v>5</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>17.97</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>325</v>
       </c>
       <c r="B79" t="s">
@@ -30831,17 +31066,20 @@
         <v>300</v>
       </c>
       <c r="I79" t="s">
-        <v>333</v>
-      </c>
-      <c r="J79">
+        <v>334</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K79">
         <v>4</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>16.7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>325</v>
       </c>
       <c r="B80" t="s">
@@ -30866,17 +31104,20 @@
         <v>300</v>
       </c>
       <c r="I80" t="s">
-        <v>333</v>
-      </c>
-      <c r="J80">
+        <v>334</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K80">
         <v>2</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>325</v>
       </c>
       <c r="B81" t="s">
@@ -30901,17 +31142,20 @@
         <v>300</v>
       </c>
       <c r="I81" t="s">
-        <v>334</v>
-      </c>
-      <c r="J81">
+        <v>335</v>
+      </c>
+      <c r="J81" t="s">
+        <v>311</v>
+      </c>
+      <c r="K81">
         <v>6</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>21.1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>325</v>
       </c>
       <c r="B82" t="s">
@@ -30936,17 +31180,20 @@
         <v>299</v>
       </c>
       <c r="I82" t="s">
-        <v>334</v>
-      </c>
-      <c r="J82">
+        <v>335</v>
+      </c>
+      <c r="J82" t="s">
+        <v>311</v>
+      </c>
+      <c r="K82">
         <v>10</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>325</v>
       </c>
       <c r="B83" t="s">
@@ -30971,17 +31218,20 @@
         <v>299</v>
       </c>
       <c r="I83" t="s">
-        <v>334</v>
-      </c>
-      <c r="J83">
+        <v>335</v>
+      </c>
+      <c r="J83" t="s">
+        <v>311</v>
+      </c>
+      <c r="K83">
         <v>2</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>21.84</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>325</v>
       </c>
       <c r="B84" t="s">
@@ -31006,17 +31256,20 @@
         <v>300</v>
       </c>
       <c r="I84" t="s">
-        <v>334</v>
-      </c>
-      <c r="J84">
+        <v>335</v>
+      </c>
+      <c r="J84" t="s">
+        <v>311</v>
+      </c>
+      <c r="K84">
         <v>9</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>23.15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>325</v>
       </c>
       <c r="B85" t="s">
@@ -31041,17 +31294,20 @@
         <v>300</v>
       </c>
       <c r="I85" t="s">
-        <v>334</v>
-      </c>
-      <c r="J85">
+        <v>335</v>
+      </c>
+      <c r="J85" t="s">
+        <v>311</v>
+      </c>
+      <c r="K85">
         <v>12</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>15.97</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>325</v>
       </c>
       <c r="B86" t="s">
@@ -31076,17 +31332,20 @@
         <v>299</v>
       </c>
       <c r="I86" t="s">
-        <v>334</v>
-      </c>
-      <c r="J86">
+        <v>335</v>
+      </c>
+      <c r="J86" t="s">
+        <v>311</v>
+      </c>
+      <c r="K86">
         <v>3</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -31111,12 +31370,15 @@
         <v>299</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J87" s="1">
+        <v>335</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K87" s="1">
         <v>14</v>
       </c>
-      <c r="K87" s="1">
+      <c r="L87" s="1">
         <v>21.7</v>
       </c>
     </row>

--- a/data/raw/from-Master_seed-mix_LO.xlsx
+++ b/data/raw/from-Master_seed-mix_LO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1062" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB3E0C2-F44D-4375-9BBE-AEFBEDD0FBDD}"/>
+  <xr:revisionPtr revIDLastSave="1063" documentId="8_{6B8EBC92-27E1-4B6B-95EC-F86A8BD3054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14CC05E5-8A67-4A77-BF66-1C403B802365}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{0CAD531B-17AC-4CC0-8784-EF62A45F9D76}"/>
   </bookViews>
   <sheets>
     <sheet name="from-Master.xlsx" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1124,8 +1124,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -28056,8 +28054,8 @@
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28071,7 +28069,7 @@
     <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" customWidth="1"/>
     <col min="12" max="12" width="11.21875" customWidth="1"/>
   </cols>
@@ -28674,7 +28672,7 @@
       <c r="I16" t="s">
         <v>319</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" t="s">
         <v>310</v>
       </c>
       <c r="K16">
@@ -28712,7 +28710,7 @@
       <c r="I17" t="s">
         <v>319</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" t="s">
         <v>310</v>
       </c>
       <c r="K17">
@@ -28750,7 +28748,7 @@
       <c r="I18" t="s">
         <v>319</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" t="s">
         <v>310</v>
       </c>
       <c r="K18">
@@ -28788,7 +28786,7 @@
       <c r="I19" t="s">
         <v>319</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" t="s">
         <v>310</v>
       </c>
       <c r="K19">
@@ -28826,7 +28824,7 @@
       <c r="I20" t="s">
         <v>319</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" t="s">
         <v>310</v>
       </c>
       <c r="K20">
@@ -28864,7 +28862,7 @@
       <c r="I21" t="s">
         <v>319</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" t="s">
         <v>310</v>
       </c>
       <c r="K21">
@@ -28902,7 +28900,7 @@
       <c r="I22" t="s">
         <v>319</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" t="s">
         <v>310</v>
       </c>
       <c r="K22">
@@ -28940,7 +28938,7 @@
       <c r="I23" t="s">
         <v>317</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" t="s">
         <v>311</v>
       </c>
       <c r="K23">
@@ -28978,7 +28976,7 @@
       <c r="I24" t="s">
         <v>317</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" t="s">
         <v>311</v>
       </c>
       <c r="K24">
@@ -29016,7 +29014,7 @@
       <c r="I25" t="s">
         <v>317</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" t="s">
         <v>311</v>
       </c>
       <c r="K25">
@@ -29054,7 +29052,7 @@
       <c r="I26" t="s">
         <v>317</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" t="s">
         <v>311</v>
       </c>
       <c r="K26">
@@ -29092,7 +29090,7 @@
       <c r="I27" t="s">
         <v>317</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" t="s">
         <v>311</v>
       </c>
       <c r="K27">
@@ -29130,7 +29128,7 @@
       <c r="I28" t="s">
         <v>317</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" t="s">
         <v>311</v>
       </c>
       <c r="K28">
@@ -29168,7 +29166,7 @@
       <c r="I29" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="1" t="s">
         <v>311</v>
       </c>
       <c r="K29" s="1">
@@ -29206,7 +29204,7 @@
       <c r="I30" t="s">
         <v>320</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" t="s">
         <v>310</v>
       </c>
       <c r="K30">
@@ -29244,7 +29242,7 @@
       <c r="I31" t="s">
         <v>320</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" t="s">
         <v>310</v>
       </c>
       <c r="K31">
@@ -29282,7 +29280,7 @@
       <c r="I32" t="s">
         <v>320</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" t="s">
         <v>310</v>
       </c>
       <c r="K32">
@@ -29320,7 +29318,7 @@
       <c r="I33" t="s">
         <v>320</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" t="s">
         <v>310</v>
       </c>
       <c r="K33">
@@ -29358,7 +29356,7 @@
       <c r="I34" t="s">
         <v>320</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" t="s">
         <v>310</v>
       </c>
       <c r="K34">
@@ -29396,7 +29394,7 @@
       <c r="I35" t="s">
         <v>320</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" t="s">
         <v>310</v>
       </c>
       <c r="K35">
@@ -29434,7 +29432,7 @@
       <c r="I36" t="s">
         <v>320</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" t="s">
         <v>310</v>
       </c>
       <c r="K36">
@@ -29472,7 +29470,7 @@
       <c r="I37" t="s">
         <v>319</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" t="s">
         <v>311</v>
       </c>
       <c r="K37">
@@ -29510,7 +29508,7 @@
       <c r="I38" t="s">
         <v>319</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" t="s">
         <v>311</v>
       </c>
       <c r="K38">
@@ -29548,7 +29546,7 @@
       <c r="I39" t="s">
         <v>319</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" t="s">
         <v>311</v>
       </c>
       <c r="K39">
@@ -29586,7 +29584,7 @@
       <c r="I40" t="s">
         <v>319</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" t="s">
         <v>311</v>
       </c>
       <c r="K40">
@@ -29624,7 +29622,7 @@
       <c r="I41" t="s">
         <v>319</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" t="s">
         <v>311</v>
       </c>
       <c r="K41">
@@ -29662,7 +29660,7 @@
       <c r="I42" t="s">
         <v>319</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" t="s">
         <v>311</v>
       </c>
       <c r="K42">
@@ -29700,7 +29698,7 @@
       <c r="I43" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="1" t="s">
         <v>311</v>
       </c>
       <c r="K43" s="1">
@@ -29738,7 +29736,7 @@
       <c r="I44" t="s">
         <v>320</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" t="s">
         <v>310</v>
       </c>
       <c r="K44">
@@ -29776,7 +29774,7 @@
       <c r="I45" t="s">
         <v>320</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" t="s">
         <v>310</v>
       </c>
       <c r="K45">
@@ -29814,7 +29812,7 @@
       <c r="I46" t="s">
         <v>320</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" t="s">
         <v>310</v>
       </c>
       <c r="K46">
@@ -29852,7 +29850,7 @@
       <c r="I47" t="s">
         <v>320</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" t="s">
         <v>310</v>
       </c>
       <c r="K47">
@@ -29890,7 +29888,7 @@
       <c r="I48" t="s">
         <v>320</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" t="s">
         <v>310</v>
       </c>
       <c r="K48">
@@ -29928,7 +29926,7 @@
       <c r="I49" t="s">
         <v>320</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" t="s">
         <v>310</v>
       </c>
       <c r="K49">
@@ -29966,7 +29964,7 @@
       <c r="I50" t="s">
         <v>320</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" t="s">
         <v>310</v>
       </c>
       <c r="K50">
@@ -30004,7 +30002,7 @@
       <c r="I51" t="s">
         <v>318</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" t="s">
         <v>311</v>
       </c>
       <c r="K51">
@@ -30042,7 +30040,7 @@
       <c r="I52" t="s">
         <v>318</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" t="s">
         <v>311</v>
       </c>
       <c r="K52">
@@ -30080,7 +30078,7 @@
       <c r="I53" t="s">
         <v>318</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" t="s">
         <v>311</v>
       </c>
       <c r="K53">
@@ -30118,7 +30116,7 @@
       <c r="I54" t="s">
         <v>318</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" t="s">
         <v>311</v>
       </c>
       <c r="K54">
@@ -30156,7 +30154,7 @@
       <c r="I55" t="s">
         <v>318</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" t="s">
         <v>311</v>
       </c>
       <c r="K55">
@@ -30194,7 +30192,7 @@
       <c r="I56" t="s">
         <v>318</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" t="s">
         <v>311</v>
       </c>
       <c r="K56">
@@ -30232,7 +30230,7 @@
       <c r="I57" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="1" t="s">
         <v>311</v>
       </c>
       <c r="K57" s="1">
@@ -30878,7 +30876,7 @@
       <c r="I74" t="s">
         <v>334</v>
       </c>
-      <c r="J74" s="5" t="s">
+      <c r="J74" t="s">
         <v>310</v>
       </c>
       <c r="K74">
@@ -30916,7 +30914,7 @@
       <c r="I75" t="s">
         <v>334</v>
       </c>
-      <c r="J75" s="5" t="s">
+      <c r="J75" t="s">
         <v>310</v>
       </c>
       <c r="K75">
@@ -30954,7 +30952,7 @@
       <c r="I76" t="s">
         <v>334</v>
       </c>
-      <c r="J76" s="5" t="s">
+      <c r="J76" t="s">
         <v>310</v>
       </c>
       <c r="K76">
@@ -30992,7 +30990,7 @@
       <c r="I77" t="s">
         <v>334</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="J77" t="s">
         <v>310</v>
       </c>
       <c r="K77">
@@ -31030,7 +31028,7 @@
       <c r="I78" t="s">
         <v>334</v>
       </c>
-      <c r="J78" s="5" t="s">
+      <c r="J78" t="s">
         <v>310</v>
       </c>
       <c r="K78">
@@ -31068,7 +31066,7 @@
       <c r="I79" t="s">
         <v>334</v>
       </c>
-      <c r="J79" s="5" t="s">
+      <c r="J79" t="s">
         <v>310</v>
       </c>
       <c r="K79">
@@ -31106,7 +31104,7 @@
       <c r="I80" t="s">
         <v>334</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="J80" t="s">
         <v>310</v>
       </c>
       <c r="K80">
